--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,15 +241,15 @@
     <t>Celje</t>
   </si>
   <si>
+    <t>Nafta</t>
+  </si>
+  <si>
     <t>Primorje</t>
   </si>
   <si>
     <t>Koper</t>
   </si>
   <si>
-    <t>Nafta</t>
-  </si>
-  <si>
     <t>Domžale</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
     <t>['51', '89']</t>
   </si>
   <si>
+    <t>['75', '81']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +880,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1104,7 +1110,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1286,7 +1292,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1516,7 +1522,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1722,7 +1728,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1879,6 +1885,212 @@
       </c>
       <c r="BP6">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7483681</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7">
+        <v>2.88</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3.75</v>
+      </c>
+      <c r="T7">
+        <v>1.44</v>
+      </c>
+      <c r="U7">
+        <v>2.63</v>
+      </c>
+      <c r="V7">
+        <v>3.25</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>1.06</v>
+      </c>
+      <c r="Z7">
+        <v>2.17</v>
+      </c>
+      <c r="AA7">
+        <v>3.1</v>
+      </c>
+      <c r="AB7">
+        <v>3.11</v>
+      </c>
+      <c r="AC7">
+        <v>1.07</v>
+      </c>
+      <c r="AD7">
+        <v>7.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.4</v>
+      </c>
+      <c r="AF7">
+        <v>2.85</v>
+      </c>
+      <c r="AG7">
+        <v>2.11</v>
+      </c>
+      <c r="AH7">
+        <v>1.65</v>
+      </c>
+      <c r="AI7">
+        <v>1.91</v>
+      </c>
+      <c r="AJ7">
+        <v>1.8</v>
+      </c>
+      <c r="AK7">
+        <v>1.3</v>
+      </c>
+      <c r="AL7">
+        <v>1.3</v>
+      </c>
+      <c r="AM7">
+        <v>1.62</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
+        <v>9</v>
+      </c>
+      <c r="AX7">
+        <v>10</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>12</v>
+      </c>
+      <c r="BA7">
+        <v>7</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>14</v>
+      </c>
+      <c r="BD7">
+        <v>2.22</v>
+      </c>
+      <c r="BE7">
+        <v>6.15</v>
+      </c>
+      <c r="BF7">
+        <v>1.98</v>
+      </c>
+      <c r="BG7">
+        <v>1.33</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+      <c r="BI7">
+        <v>1.58</v>
+      </c>
+      <c r="BJ7">
+        <v>2.29</v>
+      </c>
+      <c r="BK7">
+        <v>1.97</v>
+      </c>
+      <c r="BL7">
+        <v>1.83</v>
+      </c>
+      <c r="BM7">
+        <v>2.5</v>
+      </c>
+      <c r="BN7">
+        <v>1.5</v>
+      </c>
+      <c r="BO7">
+        <v>3.2</v>
+      </c>
+      <c r="BP7">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,15 +244,15 @@
     <t>Nafta</t>
   </si>
   <si>
+    <t>Domžale</t>
+  </si>
+  <si>
     <t>Primorje</t>
   </si>
   <si>
     <t>Koper</t>
   </si>
   <si>
-    <t>Domžale</t>
-  </si>
-  <si>
     <t>Bravo</t>
   </si>
   <si>
@@ -274,6 +274,9 @@
     <t>['75', '81']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['43', '85']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +886,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1110,7 +1116,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1498,7 +1504,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1522,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1728,7 +1734,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1934,7 +1940,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2091,6 +2097,212 @@
       </c>
       <c r="BP7">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7483682</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45500.63541666666</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>3.1</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>3.25</v>
+      </c>
+      <c r="T8">
+        <v>1.44</v>
+      </c>
+      <c r="U8">
+        <v>2.63</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>7.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.07</v>
+      </c>
+      <c r="Z8">
+        <v>2.4</v>
+      </c>
+      <c r="AA8">
+        <v>3.25</v>
+      </c>
+      <c r="AB8">
+        <v>2.75</v>
+      </c>
+      <c r="AC8">
+        <v>1.03</v>
+      </c>
+      <c r="AD8">
+        <v>8.4</v>
+      </c>
+      <c r="AE8">
+        <v>1.31</v>
+      </c>
+      <c r="AF8">
+        <v>3.04</v>
+      </c>
+      <c r="AG8">
+        <v>1.95</v>
+      </c>
+      <c r="AH8">
+        <v>1.75</v>
+      </c>
+      <c r="AI8">
+        <v>1.83</v>
+      </c>
+      <c r="AJ8">
+        <v>1.83</v>
+      </c>
+      <c r="AK8">
+        <v>1.42</v>
+      </c>
+      <c r="AL8">
+        <v>1.29</v>
+      </c>
+      <c r="AM8">
+        <v>1.46</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>7</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>9</v>
+      </c>
+      <c r="AZ8">
+        <v>13</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>10</v>
+      </c>
+      <c r="BC8">
+        <v>16</v>
+      </c>
+      <c r="BD8">
+        <v>1.82</v>
+      </c>
+      <c r="BE8">
+        <v>6.6</v>
+      </c>
+      <c r="BF8">
+        <v>2.4</v>
+      </c>
+      <c r="BG8">
+        <v>1.15</v>
+      </c>
+      <c r="BH8">
+        <v>4.75</v>
+      </c>
+      <c r="BI8">
+        <v>1.26</v>
+      </c>
+      <c r="BJ8">
+        <v>3.5</v>
+      </c>
+      <c r="BK8">
+        <v>1.46</v>
+      </c>
+      <c r="BL8">
+        <v>2.55</v>
+      </c>
+      <c r="BM8">
+        <v>1.74</v>
+      </c>
+      <c r="BN8">
+        <v>1.97</v>
+      </c>
+      <c r="BO8">
+        <v>2.15</v>
+      </c>
+      <c r="BP8">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,10 +247,10 @@
     <t>Domžale</t>
   </si>
   <si>
+    <t>Koper</t>
+  </si>
+  <si>
     <t>Primorje</t>
-  </si>
-  <si>
-    <t>Koper</t>
   </si>
   <si>
     <t>Bravo</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2303,6 +2303,212 @@
       </c>
       <c r="BP8">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7483680</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45501.63541666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9">
+        <v>3.75</v>
+      </c>
+      <c r="R9">
+        <v>2.25</v>
+      </c>
+      <c r="S9">
+        <v>2.5</v>
+      </c>
+      <c r="T9">
+        <v>1.33</v>
+      </c>
+      <c r="U9">
+        <v>3.25</v>
+      </c>
+      <c r="V9">
+        <v>2.5</v>
+      </c>
+      <c r="W9">
+        <v>1.5</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>1.11</v>
+      </c>
+      <c r="Z9">
+        <v>2.99</v>
+      </c>
+      <c r="AA9">
+        <v>3.04</v>
+      </c>
+      <c r="AB9">
+        <v>1.98</v>
+      </c>
+      <c r="AC9">
+        <v>1.01</v>
+      </c>
+      <c r="AD9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>1.19</v>
+      </c>
+      <c r="AF9">
+        <v>3.94</v>
+      </c>
+      <c r="AG9">
+        <v>1.74</v>
+      </c>
+      <c r="AH9">
+        <v>1.98</v>
+      </c>
+      <c r="AI9">
+        <v>1.62</v>
+      </c>
+      <c r="AJ9">
+        <v>2.2</v>
+      </c>
+      <c r="AK9">
+        <v>1.75</v>
+      </c>
+      <c r="AL9">
+        <v>1.24</v>
+      </c>
+      <c r="AM9">
+        <v>1.27</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>13</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>6</v>
+      </c>
+      <c r="BC9">
+        <v>7</v>
+      </c>
+      <c r="BD9">
+        <v>2.35</v>
+      </c>
+      <c r="BE9">
+        <v>6.25</v>
+      </c>
+      <c r="BF9">
+        <v>1.88</v>
+      </c>
+      <c r="BG9">
+        <v>1.36</v>
+      </c>
+      <c r="BH9">
+        <v>2.9</v>
+      </c>
+      <c r="BI9">
+        <v>1.51</v>
+      </c>
+      <c r="BJ9">
+        <v>2.37</v>
+      </c>
+      <c r="BK9">
+        <v>1.96</v>
+      </c>
+      <c r="BL9">
+        <v>1.75</v>
+      </c>
+      <c r="BM9">
+        <v>2.55</v>
+      </c>
+      <c r="BN9">
+        <v>1.45</v>
+      </c>
+      <c r="BO9">
+        <v>3.3</v>
+      </c>
+      <c r="BP9">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,12 +250,12 @@
     <t>Koper</t>
   </si>
   <si>
+    <t>Bravo</t>
+  </si>
+  <si>
     <t>Primorje</t>
   </si>
   <si>
-    <t>Bravo</t>
-  </si>
-  <si>
     <t>['44', '65']</t>
   </si>
   <si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['47', '57', '69', '79']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -651,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +889,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1116,7 +1119,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1528,7 +1531,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1710,7 +1713,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1734,7 +1737,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1940,7 +1943,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2146,7 +2149,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2352,7 +2355,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2509,6 +2512,212 @@
       </c>
       <c r="BP9">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7483679</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1.48</v>
+      </c>
+      <c r="AA10">
+        <v>3.85</v>
+      </c>
+      <c r="AB10">
+        <v>5.6</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1.86</v>
+      </c>
+      <c r="AH10">
+        <v>1.86</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1.07</v>
+      </c>
+      <c r="AT10">
+        <v>1.07</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>2</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>3</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -2654,31 +2654,31 @@
         <v>1.07</v>
       </c>
       <c r="AU10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
         <v>2</v>
       </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
       <c r="AX10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB10">
         <v>3</v>
       </c>
       <c r="BC10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD10">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>['47', '57', '69', '79']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -654,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,7 +1122,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1531,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1737,7 +1740,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1943,7 +1946,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2149,7 +2152,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2355,7 +2358,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2718,6 +2721,212 @@
       </c>
       <c r="BP10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7483686</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11">
+        <v>2.65</v>
+      </c>
+      <c r="R11">
+        <v>2.14</v>
+      </c>
+      <c r="S11">
+        <v>3.66</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>2.99</v>
+      </c>
+      <c r="V11">
+        <v>2.7</v>
+      </c>
+      <c r="W11">
+        <v>1.43</v>
+      </c>
+      <c r="X11">
+        <v>6.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.09</v>
+      </c>
+      <c r="Z11">
+        <v>2.1</v>
+      </c>
+      <c r="AA11">
+        <v>3.4</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>1.01</v>
+      </c>
+      <c r="AD11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1.24</v>
+      </c>
+      <c r="AF11">
+        <v>3.48</v>
+      </c>
+      <c r="AG11">
+        <v>1.8</v>
+      </c>
+      <c r="AH11">
+        <v>1.9</v>
+      </c>
+      <c r="AI11">
+        <v>1.66</v>
+      </c>
+      <c r="AJ11">
+        <v>2.04</v>
+      </c>
+      <c r="AK11">
+        <v>1.32</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.58</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1.27</v>
+      </c>
+      <c r="AS11">
+        <v>1.22</v>
+      </c>
+      <c r="AT11">
+        <v>2.49</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>14</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>8</v>
+      </c>
+      <c r="BC11">
+        <v>10</v>
+      </c>
+      <c r="BD11">
+        <v>1.68</v>
+      </c>
+      <c r="BE11">
+        <v>6.95</v>
+      </c>
+      <c r="BF11">
+        <v>2.73</v>
+      </c>
+      <c r="BG11">
+        <v>1.3</v>
+      </c>
+      <c r="BH11">
+        <v>3.2</v>
+      </c>
+      <c r="BI11">
+        <v>1.46</v>
+      </c>
+      <c r="BJ11">
+        <v>2.45</v>
+      </c>
+      <c r="BK11">
+        <v>1.8</v>
+      </c>
+      <c r="BL11">
+        <v>1.86</v>
+      </c>
+      <c r="BM11">
+        <v>2.32</v>
+      </c>
+      <c r="BN11">
+        <v>1.51</v>
+      </c>
+      <c r="BO11">
+        <v>3.15</v>
+      </c>
+      <c r="BP11">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,6 +283,12 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -296,6 +302,12 @@
   </si>
   <si>
     <t>['43', '85']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,7 +1134,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1534,7 +1546,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1612,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1740,7 +1752,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1821,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1946,7 +1958,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2152,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2358,7 +2370,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2927,6 +2939,624 @@
       </c>
       <c r="BP11">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7483688</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45507.52083333334</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>5.25</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>1.55</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1.8</v>
+      </c>
+      <c r="AH12">
+        <v>1.85</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1.18</v>
+      </c>
+      <c r="AT12">
+        <v>1.18</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <v>6</v>
+      </c>
+      <c r="AZ12">
+        <v>9</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>4</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7483685</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45507.63541666666</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <v>5.15</v>
+      </c>
+      <c r="R13">
+        <v>2.31</v>
+      </c>
+      <c r="S13">
+        <v>2.04</v>
+      </c>
+      <c r="T13">
+        <v>1.32</v>
+      </c>
+      <c r="U13">
+        <v>3.2</v>
+      </c>
+      <c r="V13">
+        <v>2.48</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>5.8</v>
+      </c>
+      <c r="Y13">
+        <v>1.12</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>1.57</v>
+      </c>
+      <c r="AC13">
+        <v>1.01</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>1.19</v>
+      </c>
+      <c r="AF13">
+        <v>3.94</v>
+      </c>
+      <c r="AG13">
+        <v>1.65</v>
+      </c>
+      <c r="AH13">
+        <v>2.05</v>
+      </c>
+      <c r="AI13">
+        <v>1.73</v>
+      </c>
+      <c r="AJ13">
+        <v>1.95</v>
+      </c>
+      <c r="AK13">
+        <v>2.3</v>
+      </c>
+      <c r="AL13">
+        <v>1.19</v>
+      </c>
+      <c r="AM13">
+        <v>1.12</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1.72</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.72</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <v>9</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>4</v>
+      </c>
+      <c r="BE13">
+        <v>7.6</v>
+      </c>
+      <c r="BF13">
+        <v>1.36</v>
+      </c>
+      <c r="BG13">
+        <v>1.18</v>
+      </c>
+      <c r="BH13">
+        <v>4.33</v>
+      </c>
+      <c r="BI13">
+        <v>1.3</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2</v>
+      </c>
+      <c r="BK13">
+        <v>1.53</v>
+      </c>
+      <c r="BL13">
+        <v>2.4</v>
+      </c>
+      <c r="BM13">
+        <v>1.87</v>
+      </c>
+      <c r="BN13">
+        <v>1.92</v>
+      </c>
+      <c r="BO13">
+        <v>2.3</v>
+      </c>
+      <c r="BP13">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7483684</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45508.63541666666</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14">
+        <v>2.05</v>
+      </c>
+      <c r="R14">
+        <v>2.3</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>3.25</v>
+      </c>
+      <c r="V14">
+        <v>2.5</v>
+      </c>
+      <c r="W14">
+        <v>1.5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>1.11</v>
+      </c>
+      <c r="Z14">
+        <v>1.49</v>
+      </c>
+      <c r="AA14">
+        <v>4.1</v>
+      </c>
+      <c r="AB14">
+        <v>5.82</v>
+      </c>
+      <c r="AC14">
+        <v>1.02</v>
+      </c>
+      <c r="AD14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
+        <v>4.05</v>
+      </c>
+      <c r="AG14">
+        <v>1.73</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.12</v>
+      </c>
+      <c r="AL14">
+        <v>1.18</v>
+      </c>
+      <c r="AM14">
+        <v>2.15</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14">
+        <v>1.88</v>
+      </c>
+      <c r="AS14">
+        <v>1.47</v>
+      </c>
+      <c r="AT14">
+        <v>3.35</v>
+      </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>5</v>
+      </c>
+      <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
+        <v>10</v>
+      </c>
+      <c r="BA14">
+        <v>6</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.32</v>
+      </c>
+      <c r="BE14">
+        <v>7.4</v>
+      </c>
+      <c r="BF14">
+        <v>4.45</v>
+      </c>
+      <c r="BG14">
+        <v>1.32</v>
+      </c>
+      <c r="BH14">
+        <v>3.1</v>
+      </c>
+      <c r="BI14">
+        <v>1.57</v>
+      </c>
+      <c r="BJ14">
+        <v>2.26</v>
+      </c>
+      <c r="BK14">
+        <v>1.94</v>
+      </c>
+      <c r="BL14">
+        <v>1.77</v>
+      </c>
+      <c r="BM14">
+        <v>2.46</v>
+      </c>
+      <c r="BN14">
+        <v>1.48</v>
+      </c>
+      <c r="BO14">
+        <v>3.2</v>
+      </c>
+      <c r="BP14">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['8', '57']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -669,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1137,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1546,7 +1549,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1752,7 +1755,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1958,7 +1961,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2164,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2370,7 +2373,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2988,7 +2991,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3400,7 +3403,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3557,6 +3560,212 @@
       </c>
       <c r="BP14">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7483687</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15">
+        <v>1.67</v>
+      </c>
+      <c r="R15">
+        <v>2.5</v>
+      </c>
+      <c r="S15">
+        <v>8.5</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>5.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>1.25</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+      <c r="AE15">
+        <v>1.2</v>
+      </c>
+      <c r="AF15">
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>1.65</v>
+      </c>
+      <c r="AH15">
+        <v>2.15</v>
+      </c>
+      <c r="AI15">
+        <v>2.25</v>
+      </c>
+      <c r="AJ15">
+        <v>1.57</v>
+      </c>
+      <c r="AK15">
+        <v>1.01</v>
+      </c>
+      <c r="AL15">
+        <v>1.12</v>
+      </c>
+      <c r="AM15">
+        <v>3.52</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1.3</v>
+      </c>
+      <c r="AS15">
+        <v>1.33</v>
+      </c>
+      <c r="AT15">
+        <v>2.63</v>
+      </c>
+      <c r="AU15">
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>15</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>22</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>8</v>
+      </c>
+      <c r="BD15">
+        <v>1.07</v>
+      </c>
+      <c r="BE15">
+        <v>11.75</v>
+      </c>
+      <c r="BF15">
+        <v>10.5</v>
+      </c>
+      <c r="BG15">
+        <v>1.26</v>
+      </c>
+      <c r="BH15">
+        <v>3.5</v>
+      </c>
+      <c r="BI15">
+        <v>1.47</v>
+      </c>
+      <c r="BJ15">
+        <v>2.5</v>
+      </c>
+      <c r="BK15">
+        <v>1.78</v>
+      </c>
+      <c r="BL15">
+        <v>1.93</v>
+      </c>
+      <c r="BM15">
+        <v>2.23</v>
+      </c>
+      <c r="BN15">
+        <v>1.58</v>
+      </c>
+      <c r="BO15">
+        <v>2.85</v>
+      </c>
+      <c r="BP15">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['22', '43', '52']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2039,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2660,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3766,6 +3769,212 @@
       </c>
       <c r="BP15">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7483690</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45514.63541666666</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>2.38</v>
+      </c>
+      <c r="AA16">
+        <v>3.3</v>
+      </c>
+      <c r="AB16">
+        <v>2.6</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1.91</v>
+      </c>
+      <c r="AH16">
+        <v>1.8</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1.5</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1.76</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>2.76</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>7</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,12 @@
     <t>['8', '57']</t>
   </si>
   <si>
+    <t>['13', '38', '76', '90+3']</t>
+  </si>
+  <si>
+    <t>['21', '67']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -314,6 +320,12 @@
   </si>
   <si>
     <t>['22', '43', '52']</t>
+  </si>
+  <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,7 +1152,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1552,7 +1564,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1630,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1758,7 +1770,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1964,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2170,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2248,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2376,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2457,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2994,7 +3006,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3406,7 +3418,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3484,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3818,7 +3830,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3911,70 +3923,688 @@
         <v>2.76</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
         <v>4</v>
       </c>
-      <c r="BA16">
-        <v>2</v>
-      </c>
       <c r="BB16">
+        <v>8</v>
+      </c>
+      <c r="BC16">
+        <v>12</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7483692</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45515.52083333334</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>2.3</v>
+      </c>
+      <c r="S17">
+        <v>5.5</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>1.5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>1.11</v>
+      </c>
+      <c r="Z17">
+        <v>1.39</v>
+      </c>
+      <c r="AA17">
+        <v>4.28</v>
+      </c>
+      <c r="AB17">
+        <v>6.35</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>14.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.19</v>
+      </c>
+      <c r="AF17">
+        <v>3.9</v>
+      </c>
+      <c r="AG17">
+        <v>1.69</v>
+      </c>
+      <c r="AH17">
+        <v>2.05</v>
+      </c>
+      <c r="AI17">
+        <v>1.83</v>
+      </c>
+      <c r="AJ17">
+        <v>1.83</v>
+      </c>
+      <c r="AK17">
+        <v>1.1</v>
+      </c>
+      <c r="AL17">
+        <v>1.18</v>
+      </c>
+      <c r="AM17">
+        <v>2.45</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>2.23</v>
+      </c>
+      <c r="AS17">
+        <v>1.34</v>
+      </c>
+      <c r="AT17">
+        <v>3.57</v>
+      </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
+      <c r="AV17">
+        <v>6</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>7</v>
+      </c>
+      <c r="AY17">
+        <v>12</v>
+      </c>
+      <c r="AZ17">
+        <v>13</v>
+      </c>
+      <c r="BA17">
+        <v>2</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>4</v>
+      </c>
+      <c r="BD17">
+        <v>1.18</v>
+      </c>
+      <c r="BE17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF17">
+        <v>6.2</v>
+      </c>
+      <c r="BG17">
+        <v>1.25</v>
+      </c>
+      <c r="BH17">
+        <v>3.6</v>
+      </c>
+      <c r="BI17">
+        <v>1.42</v>
+      </c>
+      <c r="BJ17">
+        <v>2.62</v>
+      </c>
+      <c r="BK17">
+        <v>1.68</v>
+      </c>
+      <c r="BL17">
+        <v>2.15</v>
+      </c>
+      <c r="BM17">
+        <v>2.1</v>
+      </c>
+      <c r="BN17">
+        <v>1.71</v>
+      </c>
+      <c r="BO17">
+        <v>2.62</v>
+      </c>
+      <c r="BP17">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7483691</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45515.52083333334</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18">
+        <v>4.75</v>
+      </c>
+      <c r="R18">
+        <v>2.3</v>
+      </c>
+      <c r="S18">
+        <v>2.1</v>
+      </c>
+      <c r="T18">
+        <v>1.3</v>
+      </c>
+      <c r="U18">
+        <v>3.4</v>
+      </c>
+      <c r="V18">
+        <v>2.5</v>
+      </c>
+      <c r="W18">
+        <v>1.5</v>
+      </c>
+      <c r="X18">
+        <v>5.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.13</v>
+      </c>
+      <c r="Z18">
+        <v>3.6</v>
+      </c>
+      <c r="AA18">
+        <v>3.45</v>
+      </c>
+      <c r="AB18">
+        <v>1.85</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>1.18</v>
+      </c>
+      <c r="AF18">
+        <v>4.33</v>
+      </c>
+      <c r="AG18">
+        <v>1.85</v>
+      </c>
+      <c r="AH18">
+        <v>1.85</v>
+      </c>
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>2.24</v>
+      </c>
+      <c r="AL18">
+        <v>1.19</v>
+      </c>
+      <c r="AM18">
+        <v>1.14</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>1.21</v>
+      </c>
+      <c r="AS18">
+        <v>1.73</v>
+      </c>
+      <c r="AT18">
+        <v>2.94</v>
+      </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>12</v>
+      </c>
+      <c r="AY18">
         <v>5</v>
       </c>
-      <c r="BC16">
+      <c r="AZ18">
+        <v>16</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
         <v>7</v>
       </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
+      <c r="BC18">
+        <v>13</v>
+      </c>
+      <c r="BD18">
+        <v>3.94</v>
+      </c>
+      <c r="BE18">
+        <v>9.4</v>
+      </c>
+      <c r="BF18">
+        <v>1.32</v>
+      </c>
+      <c r="BG18">
+        <v>1.25</v>
+      </c>
+      <c r="BH18">
+        <v>3.6</v>
+      </c>
+      <c r="BI18">
+        <v>1.4</v>
+      </c>
+      <c r="BJ18">
+        <v>2.7</v>
+      </c>
+      <c r="BK18">
+        <v>1.69</v>
+      </c>
+      <c r="BL18">
+        <v>2.13</v>
+      </c>
+      <c r="BM18">
+        <v>2.08</v>
+      </c>
+      <c r="BN18">
+        <v>1.73</v>
+      </c>
+      <c r="BO18">
+        <v>2.6</v>
+      </c>
+      <c r="BP18">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7483693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45515.63541666666</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19">
+        <v>1.83</v>
+      </c>
+      <c r="R19">
+        <v>2.48</v>
+      </c>
+      <c r="S19">
+        <v>5.9</v>
+      </c>
+      <c r="T19">
+        <v>1.29</v>
+      </c>
+      <c r="U19">
+        <v>3.4</v>
+      </c>
+      <c r="V19">
+        <v>2.29</v>
+      </c>
+      <c r="W19">
+        <v>1.58</v>
+      </c>
+      <c r="X19">
+        <v>4.9</v>
+      </c>
+      <c r="Y19">
+        <v>1.16</v>
+      </c>
+      <c r="Z19">
+        <v>1.39</v>
+      </c>
+      <c r="AA19">
+        <v>4.4</v>
+      </c>
+      <c r="AB19">
+        <v>5.7</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>12</v>
+      </c>
+      <c r="AE19">
+        <v>1.14</v>
+      </c>
+      <c r="AF19">
+        <v>4.55</v>
+      </c>
+      <c r="AG19">
+        <v>1.52</v>
+      </c>
+      <c r="AH19">
+        <v>2.36</v>
+      </c>
+      <c r="AI19">
+        <v>1.72</v>
+      </c>
+      <c r="AJ19">
+        <v>1.95</v>
+      </c>
+      <c r="AK19">
+        <v>1.07</v>
+      </c>
+      <c r="AL19">
+        <v>1.15</v>
+      </c>
+      <c r="AM19">
+        <v>2.74</v>
+      </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>2.33</v>
+      </c>
+      <c r="AQ19">
+        <v>1.5</v>
+      </c>
+      <c r="AR19">
+        <v>1.75</v>
+      </c>
+      <c r="AS19">
+        <v>1.75</v>
+      </c>
+      <c r="AT19">
+        <v>3.5</v>
+      </c>
+      <c r="AU19">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19">
+        <v>9</v>
+      </c>
+      <c r="AX19">
+        <v>6</v>
+      </c>
+      <c r="AY19">
+        <v>14</v>
+      </c>
+      <c r="AZ19">
+        <v>11</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>4</v>
+      </c>
+      <c r="BD19">
+        <v>1.32</v>
+      </c>
+      <c r="BE19">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF19">
+        <v>3.95</v>
+      </c>
+      <c r="BG19">
+        <v>1.25</v>
+      </c>
+      <c r="BH19">
+        <v>3.6</v>
+      </c>
+      <c r="BI19">
+        <v>1.4</v>
+      </c>
+      <c r="BJ19">
+        <v>2.7</v>
+      </c>
+      <c r="BK19">
+        <v>1.67</v>
+      </c>
+      <c r="BL19">
+        <v>2.07</v>
+      </c>
+      <c r="BM19">
+        <v>2.07</v>
+      </c>
+      <c r="BN19">
+        <v>1.67</v>
+      </c>
+      <c r="BO19">
+        <v>2.6</v>
+      </c>
+      <c r="BP19">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>['21', '67']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1152,7 +1155,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1233,7 +1236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1564,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1770,7 +1773,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1976,7 +1979,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2182,7 +2185,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2388,7 +2391,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3006,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3087,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3418,7 +3421,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3830,7 +3833,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4036,7 +4039,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4448,7 +4451,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4605,6 +4608,212 @@
       </c>
       <c r="BP19">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7483689</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20">
+        <v>3.1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20">
+        <v>1.5</v>
+      </c>
+      <c r="U20">
+        <v>2.5</v>
+      </c>
+      <c r="V20">
+        <v>3.4</v>
+      </c>
+      <c r="W20">
+        <v>1.3</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>1.06</v>
+      </c>
+      <c r="Z20">
+        <v>2.46</v>
+      </c>
+      <c r="AA20">
+        <v>3.38</v>
+      </c>
+      <c r="AB20">
+        <v>2.84</v>
+      </c>
+      <c r="AC20">
+        <v>1.04</v>
+      </c>
+      <c r="AD20">
+        <v>7.5</v>
+      </c>
+      <c r="AE20">
+        <v>1.4</v>
+      </c>
+      <c r="AF20">
+        <v>2.8</v>
+      </c>
+      <c r="AG20">
+        <v>2.19</v>
+      </c>
+      <c r="AH20">
+        <v>1.68</v>
+      </c>
+      <c r="AI20">
+        <v>1.91</v>
+      </c>
+      <c r="AJ20">
+        <v>1.8</v>
+      </c>
+      <c r="AK20">
+        <v>1.38</v>
+      </c>
+      <c r="AL20">
+        <v>1.3</v>
+      </c>
+      <c r="AM20">
+        <v>1.5</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <v>0.95</v>
+      </c>
+      <c r="AS20">
+        <v>1.32</v>
+      </c>
+      <c r="AT20">
+        <v>2.27</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>6</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>9</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>4</v>
+      </c>
+      <c r="BB20">
+        <v>10</v>
+      </c>
+      <c r="BC20">
+        <v>14</v>
+      </c>
+      <c r="BD20">
+        <v>1.96</v>
+      </c>
+      <c r="BE20">
+        <v>6.2</v>
+      </c>
+      <c r="BF20">
+        <v>2.24</v>
+      </c>
+      <c r="BG20">
+        <v>1.33</v>
+      </c>
+      <c r="BH20">
+        <v>3</v>
+      </c>
+      <c r="BI20">
+        <v>1.59</v>
+      </c>
+      <c r="BJ20">
+        <v>2.31</v>
+      </c>
+      <c r="BK20">
+        <v>1.98</v>
+      </c>
+      <c r="BL20">
+        <v>1.82</v>
+      </c>
+      <c r="BM20">
+        <v>2.52</v>
+      </c>
+      <c r="BN20">
+        <v>1.5</v>
+      </c>
+      <c r="BO20">
+        <v>3.2</v>
+      </c>
+      <c r="BP20">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,9 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['45+2', '63']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,7 +1161,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1567,7 +1573,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1773,7 +1779,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1979,7 +1985,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2185,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2391,7 +2397,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3009,7 +3015,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3087,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3421,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3833,7 +3839,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4039,7 +4045,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4451,7 +4457,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4814,6 +4820,212 @@
       </c>
       <c r="BP20">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7483697</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>2.58</v>
+      </c>
+      <c r="AA21">
+        <v>3.05</v>
+      </c>
+      <c r="AB21">
+        <v>2.25</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1.86</v>
+      </c>
+      <c r="AH21">
+        <v>1.69</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1.05</v>
+      </c>
+      <c r="AS21">
+        <v>1.51</v>
+      </c>
+      <c r="AT21">
+        <v>2.56</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>8</v>
+      </c>
+      <c r="BA21">
+        <v>10</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>13</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,12 @@
     <t>['45+2', '63']</t>
   </si>
   <si>
+    <t>['12', '90+4']</t>
+  </si>
+  <si>
+    <t>['51', '55', '77']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -335,6 +341,9 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['13', '21', '26']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,7 +1170,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1445,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1573,7 +1582,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1779,7 +1788,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1860,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1985,7 +1994,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2191,7 +2200,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2397,7 +2406,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2475,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3015,7 +3024,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3299,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3427,7 +3436,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3508,7 +3517,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3839,7 +3848,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4045,7 +4054,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4457,7 +4466,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4869,7 +4878,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5026,6 +5035,418 @@
       </c>
       <c r="BP21">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7483694</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45521.52083333334</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>3.4</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>2.75</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>1.08</v>
+      </c>
+      <c r="Z22">
+        <v>2.3</v>
+      </c>
+      <c r="AA22">
+        <v>3.2</v>
+      </c>
+      <c r="AB22">
+        <v>2.7</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>8.9</v>
+      </c>
+      <c r="AE22">
+        <v>1.28</v>
+      </c>
+      <c r="AF22">
+        <v>3.2</v>
+      </c>
+      <c r="AG22">
+        <v>1.85</v>
+      </c>
+      <c r="AH22">
+        <v>1.8</v>
+      </c>
+      <c r="AI22">
+        <v>1.8</v>
+      </c>
+      <c r="AJ22">
+        <v>1.91</v>
+      </c>
+      <c r="AK22">
+        <v>1.4</v>
+      </c>
+      <c r="AL22">
+        <v>1.33</v>
+      </c>
+      <c r="AM22">
+        <v>1.57</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>1.33</v>
+      </c>
+      <c r="AR22">
+        <v>1.24</v>
+      </c>
+      <c r="AS22">
+        <v>1.45</v>
+      </c>
+      <c r="AT22">
+        <v>2.69</v>
+      </c>
+      <c r="AU22">
+        <v>10</v>
+      </c>
+      <c r="AV22">
+        <v>11</v>
+      </c>
+      <c r="AW22">
+        <v>9</v>
+      </c>
+      <c r="AX22">
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>19</v>
+      </c>
+      <c r="AZ22">
+        <v>18</v>
+      </c>
+      <c r="BA22">
+        <v>3</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>7</v>
+      </c>
+      <c r="BD22">
+        <v>2.13</v>
+      </c>
+      <c r="BE22">
+        <v>6.4</v>
+      </c>
+      <c r="BF22">
+        <v>2.03</v>
+      </c>
+      <c r="BG22">
+        <v>1.22</v>
+      </c>
+      <c r="BH22">
+        <v>3.8</v>
+      </c>
+      <c r="BI22">
+        <v>1.38</v>
+      </c>
+      <c r="BJ22">
+        <v>2.8</v>
+      </c>
+      <c r="BK22">
+        <v>1.63</v>
+      </c>
+      <c r="BL22">
+        <v>2.21</v>
+      </c>
+      <c r="BM22">
+        <v>2.01</v>
+      </c>
+      <c r="BN22">
+        <v>1.78</v>
+      </c>
+      <c r="BO22">
+        <v>2.4</v>
+      </c>
+      <c r="BP22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7483698</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45521.63541666666</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23">
+        <v>2.25</v>
+      </c>
+      <c r="R23">
+        <v>2.25</v>
+      </c>
+      <c r="S23">
+        <v>4.5</v>
+      </c>
+      <c r="T23">
+        <v>1.36</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2.63</v>
+      </c>
+      <c r="W23">
+        <v>1.44</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.1</v>
+      </c>
+      <c r="Z23">
+        <v>1.67</v>
+      </c>
+      <c r="AA23">
+        <v>3.6</v>
+      </c>
+      <c r="AB23">
+        <v>4.2</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>3.64</v>
+      </c>
+      <c r="AG23">
+        <v>1.75</v>
+      </c>
+      <c r="AH23">
+        <v>1.91</v>
+      </c>
+      <c r="AI23">
+        <v>1.8</v>
+      </c>
+      <c r="AJ23">
+        <v>1.91</v>
+      </c>
+      <c r="AK23">
+        <v>1.2</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>2.15</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0.7</v>
+      </c>
+      <c r="AS23">
+        <v>1.05</v>
+      </c>
+      <c r="AT23">
+        <v>1.75</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <v>9</v>
+      </c>
+      <c r="AX23">
+        <v>7</v>
+      </c>
+      <c r="AY23">
+        <v>14</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>6</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.18</v>
+      </c>
+      <c r="BE23">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF23">
+        <v>6.4</v>
+      </c>
+      <c r="BG23">
+        <v>1.36</v>
+      </c>
+      <c r="BH23">
+        <v>2.79</v>
+      </c>
+      <c r="BI23">
+        <v>1.65</v>
+      </c>
+      <c r="BJ23">
+        <v>2.05</v>
+      </c>
+      <c r="BK23">
+        <v>2.11</v>
+      </c>
+      <c r="BL23">
+        <v>1.62</v>
+      </c>
+      <c r="BM23">
+        <v>2.95</v>
+      </c>
+      <c r="BN23">
+        <v>1.35</v>
+      </c>
+      <c r="BO23">
+        <v>3.6</v>
+      </c>
+      <c r="BP23">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,12 @@
     <t>['51', '55', '77']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['3', '51']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -328,9 +334,6 @@
     <t>['45+1', '77']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['22', '43', '52']</t>
   </si>
   <si>
@@ -344,6 +347,12 @@
   </si>
   <si>
     <t>['13', '21', '26']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['21', '78']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1170,7 +1179,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1248,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1582,7 +1591,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1788,7 +1797,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1994,7 +2003,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2200,7 +2209,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2406,7 +2415,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2896,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3024,7 +3033,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3311,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3436,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q14">
         <v>2.05</v>
@@ -3720,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3848,7 +3857,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4054,7 +4063,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4466,7 +4475,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4878,7 +4887,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5084,7 +5093,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5447,6 +5456,418 @@
       </c>
       <c r="BP23">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7483695</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45522.52083333334</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24">
+        <v>4.6</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>2.05</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.1</v>
+      </c>
+      <c r="V24">
+        <v>2.55</v>
+      </c>
+      <c r="W24">
+        <v>1.42</v>
+      </c>
+      <c r="X24">
+        <v>5.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>4.89</v>
+      </c>
+      <c r="AA24">
+        <v>3.85</v>
+      </c>
+      <c r="AB24">
+        <v>1.56</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.25</v>
+      </c>
+      <c r="AF24">
+        <v>3.6</v>
+      </c>
+      <c r="AG24">
+        <v>1.75</v>
+      </c>
+      <c r="AH24">
+        <v>1.96</v>
+      </c>
+      <c r="AI24">
+        <v>1.7</v>
+      </c>
+      <c r="AJ24">
+        <v>1.97</v>
+      </c>
+      <c r="AK24">
+        <v>2.35</v>
+      </c>
+      <c r="AL24">
+        <v>1.13</v>
+      </c>
+      <c r="AM24">
+        <v>1.12</v>
+      </c>
+      <c r="AN24">
+        <v>1.5</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1.33</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1.24</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>1.24</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>5</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>4.75</v>
+      </c>
+      <c r="BE24">
+        <v>7.8</v>
+      </c>
+      <c r="BF24">
+        <v>1.28</v>
+      </c>
+      <c r="BG24">
+        <v>1.3</v>
+      </c>
+      <c r="BH24">
+        <v>3.2</v>
+      </c>
+      <c r="BI24">
+        <v>1.54</v>
+      </c>
+      <c r="BJ24">
+        <v>2.39</v>
+      </c>
+      <c r="BK24">
+        <v>1.89</v>
+      </c>
+      <c r="BL24">
+        <v>1.91</v>
+      </c>
+      <c r="BM24">
+        <v>2.37</v>
+      </c>
+      <c r="BN24">
+        <v>1.55</v>
+      </c>
+      <c r="BO24">
+        <v>3</v>
+      </c>
+      <c r="BP24">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7483696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45522.63541666666</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25">
+        <v>2.2</v>
+      </c>
+      <c r="R25">
+        <v>2.35</v>
+      </c>
+      <c r="S25">
+        <v>3.9</v>
+      </c>
+      <c r="T25">
+        <v>1.32</v>
+      </c>
+      <c r="U25">
+        <v>2.95</v>
+      </c>
+      <c r="V25">
+        <v>2.4</v>
+      </c>
+      <c r="W25">
+        <v>1.47</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1.12</v>
+      </c>
+      <c r="Z25">
+        <v>2.2</v>
+      </c>
+      <c r="AA25">
+        <v>3.33</v>
+      </c>
+      <c r="AB25">
+        <v>2.9</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>1.18</v>
+      </c>
+      <c r="AF25">
+        <v>4.1</v>
+      </c>
+      <c r="AG25">
+        <v>1.62</v>
+      </c>
+      <c r="AH25">
+        <v>2.16</v>
+      </c>
+      <c r="AI25">
+        <v>1.5</v>
+      </c>
+      <c r="AJ25">
+        <v>2.35</v>
+      </c>
+      <c r="AK25">
+        <v>1.15</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.87</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2.33</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>1.83</v>
+      </c>
+      <c r="AS25">
+        <v>1.42</v>
+      </c>
+      <c r="AT25">
+        <v>3.25</v>
+      </c>
+      <c r="AU25">
+        <v>11</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+      <c r="AY25">
+        <v>17</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
+        <v>8</v>
+      </c>
+      <c r="BD25">
+        <v>1.62</v>
+      </c>
+      <c r="BE25">
+        <v>7.7</v>
+      </c>
+      <c r="BF25">
+        <v>2.91</v>
+      </c>
+      <c r="BG25">
+        <v>1.33</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>1.59</v>
+      </c>
+      <c r="BJ25">
+        <v>2.31</v>
+      </c>
+      <c r="BK25">
+        <v>1.97</v>
+      </c>
+      <c r="BL25">
+        <v>1.82</v>
+      </c>
+      <c r="BM25">
+        <v>2.52</v>
+      </c>
+      <c r="BN25">
+        <v>1.5</v>
+      </c>
+      <c r="BO25">
+        <v>3.2</v>
+      </c>
+      <c r="BP25">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['3', '51']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t>['21', '78']</t>
+  </si>
+  <si>
+    <t>['43', '51', '61']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1260,7 +1266,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1463,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1591,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1797,7 +1803,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2003,7 +2009,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2209,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2287,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2415,7 +2421,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3033,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3114,7 +3120,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3317,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3857,7 +3863,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4063,7 +4069,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4347,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4475,7 +4481,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4762,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -4887,7 +4893,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5093,7 +5099,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5171,7 +5177,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5505,7 +5511,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5711,7 +5717,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5868,6 +5874,418 @@
       </c>
       <c r="BP25">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7483703</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45528.52083333334</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26">
+        <v>2.61</v>
+      </c>
+      <c r="R26">
+        <v>2.02</v>
+      </c>
+      <c r="S26">
+        <v>4.2</v>
+      </c>
+      <c r="T26">
+        <v>1.44</v>
+      </c>
+      <c r="U26">
+        <v>2.65</v>
+      </c>
+      <c r="V26">
+        <v>3.1</v>
+      </c>
+      <c r="W26">
+        <v>1.34</v>
+      </c>
+      <c r="X26">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>1.06</v>
+      </c>
+      <c r="Z26">
+        <v>2.04</v>
+      </c>
+      <c r="AA26">
+        <v>3.2</v>
+      </c>
+      <c r="AB26">
+        <v>3.15</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>7.9</v>
+      </c>
+      <c r="AE26">
+        <v>1.34</v>
+      </c>
+      <c r="AF26">
+        <v>2.88</v>
+      </c>
+      <c r="AG26">
+        <v>2.05</v>
+      </c>
+      <c r="AH26">
+        <v>1.65</v>
+      </c>
+      <c r="AI26">
+        <v>1.85</v>
+      </c>
+      <c r="AJ26">
+        <v>1.81</v>
+      </c>
+      <c r="AK26">
+        <v>1.26</v>
+      </c>
+      <c r="AL26">
+        <v>1.28</v>
+      </c>
+      <c r="AM26">
+        <v>1.7</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2.25</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.62</v>
+      </c>
+      <c r="AS26">
+        <v>1.47</v>
+      </c>
+      <c r="AT26">
+        <v>3.09</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>13</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>19</v>
+      </c>
+      <c r="AZ26">
+        <v>9</v>
+      </c>
+      <c r="BA26">
+        <v>9</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>14</v>
+      </c>
+      <c r="BD26">
+        <v>1.65</v>
+      </c>
+      <c r="BE26">
+        <v>6.65</v>
+      </c>
+      <c r="BF26">
+        <v>2.77</v>
+      </c>
+      <c r="BG26">
+        <v>1.23</v>
+      </c>
+      <c r="BH26">
+        <v>3.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.39</v>
+      </c>
+      <c r="BJ26">
+        <v>2.67</v>
+      </c>
+      <c r="BK26">
+        <v>1.68</v>
+      </c>
+      <c r="BL26">
+        <v>2.01</v>
+      </c>
+      <c r="BM26">
+        <v>2.12</v>
+      </c>
+      <c r="BN26">
+        <v>1.61</v>
+      </c>
+      <c r="BO26">
+        <v>2.7</v>
+      </c>
+      <c r="BP26">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7483700</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.63541666666</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27">
+        <v>4.06</v>
+      </c>
+      <c r="R27">
+        <v>2.17</v>
+      </c>
+      <c r="S27">
+        <v>2.73</v>
+      </c>
+      <c r="T27">
+        <v>1.4</v>
+      </c>
+      <c r="U27">
+        <v>2.86</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1.36</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.87</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>2.16</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>8.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.3</v>
+      </c>
+      <c r="AF27">
+        <v>3.2</v>
+      </c>
+      <c r="AG27">
+        <v>1.95</v>
+      </c>
+      <c r="AH27">
+        <v>1.73</v>
+      </c>
+      <c r="AI27">
+        <v>1.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>1.67</v>
+      </c>
+      <c r="AL27">
+        <v>1.33</v>
+      </c>
+      <c r="AM27">
+        <v>1.33</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>0.33</v>
+      </c>
+      <c r="AQ27">
+        <v>2.25</v>
+      </c>
+      <c r="AR27">
+        <v>0.98</v>
+      </c>
+      <c r="AS27">
+        <v>1.5</v>
+      </c>
+      <c r="AT27">
+        <v>2.48</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>5</v>
+      </c>
+      <c r="AY27">
+        <v>10</v>
+      </c>
+      <c r="AZ27">
+        <v>11</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>7</v>
+      </c>
+      <c r="BD27">
+        <v>2.82</v>
+      </c>
+      <c r="BE27">
+        <v>6.5</v>
+      </c>
+      <c r="BF27">
+        <v>1.64</v>
+      </c>
+      <c r="BG27">
+        <v>1.3</v>
+      </c>
+      <c r="BH27">
+        <v>3.2</v>
+      </c>
+      <c r="BI27">
+        <v>1.54</v>
+      </c>
+      <c r="BJ27">
+        <v>2.38</v>
+      </c>
+      <c r="BK27">
+        <v>1.91</v>
+      </c>
+      <c r="BL27">
+        <v>1.88</v>
+      </c>
+      <c r="BM27">
+        <v>2.38</v>
+      </c>
+      <c r="BN27">
+        <v>1.54</v>
+      </c>
+      <c r="BO27">
+        <v>3</v>
+      </c>
+      <c r="BP27">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,15 +319,15 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
     <t>['83']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>['43', '51', '61']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['14', '36', '40']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1066,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1185,7 +1191,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1597,7 +1603,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1803,7 +1809,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2502,7 +2508,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2708,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3944,7 +3950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4147,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4356,7 +4362,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>1.21</v>
@@ -4559,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -6286,6 +6292,418 @@
       </c>
       <c r="BP27">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7483702</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45529.52083333334</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28">
+        <v>2.9</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>2.95</v>
+      </c>
+      <c r="T28">
+        <v>1.3</v>
+      </c>
+      <c r="U28">
+        <v>3.1</v>
+      </c>
+      <c r="V28">
+        <v>2.25</v>
+      </c>
+      <c r="W28">
+        <v>1.55</v>
+      </c>
+      <c r="X28">
+        <v>4.9</v>
+      </c>
+      <c r="Y28">
+        <v>1.13</v>
+      </c>
+      <c r="Z28">
+        <v>2.45</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>2.5</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>9</v>
+      </c>
+      <c r="AE28">
+        <v>1.15</v>
+      </c>
+      <c r="AF28">
+        <v>4.6</v>
+      </c>
+      <c r="AG28">
+        <v>1.6</v>
+      </c>
+      <c r="AH28">
+        <v>2.2</v>
+      </c>
+      <c r="AI28">
+        <v>1.45</v>
+      </c>
+      <c r="AJ28">
+        <v>2.45</v>
+      </c>
+      <c r="AK28">
+        <v>1.32</v>
+      </c>
+      <c r="AL28">
+        <v>1.27</v>
+      </c>
+      <c r="AM28">
+        <v>1.52</v>
+      </c>
+      <c r="AN28">
+        <v>2.33</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>1.67</v>
+      </c>
+      <c r="AR28">
+        <v>1.74</v>
+      </c>
+      <c r="AS28">
+        <v>1.78</v>
+      </c>
+      <c r="AT28">
+        <v>3.52</v>
+      </c>
+      <c r="AU28">
+        <v>3</v>
+      </c>
+      <c r="AV28">
+        <v>7</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>9</v>
+      </c>
+      <c r="AZ28">
+        <v>13</v>
+      </c>
+      <c r="BA28">
+        <v>2</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>5</v>
+      </c>
+      <c r="BD28">
+        <v>1.97</v>
+      </c>
+      <c r="BE28">
+        <v>7.7</v>
+      </c>
+      <c r="BF28">
+        <v>2.08</v>
+      </c>
+      <c r="BG28">
+        <v>1.44</v>
+      </c>
+      <c r="BH28">
+        <v>2.6</v>
+      </c>
+      <c r="BI28">
+        <v>1.73</v>
+      </c>
+      <c r="BJ28">
+        <v>2</v>
+      </c>
+      <c r="BK28">
+        <v>2.2</v>
+      </c>
+      <c r="BL28">
+        <v>1.6</v>
+      </c>
+      <c r="BM28">
+        <v>2.88</v>
+      </c>
+      <c r="BN28">
+        <v>1.36</v>
+      </c>
+      <c r="BO28">
+        <v>3.8</v>
+      </c>
+      <c r="BP28">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7483701</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45529.63541666666</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1.27</v>
+      </c>
+      <c r="AA29">
+        <v>5.25</v>
+      </c>
+      <c r="AB29">
+        <v>8.75</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1.53</v>
+      </c>
+      <c r="AH29">
+        <v>2.35</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.04</v>
+      </c>
+      <c r="AS29">
+        <v>1.1</v>
+      </c>
+      <c r="AT29">
+        <v>3.14</v>
+      </c>
+      <c r="AU29">
+        <v>11</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>17</v>
+      </c>
+      <c r="AZ29">
+        <v>4</v>
+      </c>
+      <c r="BA29">
+        <v>9</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>14</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['6', '74']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -726,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1194,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1603,7 +1606,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2015,7 +2018,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2221,7 +2224,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2427,7 +2430,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3045,7 +3048,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3869,7 +3872,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4075,7 +4078,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4487,7 +4490,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4899,7 +4902,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5105,7 +5108,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5517,7 +5520,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5723,7 +5726,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6135,7 +6138,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6341,7 +6344,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6547,7 +6550,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6704,6 +6707,212 @@
       </c>
       <c r="BP29">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7483699</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45530.52083333334</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
+        <v>1.91</v>
+      </c>
+      <c r="R30">
+        <v>2.4</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.13</v>
+      </c>
+      <c r="Z30">
+        <v>1.36</v>
+      </c>
+      <c r="AA30">
+        <v>4.5</v>
+      </c>
+      <c r="AB30">
+        <v>6.5</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.18</v>
+      </c>
+      <c r="AF30">
+        <v>4.1</v>
+      </c>
+      <c r="AG30">
+        <v>1.61</v>
+      </c>
+      <c r="AH30">
+        <v>2.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.83</v>
+      </c>
+      <c r="AJ30">
+        <v>1.83</v>
+      </c>
+      <c r="AK30">
+        <v>1.06</v>
+      </c>
+      <c r="AL30">
+        <v>1.15</v>
+      </c>
+      <c r="AM30">
+        <v>2.88</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1.03</v>
+      </c>
+      <c r="AS30">
+        <v>1.1</v>
+      </c>
+      <c r="AT30">
+        <v>2.13</v>
+      </c>
+      <c r="AU30">
+        <v>6</v>
+      </c>
+      <c r="AV30">
+        <v>10</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>13</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>23</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>11</v>
+      </c>
+      <c r="BD30">
+        <v>1.18</v>
+      </c>
+      <c r="BE30">
+        <v>11.25</v>
+      </c>
+      <c r="BF30">
+        <v>5.5</v>
+      </c>
+      <c r="BG30">
+        <v>1.25</v>
+      </c>
+      <c r="BH30">
+        <v>3.6</v>
+      </c>
+      <c r="BI30">
+        <v>1.4</v>
+      </c>
+      <c r="BJ30">
+        <v>2.7</v>
+      </c>
+      <c r="BK30">
+        <v>1.6</v>
+      </c>
+      <c r="BL30">
+        <v>2.14</v>
+      </c>
+      <c r="BM30">
+        <v>2</v>
+      </c>
+      <c r="BN30">
+        <v>1.69</v>
+      </c>
+      <c r="BO30">
+        <v>2.6</v>
+      </c>
+      <c r="BP30">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,9 @@
     <t>['6', '74']</t>
   </si>
   <si>
+    <t>['43', '44', '49', '59', '65']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
   </si>
   <si>
     <t>['14', '36', '40']</t>
+  </si>
+  <si>
+    <t>['2', '20']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,7 +1200,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1606,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2018,7 +2024,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2224,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2430,7 +2436,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3048,7 +3054,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3872,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3950,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4078,7 +4084,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4490,7 +4496,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4902,7 +4908,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5108,7 +5114,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5520,7 +5526,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5726,7 +5732,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6138,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6344,7 +6350,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6550,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6913,6 +6919,212 @@
       </c>
       <c r="BP30">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7483708</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q31">
+        <v>3.4</v>
+      </c>
+      <c r="R31">
+        <v>2.05</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.7</v>
+      </c>
+      <c r="V31">
+        <v>2.8</v>
+      </c>
+      <c r="W31">
+        <v>1.38</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.9</v>
+      </c>
+      <c r="AA31">
+        <v>3.2</v>
+      </c>
+      <c r="AB31">
+        <v>2.3</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.28</v>
+      </c>
+      <c r="AF31">
+        <v>3.4</v>
+      </c>
+      <c r="AG31">
+        <v>1.89</v>
+      </c>
+      <c r="AH31">
+        <v>1.84</v>
+      </c>
+      <c r="AI31">
+        <v>1.65</v>
+      </c>
+      <c r="AJ31">
+        <v>2.05</v>
+      </c>
+      <c r="AK31">
+        <v>1.55</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.4</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.26</v>
+      </c>
+      <c r="AS31">
+        <v>1.44</v>
+      </c>
+      <c r="AT31">
+        <v>2.7</v>
+      </c>
+      <c r="AU31">
+        <v>10</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>2</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>12</v>
+      </c>
+      <c r="AZ31">
+        <v>10</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>7</v>
+      </c>
+      <c r="BC31">
+        <v>11</v>
+      </c>
+      <c r="BD31">
+        <v>2.15</v>
+      </c>
+      <c r="BE31">
+        <v>6.35</v>
+      </c>
+      <c r="BF31">
+        <v>2.02</v>
+      </c>
+      <c r="BG31">
+        <v>1.22</v>
+      </c>
+      <c r="BH31">
+        <v>3.8</v>
+      </c>
+      <c r="BI31">
+        <v>1.38</v>
+      </c>
+      <c r="BJ31">
+        <v>2.71</v>
+      </c>
+      <c r="BK31">
+        <v>1.72</v>
+      </c>
+      <c r="BL31">
+        <v>2.07</v>
+      </c>
+      <c r="BM31">
+        <v>2.14</v>
+      </c>
+      <c r="BN31">
+        <v>1.67</v>
+      </c>
+      <c r="BO31">
+        <v>2.65</v>
+      </c>
+      <c r="BP31">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['43', '44', '49', '59', '65']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -374,6 +377,9 @@
   </si>
   <si>
     <t>['2', '20']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,7 +1206,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>2.25</v>
@@ -1612,7 +1618,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1899,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2024,7 +2030,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2230,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2436,7 +2442,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2926,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3054,7 +3060,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3547,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3878,7 +3884,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4084,7 +4090,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4496,7 +4502,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4908,7 +4914,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5114,7 +5120,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5195,7 +5201,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5526,7 +5532,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5604,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5732,7 +5738,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6144,7 +6150,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6350,7 +6356,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6556,7 +6562,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6968,7 +6974,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7125,6 +7131,212 @@
       </c>
       <c r="BP31">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7483704</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45535.63541666666</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32">
+        <v>3.4</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>3.1</v>
+      </c>
+      <c r="T32">
+        <v>1.44</v>
+      </c>
+      <c r="U32">
+        <v>2.63</v>
+      </c>
+      <c r="V32">
+        <v>3.25</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>7.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.07</v>
+      </c>
+      <c r="Z32">
+        <v>2.5</v>
+      </c>
+      <c r="AA32">
+        <v>3.12</v>
+      </c>
+      <c r="AB32">
+        <v>2.57</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.2</v>
+      </c>
+      <c r="AG32">
+        <v>2.07</v>
+      </c>
+      <c r="AH32">
+        <v>1.68</v>
+      </c>
+      <c r="AI32">
+        <v>1.83</v>
+      </c>
+      <c r="AJ32">
+        <v>1.83</v>
+      </c>
+      <c r="AK32">
+        <v>1.55</v>
+      </c>
+      <c r="AL32">
+        <v>1.35</v>
+      </c>
+      <c r="AM32">
+        <v>1.4</v>
+      </c>
+      <c r="AN32">
+        <v>1.33</v>
+      </c>
+      <c r="AO32">
+        <v>1.33</v>
+      </c>
+      <c r="AP32">
+        <v>1.25</v>
+      </c>
+      <c r="AQ32">
+        <v>1.25</v>
+      </c>
+      <c r="AR32">
+        <v>1.34</v>
+      </c>
+      <c r="AS32">
+        <v>1.74</v>
+      </c>
+      <c r="AT32">
+        <v>3.08</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>11</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>2.92</v>
+      </c>
+      <c r="BE32">
+        <v>6.65</v>
+      </c>
+      <c r="BF32">
+        <v>1.6</v>
+      </c>
+      <c r="BG32">
+        <v>1.23</v>
+      </c>
+      <c r="BH32">
+        <v>3.7</v>
+      </c>
+      <c r="BI32">
+        <v>1.46</v>
+      </c>
+      <c r="BJ32">
+        <v>2.59</v>
+      </c>
+      <c r="BK32">
+        <v>1.74</v>
+      </c>
+      <c r="BL32">
+        <v>2.04</v>
+      </c>
+      <c r="BM32">
+        <v>2.15</v>
+      </c>
+      <c r="BN32">
+        <v>1.66</v>
+      </c>
+      <c r="BO32">
+        <v>2.7</v>
+      </c>
+      <c r="BP32">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['38', '42', '45+4', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '79', '83', '87']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1206,7 +1215,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1618,7 +1627,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1696,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2030,7 +2039,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2236,7 +2245,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2317,7 +2326,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2442,7 +2451,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2520,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -2729,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3060,7 +3069,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3347,7 +3356,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3550,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3884,7 +3893,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3965,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4090,7 +4099,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4502,7 +4511,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4580,10 +4589,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -4914,7 +4923,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5120,7 +5129,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5404,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5532,7 +5541,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5738,7 +5747,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5816,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6150,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6356,7 +6365,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6434,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6562,7 +6571,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6643,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6974,7 +6983,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7180,7 +7189,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7337,6 +7346,624 @@
       </c>
       <c r="BP32">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7483750</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1.35</v>
+      </c>
+      <c r="AA33">
+        <v>4.4</v>
+      </c>
+      <c r="AB33">
+        <v>7</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1.62</v>
+      </c>
+      <c r="AH33">
+        <v>2.15</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>1.5</v>
+      </c>
+      <c r="AP33">
+        <v>2.2</v>
+      </c>
+      <c r="AQ33">
+        <v>1.2</v>
+      </c>
+      <c r="AR33">
+        <v>1.63</v>
+      </c>
+      <c r="AS33">
+        <v>1.04</v>
+      </c>
+      <c r="AT33">
+        <v>2.67</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>6</v>
+      </c>
+      <c r="BA33">
+        <v>3</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>3</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7483707</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45536.63541666666</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34">
+        <v>3.75</v>
+      </c>
+      <c r="R34">
+        <v>2.12</v>
+      </c>
+      <c r="S34">
+        <v>2.64</v>
+      </c>
+      <c r="T34">
+        <v>1.35</v>
+      </c>
+      <c r="U34">
+        <v>3.06</v>
+      </c>
+      <c r="V34">
+        <v>2.79</v>
+      </c>
+      <c r="W34">
+        <v>1.41</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>1.09</v>
+      </c>
+      <c r="Z34">
+        <v>2.9</v>
+      </c>
+      <c r="AA34">
+        <v>3.3</v>
+      </c>
+      <c r="AB34">
+        <v>2.15</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>9.4</v>
+      </c>
+      <c r="AE34">
+        <v>1.25</v>
+      </c>
+      <c r="AF34">
+        <v>3.42</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>1.85</v>
+      </c>
+      <c r="AI34">
+        <v>1.68</v>
+      </c>
+      <c r="AJ34">
+        <v>2.01</v>
+      </c>
+      <c r="AK34">
+        <v>1.66</v>
+      </c>
+      <c r="AL34">
+        <v>1.27</v>
+      </c>
+      <c r="AM34">
+        <v>1.3</v>
+      </c>
+      <c r="AN34">
+        <v>1.5</v>
+      </c>
+      <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>0.67</v>
+      </c>
+      <c r="AR34">
+        <v>1.21</v>
+      </c>
+      <c r="AS34">
+        <v>1.41</v>
+      </c>
+      <c r="AT34">
+        <v>2.62</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>6</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>11</v>
+      </c>
+      <c r="AZ34">
+        <v>9</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>6</v>
+      </c>
+      <c r="BD34">
+        <v>2.26</v>
+      </c>
+      <c r="BE34">
+        <v>6.25</v>
+      </c>
+      <c r="BF34">
+        <v>1.94</v>
+      </c>
+      <c r="BG34">
+        <v>1.3</v>
+      </c>
+      <c r="BH34">
+        <v>3.2</v>
+      </c>
+      <c r="BI34">
+        <v>1.46</v>
+      </c>
+      <c r="BJ34">
+        <v>2.45</v>
+      </c>
+      <c r="BK34">
+        <v>1.81</v>
+      </c>
+      <c r="BL34">
+        <v>1.85</v>
+      </c>
+      <c r="BM34">
+        <v>2.32</v>
+      </c>
+      <c r="BN34">
+        <v>1.51</v>
+      </c>
+      <c r="BO34">
+        <v>3.2</v>
+      </c>
+      <c r="BP34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7483705</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45536.63541666666</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35">
+        <v>1.92</v>
+      </c>
+      <c r="R35">
+        <v>2.5</v>
+      </c>
+      <c r="S35">
+        <v>6.41</v>
+      </c>
+      <c r="T35">
+        <v>1.31</v>
+      </c>
+      <c r="U35">
+        <v>3.29</v>
+      </c>
+      <c r="V35">
+        <v>2.56</v>
+      </c>
+      <c r="W35">
+        <v>1.48</v>
+      </c>
+      <c r="X35">
+        <v>5.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.11</v>
+      </c>
+      <c r="Z35">
+        <v>1.43</v>
+      </c>
+      <c r="AA35">
+        <v>4.08</v>
+      </c>
+      <c r="AB35">
+        <v>6.12</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>10.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.2</v>
+      </c>
+      <c r="AF35">
+        <v>3.84</v>
+      </c>
+      <c r="AG35">
+        <v>1.73</v>
+      </c>
+      <c r="AH35">
+        <v>2</v>
+      </c>
+      <c r="AI35">
+        <v>1.83</v>
+      </c>
+      <c r="AJ35">
+        <v>1.83</v>
+      </c>
+      <c r="AK35">
+        <v>1.12</v>
+      </c>
+      <c r="AL35">
+        <v>1.18</v>
+      </c>
+      <c r="AM35">
+        <v>2.15</v>
+      </c>
+      <c r="AN35">
+        <v>2.33</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>2.5</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>2.01</v>
+      </c>
+      <c r="AS35">
+        <v>1.58</v>
+      </c>
+      <c r="AT35">
+        <v>3.59</v>
+      </c>
+      <c r="AU35">
+        <v>12</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
+        <v>10</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>22</v>
+      </c>
+      <c r="AZ35">
+        <v>8</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>1.22</v>
+      </c>
+      <c r="BE35">
+        <v>11</v>
+      </c>
+      <c r="BF35">
+        <v>5.56</v>
+      </c>
+      <c r="BG35">
+        <v>1.18</v>
+      </c>
+      <c r="BH35">
+        <v>4.33</v>
+      </c>
+      <c r="BI35">
+        <v>1.33</v>
+      </c>
+      <c r="BJ35">
+        <v>3</v>
+      </c>
+      <c r="BK35">
+        <v>1.52</v>
+      </c>
+      <c r="BL35">
+        <v>2.44</v>
+      </c>
+      <c r="BM35">
+        <v>1.89</v>
+      </c>
+      <c r="BN35">
+        <v>1.91</v>
+      </c>
+      <c r="BO35">
+        <v>2.35</v>
+      </c>
+      <c r="BP35">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -4057,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7483692</v>
+        <v>7483691</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4072,49 +4072,49 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="R17">
         <v>2.3</v>
       </c>
       <c r="S17">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V17">
         <v>2.5</v>
@@ -4123,109 +4123,109 @@
         <v>1.5</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y17">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z17">
-        <v>1.39</v>
+        <v>3.6</v>
       </c>
       <c r="AA17">
-        <v>4.28</v>
+        <v>3.45</v>
       </c>
       <c r="AB17">
-        <v>6.35</v>
+        <v>1.85</v>
       </c>
       <c r="AC17">
         <v>1.01</v>
       </c>
       <c r="AD17">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE17">
+        <v>1.18</v>
+      </c>
+      <c r="AF17">
+        <v>4.33</v>
+      </c>
+      <c r="AG17">
+        <v>1.85</v>
+      </c>
+      <c r="AH17">
+        <v>1.85</v>
+      </c>
+      <c r="AI17">
+        <v>1.73</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>2.24</v>
+      </c>
+      <c r="AL17">
         <v>1.19</v>
       </c>
-      <c r="AF17">
-        <v>3.9</v>
-      </c>
-      <c r="AG17">
-        <v>1.69</v>
-      </c>
-      <c r="AH17">
-        <v>2.05</v>
-      </c>
-      <c r="AI17">
-        <v>1.83</v>
-      </c>
-      <c r="AJ17">
-        <v>1.83</v>
-      </c>
-      <c r="AK17">
-        <v>1.1</v>
-      </c>
-      <c r="AL17">
-        <v>1.18</v>
-      </c>
       <c r="AM17">
-        <v>2.45</v>
+        <v>1.14</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
-        <v>2.23</v>
+        <v>1.21</v>
       </c>
       <c r="AS17">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
-        <v>3.57</v>
+        <v>2.94</v>
       </c>
       <c r="AU17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>12</v>
+      </c>
+      <c r="AY17">
+        <v>5</v>
+      </c>
+      <c r="AZ17">
+        <v>16</v>
+      </c>
+      <c r="BA17">
         <v>6</v>
       </c>
-      <c r="AW17">
-        <v>4</v>
-      </c>
-      <c r="AX17">
+      <c r="BB17">
         <v>7</v>
       </c>
-      <c r="AY17">
-        <v>12</v>
-      </c>
-      <c r="AZ17">
+      <c r="BC17">
         <v>13</v>
       </c>
-      <c r="BA17">
-        <v>2</v>
-      </c>
-      <c r="BB17">
-        <v>2</v>
-      </c>
-      <c r="BC17">
-        <v>4</v>
-      </c>
       <c r="BD17">
-        <v>1.18</v>
+        <v>3.94</v>
       </c>
       <c r="BE17">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF17">
-        <v>6.2</v>
+        <v>1.32</v>
       </c>
       <c r="BG17">
         <v>1.25</v>
@@ -4234,28 +4234,28 @@
         <v>3.6</v>
       </c>
       <c r="BI17">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BJ17">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BK17">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="BL17">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="BM17">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BN17">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BO17">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BP17">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4263,7 +4263,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7483691</v>
+        <v>7483692</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4278,49 +4278,49 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Q18">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>2.3</v>
       </c>
       <c r="S18">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="T18">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U18">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V18">
         <v>2.5</v>
@@ -4329,109 +4329,109 @@
         <v>1.5</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y18">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z18">
-        <v>3.6</v>
+        <v>1.39</v>
       </c>
       <c r="AA18">
-        <v>3.45</v>
+        <v>4.28</v>
       </c>
       <c r="AB18">
-        <v>1.85</v>
+        <v>6.35</v>
       </c>
       <c r="AC18">
         <v>1.01</v>
       </c>
       <c r="AD18">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE18">
+        <v>1.19</v>
+      </c>
+      <c r="AF18">
+        <v>3.9</v>
+      </c>
+      <c r="AG18">
+        <v>1.69</v>
+      </c>
+      <c r="AH18">
+        <v>2.05</v>
+      </c>
+      <c r="AI18">
+        <v>1.83</v>
+      </c>
+      <c r="AJ18">
+        <v>1.83</v>
+      </c>
+      <c r="AK18">
+        <v>1.1</v>
+      </c>
+      <c r="AL18">
         <v>1.18</v>
       </c>
-      <c r="AF18">
-        <v>4.33</v>
-      </c>
-      <c r="AG18">
-        <v>1.85</v>
-      </c>
-      <c r="AH18">
-        <v>1.85</v>
-      </c>
-      <c r="AI18">
-        <v>1.73</v>
-      </c>
-      <c r="AJ18">
-        <v>2</v>
-      </c>
-      <c r="AK18">
-        <v>2.24</v>
-      </c>
-      <c r="AL18">
-        <v>1.19</v>
-      </c>
       <c r="AM18">
-        <v>1.14</v>
+        <v>2.45</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1.21</v>
+        <v>2.23</v>
       </c>
       <c r="AS18">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="AT18">
-        <v>2.94</v>
+        <v>3.57</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV18">
+        <v>6</v>
+      </c>
+      <c r="AW18">
         <v>4</v>
       </c>
-      <c r="AW18">
-        <v>3</v>
-      </c>
       <c r="AX18">
+        <v>7</v>
+      </c>
+      <c r="AY18">
         <v>12</v>
       </c>
-      <c r="AY18">
-        <v>5</v>
-      </c>
       <c r="AZ18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BD18">
-        <v>3.94</v>
+        <v>1.18</v>
       </c>
       <c r="BE18">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF18">
-        <v>1.32</v>
+        <v>6.2</v>
       </c>
       <c r="BG18">
         <v>1.25</v>
@@ -4440,28 +4440,28 @@
         <v>3.6</v>
       </c>
       <c r="BI18">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BJ18">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="BK18">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="BL18">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="BM18">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BN18">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="BO18">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BP18">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -7559,7 +7559,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7483707</v>
+        <v>7483705</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7574,10 +7574,10 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7589,175 +7589,175 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s">
         <v>81</v>
       </c>
       <c r="Q34">
-        <v>3.75</v>
+        <v>1.92</v>
       </c>
       <c r="R34">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="S34">
-        <v>2.64</v>
+        <v>6.41</v>
       </c>
       <c r="T34">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="U34">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="V34">
-        <v>2.79</v>
+        <v>2.56</v>
       </c>
       <c r="W34">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X34">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y34">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z34">
-        <v>2.9</v>
+        <v>1.43</v>
       </c>
       <c r="AA34">
-        <v>3.3</v>
+        <v>4.08</v>
       </c>
       <c r="AB34">
-        <v>2.15</v>
+        <v>6.12</v>
       </c>
       <c r="AC34">
         <v>1.01</v>
       </c>
       <c r="AD34">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AE34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF34">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="AG34">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AH34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AI34">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AJ34">
+        <v>1.83</v>
+      </c>
+      <c r="AK34">
+        <v>1.12</v>
+      </c>
+      <c r="AL34">
+        <v>1.18</v>
+      </c>
+      <c r="AM34">
+        <v>2.15</v>
+      </c>
+      <c r="AN34">
+        <v>2.33</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>2.5</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
         <v>2.01</v>
       </c>
-      <c r="AK34">
-        <v>1.66</v>
-      </c>
-      <c r="AL34">
-        <v>1.27</v>
-      </c>
-      <c r="AM34">
-        <v>1.3</v>
-      </c>
-      <c r="AN34">
-        <v>1.5</v>
-      </c>
-      <c r="AO34">
-        <v>0.5</v>
-      </c>
-      <c r="AP34">
-        <v>1.33</v>
-      </c>
-      <c r="AQ34">
-        <v>0.67</v>
-      </c>
-      <c r="AR34">
-        <v>1.21</v>
-      </c>
       <c r="AS34">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AT34">
-        <v>2.62</v>
+        <v>3.59</v>
       </c>
       <c r="AU34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX34">
         <v>6</v>
       </c>
       <c r="AY34">
+        <v>22</v>
+      </c>
+      <c r="AZ34">
+        <v>8</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.22</v>
+      </c>
+      <c r="BE34">
         <v>11</v>
       </c>
-      <c r="AZ34">
-        <v>9</v>
-      </c>
-      <c r="BA34">
-        <v>3</v>
-      </c>
-      <c r="BB34">
-        <v>3</v>
-      </c>
-      <c r="BC34">
-        <v>6</v>
-      </c>
-      <c r="BD34">
-        <v>2.26</v>
-      </c>
-      <c r="BE34">
-        <v>6.25</v>
-      </c>
       <c r="BF34">
-        <v>1.94</v>
+        <v>5.56</v>
       </c>
       <c r="BG34">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="BH34">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="BI34">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="BJ34">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="BK34">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="BL34">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="BM34">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="BN34">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="BO34">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="BP34">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7765,7 +7765,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7483705</v>
+        <v>7483707</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7780,10 +7780,10 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -7795,175 +7795,175 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="P35" t="s">
         <v>81</v>
       </c>
       <c r="Q35">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="R35">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="S35">
-        <v>6.41</v>
+        <v>2.64</v>
       </c>
       <c r="T35">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U35">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="V35">
-        <v>2.56</v>
+        <v>2.79</v>
       </c>
       <c r="W35">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="X35">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y35">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z35">
-        <v>1.43</v>
+        <v>2.9</v>
       </c>
       <c r="AA35">
-        <v>4.08</v>
+        <v>3.3</v>
       </c>
       <c r="AB35">
-        <v>6.12</v>
+        <v>2.15</v>
       </c>
       <c r="AC35">
         <v>1.01</v>
       </c>
       <c r="AD35">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE35">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF35">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG35">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AH35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI35">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AJ35">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="AK35">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="AL35">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AM35">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="AN35">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
-        <v>2.01</v>
+        <v>1.21</v>
       </c>
       <c r="AS35">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AT35">
-        <v>3.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU35">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX35">
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD35">
-        <v>1.22</v>
+        <v>2.26</v>
       </c>
       <c r="BE35">
-        <v>11</v>
+        <v>6.25</v>
       </c>
       <c r="BF35">
-        <v>5.56</v>
+        <v>1.94</v>
       </c>
       <c r="BG35">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BH35">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="BI35">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="BJ35">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="BK35">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="BL35">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="BM35">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="BN35">
-        <v>1.91</v>
+        <v>1.51</v>
       </c>
       <c r="BO35">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="BP35">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,9 @@
     <t>['52', '79', '83', '87']</t>
   </si>
   <si>
+    <t>['39', '45', '54', '78']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['53', '76']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1096,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1215,7 +1221,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1293,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2.25</v>
@@ -1499,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1627,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2039,7 +2045,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2245,7 +2251,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2451,7 +2457,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2532,7 +2538,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2738,7 +2744,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2941,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3069,7 +3075,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3353,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3893,7 +3899,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3974,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4180,7 +4186,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4305,7 +4311,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4511,7 +4517,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4923,7 +4929,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5129,7 +5135,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5207,7 +5213,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5541,7 +5547,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5619,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5747,7 +5753,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6031,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6159,7 +6165,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6365,7 +6371,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6446,7 +6452,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6571,7 +6577,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6652,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6983,7 +6989,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7189,7 +7195,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7267,7 +7273,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7395,7 +7401,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7476,7 +7482,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -7964,6 +7970,418 @@
       </c>
       <c r="BP35">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7483712</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45549.52083333334</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>2.1</v>
+      </c>
+      <c r="AA36">
+        <v>3.3</v>
+      </c>
+      <c r="AB36">
+        <v>3.2</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1.8</v>
+      </c>
+      <c r="AH36">
+        <v>1.9</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>2.25</v>
+      </c>
+      <c r="AO36">
+        <v>1.2</v>
+      </c>
+      <c r="AP36">
+        <v>2.4</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1.75</v>
+      </c>
+      <c r="AS36">
+        <v>1.02</v>
+      </c>
+      <c r="AT36">
+        <v>2.77</v>
+      </c>
+      <c r="AU36">
+        <v>2</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>9</v>
+      </c>
+      <c r="AY36">
+        <v>5</v>
+      </c>
+      <c r="AZ36">
+        <v>15</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>4</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7483713</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45549.63541666666</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37">
+        <v>5.5</v>
+      </c>
+      <c r="R37">
+        <v>2.25</v>
+      </c>
+      <c r="S37">
+        <v>2.1</v>
+      </c>
+      <c r="T37">
+        <v>1.36</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>6.5</v>
+      </c>
+      <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>5.75</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
+        <v>1.48</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>10.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>3.7</v>
+      </c>
+      <c r="AG37">
+        <v>1.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.8</v>
+      </c>
+      <c r="AK37">
+        <v>2.38</v>
+      </c>
+      <c r="AL37">
+        <v>1.18</v>
+      </c>
+      <c r="AM37">
+        <v>1.1</v>
+      </c>
+      <c r="AN37">
+        <v>1.25</v>
+      </c>
+      <c r="AO37">
+        <v>1.67</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1.39</v>
+      </c>
+      <c r="AS37">
+        <v>1.77</v>
+      </c>
+      <c r="AT37">
+        <v>3.16</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>9</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>5</v>
+      </c>
+      <c r="AY37">
+        <v>9</v>
+      </c>
+      <c r="AZ37">
+        <v>14</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
+        <v>10</v>
+      </c>
+      <c r="BD37">
+        <v>4.05</v>
+      </c>
+      <c r="BE37">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF37">
+        <v>1.31</v>
+      </c>
+      <c r="BG37">
+        <v>1.29</v>
+      </c>
+      <c r="BH37">
+        <v>3.3</v>
+      </c>
+      <c r="BI37">
+        <v>1.5</v>
+      </c>
+      <c r="BJ37">
+        <v>2.4</v>
+      </c>
+      <c r="BK37">
+        <v>1.8</v>
+      </c>
+      <c r="BL37">
+        <v>1.91</v>
+      </c>
+      <c r="BM37">
+        <v>2.25</v>
+      </c>
+      <c r="BN37">
+        <v>1.57</v>
+      </c>
+      <c r="BO37">
+        <v>2.9</v>
+      </c>
+      <c r="BP37">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,12 @@
     <t>['39', '45', '54', '78']</t>
   </si>
   <si>
+    <t>['44', '49', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '58']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -395,6 +401,9 @@
   </si>
   <si>
     <t>['53', '76']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,7 +1230,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1302,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1633,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1711,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1917,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -2045,7 +2054,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2251,7 +2260,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2457,7 +2466,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2741,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2950,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3075,7 +3084,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3156,7 +3165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3565,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -3899,7 +3908,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4311,7 +4320,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4389,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4517,7 +4526,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4595,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4801,10 +4810,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -4929,7 +4938,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5010,7 +5019,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5135,7 +5144,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5547,7 +5556,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5753,7 +5762,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6165,7 +6174,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6246,7 +6255,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6371,7 +6380,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6449,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6577,7 +6586,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6655,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6861,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -6989,7 +6998,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7070,7 +7079,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7195,7 +7204,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7401,7 +7410,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7479,7 +7488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8225,7 +8234,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8382,6 +8391,624 @@
       </c>
       <c r="BP37">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7483709</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45550.41666666666</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38">
+        <v>2.2</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>6.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>1.55</v>
+      </c>
+      <c r="AA38">
+        <v>3.7</v>
+      </c>
+      <c r="AB38">
+        <v>4.9</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>10.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.22</v>
+      </c>
+      <c r="AF38">
+        <v>3.65</v>
+      </c>
+      <c r="AG38">
+        <v>1.7</v>
+      </c>
+      <c r="AH38">
+        <v>1.95</v>
+      </c>
+      <c r="AI38">
+        <v>1.83</v>
+      </c>
+      <c r="AJ38">
+        <v>1.83</v>
+      </c>
+      <c r="AK38">
+        <v>1.1</v>
+      </c>
+      <c r="AL38">
+        <v>1.17</v>
+      </c>
+      <c r="AM38">
+        <v>2.35</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>2.5</v>
+      </c>
+      <c r="AQ38">
+        <v>0.2</v>
+      </c>
+      <c r="AR38">
+        <v>1.19</v>
+      </c>
+      <c r="AS38">
+        <v>1.47</v>
+      </c>
+      <c r="AT38">
+        <v>2.66</v>
+      </c>
+      <c r="AU38">
+        <v>5</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>7</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>12</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>10</v>
+      </c>
+      <c r="BD38">
+        <v>1.44</v>
+      </c>
+      <c r="BE38">
+        <v>8.9</v>
+      </c>
+      <c r="BF38">
+        <v>3.22</v>
+      </c>
+      <c r="BG38">
+        <v>1.25</v>
+      </c>
+      <c r="BH38">
+        <v>3.6</v>
+      </c>
+      <c r="BI38">
+        <v>1.42</v>
+      </c>
+      <c r="BJ38">
+        <v>2.62</v>
+      </c>
+      <c r="BK38">
+        <v>1.67</v>
+      </c>
+      <c r="BL38">
+        <v>2.1</v>
+      </c>
+      <c r="BM38">
+        <v>2.05</v>
+      </c>
+      <c r="BN38">
+        <v>1.7</v>
+      </c>
+      <c r="BO38">
+        <v>2.6</v>
+      </c>
+      <c r="BP38">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7483710</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39">
+        <v>1.8</v>
+      </c>
+      <c r="R39">
+        <v>2.5</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>1.3</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>1.31</v>
+      </c>
+      <c r="AA39">
+        <v>4.45</v>
+      </c>
+      <c r="AB39">
+        <v>7.6</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>13</v>
+      </c>
+      <c r="AE39">
+        <v>1.14</v>
+      </c>
+      <c r="AF39">
+        <v>4.8</v>
+      </c>
+      <c r="AG39">
+        <v>1.8</v>
+      </c>
+      <c r="AH39">
+        <v>1.9</v>
+      </c>
+      <c r="AI39">
+        <v>2.1</v>
+      </c>
+      <c r="AJ39">
+        <v>1.67</v>
+      </c>
+      <c r="AK39">
+        <v>1.02</v>
+      </c>
+      <c r="AL39">
+        <v>1.06</v>
+      </c>
+      <c r="AM39">
+        <v>3.5</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>2.25</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>2.18</v>
+      </c>
+      <c r="AS39">
+        <v>1.45</v>
+      </c>
+      <c r="AT39">
+        <v>3.63</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>16</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>21</v>
+      </c>
+      <c r="AZ39">
+        <v>9</v>
+      </c>
+      <c r="BA39">
+        <v>8</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>1.23</v>
+      </c>
+      <c r="BE39">
+        <v>10.25</v>
+      </c>
+      <c r="BF39">
+        <v>4.85</v>
+      </c>
+      <c r="BG39">
+        <v>1.25</v>
+      </c>
+      <c r="BH39">
+        <v>3.6</v>
+      </c>
+      <c r="BI39">
+        <v>1.42</v>
+      </c>
+      <c r="BJ39">
+        <v>2.62</v>
+      </c>
+      <c r="BK39">
+        <v>1.69</v>
+      </c>
+      <c r="BL39">
+        <v>2.14</v>
+      </c>
+      <c r="BM39">
+        <v>2.11</v>
+      </c>
+      <c r="BN39">
+        <v>1.7</v>
+      </c>
+      <c r="BO39">
+        <v>2.62</v>
+      </c>
+      <c r="BP39">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7483711</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45550.63541666666</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q40">
+        <v>2.2</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>4.75</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>1.64</v>
+      </c>
+      <c r="AA40">
+        <v>3.6</v>
+      </c>
+      <c r="AB40">
+        <v>4.3</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>10.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.22</v>
+      </c>
+      <c r="AF40">
+        <v>3.7</v>
+      </c>
+      <c r="AG40">
+        <v>1.84</v>
+      </c>
+      <c r="AH40">
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <v>1.83</v>
+      </c>
+      <c r="AJ40">
+        <v>1.83</v>
+      </c>
+      <c r="AK40">
+        <v>1.17</v>
+      </c>
+      <c r="AL40">
+        <v>1.22</v>
+      </c>
+      <c r="AM40">
+        <v>1.95</v>
+      </c>
+      <c r="AN40">
+        <v>2.2</v>
+      </c>
+      <c r="AO40">
+        <v>2.25</v>
+      </c>
+      <c r="AP40">
+        <v>2.33</v>
+      </c>
+      <c r="AQ40">
+        <v>1.8</v>
+      </c>
+      <c r="AR40">
+        <v>1.6</v>
+      </c>
+      <c r="AS40">
+        <v>1.5</v>
+      </c>
+      <c r="AT40">
+        <v>3.1</v>
+      </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>9</v>
+      </c>
+      <c r="BA40">
+        <v>3</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
+        <v>1.46</v>
+      </c>
+      <c r="BE40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF40">
+        <v>3.22</v>
+      </c>
+      <c r="BG40">
+        <v>1.42</v>
+      </c>
+      <c r="BH40">
+        <v>2.62</v>
+      </c>
+      <c r="BI40">
+        <v>1.73</v>
+      </c>
+      <c r="BJ40">
+        <v>2</v>
+      </c>
+      <c r="BK40">
+        <v>2.2</v>
+      </c>
+      <c r="BL40">
+        <v>1.62</v>
+      </c>
+      <c r="BM40">
+        <v>2.8</v>
+      </c>
+      <c r="BN40">
+        <v>1.38</v>
+      </c>
+      <c r="BO40">
+        <v>3.6</v>
+      </c>
+      <c r="BP40">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['22', '58']</t>
   </si>
   <si>
+    <t>['27', '90']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1236,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1642,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1926,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -2054,7 +2060,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2260,7 +2266,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2466,7 +2472,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3084,7 +3090,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3908,7 +3914,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4320,7 +4326,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4398,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4526,7 +4532,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4938,7 +4944,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5144,7 +5150,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5556,7 +5562,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5637,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5762,7 +5768,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6174,7 +6180,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6380,7 +6386,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6586,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6664,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6998,7 +7004,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7204,7 +7210,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7410,7 +7416,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8234,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8646,7 +8652,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8724,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9008,6 +9014,212 @@
         <v>3.6</v>
       </c>
       <c r="BP40">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7483683</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45553.5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q41">
+        <v>2.8</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>3.5</v>
+      </c>
+      <c r="T41">
+        <v>1.35</v>
+      </c>
+      <c r="U41">
+        <v>2.95</v>
+      </c>
+      <c r="V41">
+        <v>2.55</v>
+      </c>
+      <c r="W41">
+        <v>1.45</v>
+      </c>
+      <c r="X41">
+        <v>6.2</v>
+      </c>
+      <c r="Y41">
+        <v>1.09</v>
+      </c>
+      <c r="Z41">
+        <v>2.2</v>
+      </c>
+      <c r="AA41">
+        <v>3.25</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.22</v>
+      </c>
+      <c r="AF41">
+        <v>4.1</v>
+      </c>
+      <c r="AG41">
+        <v>1.75</v>
+      </c>
+      <c r="AH41">
+        <v>1.95</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.35</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.62</v>
+      </c>
+      <c r="AN41">
+        <v>2.25</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>2.4</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>2.19</v>
+      </c>
+      <c r="AS41">
+        <v>1.49</v>
+      </c>
+      <c r="AT41">
+        <v>3.68</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>9</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>15</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>7</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>16</v>
+      </c>
+      <c r="BD41">
+        <v>1.64</v>
+      </c>
+      <c r="BE41">
+        <v>7.9</v>
+      </c>
+      <c r="BF41">
+        <v>2.62</v>
+      </c>
+      <c r="BG41">
+        <v>1.4</v>
+      </c>
+      <c r="BH41">
+        <v>2.7</v>
+      </c>
+      <c r="BI41">
+        <v>1.7</v>
+      </c>
+      <c r="BJ41">
+        <v>2.12</v>
+      </c>
+      <c r="BK41">
+        <v>2.14</v>
+      </c>
+      <c r="BL41">
+        <v>1.68</v>
+      </c>
+      <c r="BM41">
+        <v>2.62</v>
+      </c>
+      <c r="BN41">
+        <v>1.42</v>
+      </c>
+      <c r="BO41">
+        <v>3.6</v>
+      </c>
+      <c r="BP41">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['27', '90']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1648,7 +1654,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1935,7 +1941,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2060,7 +2066,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2266,7 +2272,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2472,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3090,7 +3096,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3583,7 +3589,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3914,7 +3920,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4326,7 +4332,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4532,7 +4538,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4944,7 +4950,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5150,7 +5156,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5231,7 +5237,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5562,7 +5568,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5768,7 +5774,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5846,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6180,7 +6186,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6386,7 +6392,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6592,7 +6598,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7004,7 +7010,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7210,7 +7216,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7291,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7416,7 +7422,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7700,7 +7706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8240,7 +8246,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8652,7 +8658,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9064,7 +9070,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9221,6 +9227,212 @@
       </c>
       <c r="BP41">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7483714</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45556.63541666666</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q42">
+        <v>1.95</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>5.85</v>
+      </c>
+      <c r="T42">
+        <v>1.34</v>
+      </c>
+      <c r="U42">
+        <v>3.1</v>
+      </c>
+      <c r="V42">
+        <v>2.6</v>
+      </c>
+      <c r="W42">
+        <v>1.46</v>
+      </c>
+      <c r="X42">
+        <v>6.2</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>1.45</v>
+      </c>
+      <c r="AA42">
+        <v>4.2</v>
+      </c>
+      <c r="AB42">
+        <v>5.75</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>10.25</v>
+      </c>
+      <c r="AE42">
+        <v>1.2</v>
+      </c>
+      <c r="AF42">
+        <v>3.55</v>
+      </c>
+      <c r="AG42">
+        <v>1.73</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1.87</v>
+      </c>
+      <c r="AJ42">
+        <v>1.79</v>
+      </c>
+      <c r="AK42">
+        <v>1.08</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>2.56</v>
+      </c>
+      <c r="AN42">
+        <v>2.5</v>
+      </c>
+      <c r="AO42">
+        <v>1.25</v>
+      </c>
+      <c r="AP42">
+        <v>2.2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.2</v>
+      </c>
+      <c r="AR42">
+        <v>2.18</v>
+      </c>
+      <c r="AS42">
+        <v>1.63</v>
+      </c>
+      <c r="AT42">
+        <v>3.81</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>5</v>
+      </c>
+      <c r="AY42">
+        <v>4</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>1.19</v>
+      </c>
+      <c r="BE42">
+        <v>8.9</v>
+      </c>
+      <c r="BF42">
+        <v>6.05</v>
+      </c>
+      <c r="BG42">
+        <v>1.29</v>
+      </c>
+      <c r="BH42">
+        <v>3.3</v>
+      </c>
+      <c r="BI42">
+        <v>1.49</v>
+      </c>
+      <c r="BJ42">
+        <v>2.55</v>
+      </c>
+      <c r="BK42">
+        <v>1.83</v>
+      </c>
+      <c r="BL42">
+        <v>1.96</v>
+      </c>
+      <c r="BM42">
+        <v>2.32</v>
+      </c>
+      <c r="BN42">
+        <v>1.58</v>
+      </c>
+      <c r="BO42">
+        <v>2.9</v>
+      </c>
+      <c r="BP42">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,9 +349,6 @@
     <t>['27', '90']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -415,7 +412,7 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['79']</t>
+    <t>['3', '65', '79']</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1242,7 +1239,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1654,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1941,7 +1938,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2066,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2272,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2350,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2478,7 +2475,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3096,7 +3093,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3383,7 +3380,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3589,7 +3586,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3792,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3920,7 +3917,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4204,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4332,7 +4329,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4538,7 +4535,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4950,7 +4947,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5156,7 +5153,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5237,7 +5234,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5568,7 +5565,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5774,7 +5771,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5852,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6186,7 +6183,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6264,7 +6261,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ27">
         <v>1.8</v>
@@ -6392,7 +6389,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6598,7 +6595,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7010,7 +7007,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7216,7 +7213,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7297,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7422,7 +7419,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7706,7 +7703,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7915,7 +7912,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8246,7 +8243,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8658,7 +8655,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9070,7 +9067,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9234,7 +9231,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7483714</v>
+        <v>7483718</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9243,196 +9240,196 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45556.63541666666</v>
+        <v>45557.63541666666</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q42">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="R42">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S42">
-        <v>5.85</v>
+        <v>2.1</v>
       </c>
       <c r="T42">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U42">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V42">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="W42">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X42">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z42">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="AA42">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB42">
-        <v>5.75</v>
+        <v>1.44</v>
       </c>
       <c r="AC42">
         <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AE42">
         <v>1.2</v>
       </c>
       <c r="AF42">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AG42">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AH42">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AI42">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ42">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AK42">
-        <v>1.08</v>
+        <v>2.05</v>
       </c>
       <c r="AL42">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AM42">
-        <v>2.56</v>
+        <v>1.14</v>
       </c>
       <c r="AN42">
-        <v>2.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
+        <v>0.67</v>
+      </c>
+      <c r="AP42">
+        <v>0.25</v>
+      </c>
+      <c r="AQ42">
         <v>1.25</v>
       </c>
-      <c r="AP42">
-        <v>2.2</v>
-      </c>
-      <c r="AQ42">
-        <v>1.2</v>
-      </c>
       <c r="AR42">
-        <v>2.18</v>
+        <v>1.07</v>
       </c>
       <c r="AS42">
+        <v>1.3</v>
+      </c>
+      <c r="AT42">
+        <v>2.37</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>9</v>
+      </c>
+      <c r="AW42">
+        <v>9</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>17</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>8</v>
+      </c>
+      <c r="BC42">
+        <v>10</v>
+      </c>
+      <c r="BD42">
+        <v>4.25</v>
+      </c>
+      <c r="BE42">
+        <v>7.7</v>
+      </c>
+      <c r="BF42">
+        <v>1.33</v>
+      </c>
+      <c r="BG42">
+        <v>1.25</v>
+      </c>
+      <c r="BH42">
+        <v>3.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.4</v>
+      </c>
+      <c r="BJ42">
+        <v>2.7</v>
+      </c>
+      <c r="BK42">
         <v>1.63</v>
       </c>
-      <c r="AT42">
-        <v>3.81</v>
-      </c>
-      <c r="AU42">
-        <v>3</v>
-      </c>
-      <c r="AV42">
-        <v>5</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>5</v>
-      </c>
-      <c r="AY42">
-        <v>4</v>
-      </c>
-      <c r="AZ42">
-        <v>10</v>
-      </c>
-      <c r="BA42">
-        <v>8</v>
-      </c>
-      <c r="BB42">
-        <v>3</v>
-      </c>
-      <c r="BC42">
-        <v>11</v>
-      </c>
-      <c r="BD42">
-        <v>1.19</v>
-      </c>
-      <c r="BE42">
-        <v>8.9</v>
-      </c>
-      <c r="BF42">
-        <v>6.05</v>
-      </c>
-      <c r="BG42">
-        <v>1.29</v>
-      </c>
-      <c r="BH42">
-        <v>3.3</v>
-      </c>
-      <c r="BI42">
-        <v>1.49</v>
-      </c>
-      <c r="BJ42">
-        <v>2.55</v>
-      </c>
-      <c r="BK42">
-        <v>1.83</v>
-      </c>
       <c r="BL42">
-        <v>1.96</v>
+        <v>2.21</v>
       </c>
       <c r="BM42">
-        <v>2.32</v>
+        <v>2.01</v>
       </c>
       <c r="BN42">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="BO42">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BP42">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['27', '90']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -410,6 +413,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['56', '59', '78']</t>
   </si>
   <si>
     <t>['3', '65', '79']</t>
@@ -774,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1239,7 +1248,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1651,7 +1660,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1938,7 +1947,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2063,7 +2072,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2141,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2269,7 +2278,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2475,7 +2484,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2553,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3093,7 +3102,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3586,7 +3595,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3789,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3917,7 +3926,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3995,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4329,7 +4338,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4535,7 +4544,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4947,7 +4956,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5153,7 +5162,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5234,7 +5243,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5437,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5565,7 +5574,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5646,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5771,7 +5780,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5849,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6183,7 +6192,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6389,7 +6398,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6595,7 +6604,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7007,7 +7016,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7085,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7213,7 +7222,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7294,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7419,7 +7428,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7703,7 +7712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7909,7 +7918,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8243,7 +8252,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8655,7 +8664,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9067,7 +9076,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9148,7 +9157,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9231,7 +9240,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7483718</v>
+        <v>7483714</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9240,195 +9249,813 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45557.63541666666</v>
+        <v>45556.63541666666</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="R42">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>5.85</v>
       </c>
       <c r="T42">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U42">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V42">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X42">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
+        <v>1.45</v>
+      </c>
+      <c r="AA42">
+        <v>4.2</v>
+      </c>
+      <c r="AB42">
         <v>5.75</v>
-      </c>
-      <c r="AA42">
-        <v>4.1</v>
-      </c>
-      <c r="AB42">
-        <v>1.44</v>
       </c>
       <c r="AC42">
         <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AE42">
         <v>1.2</v>
       </c>
       <c r="AF42">
+        <v>3.55</v>
+      </c>
+      <c r="AG42">
+        <v>1.73</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1.87</v>
+      </c>
+      <c r="AJ42">
+        <v>1.79</v>
+      </c>
+      <c r="AK42">
+        <v>1.08</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>2.56</v>
+      </c>
+      <c r="AN42">
+        <v>2.5</v>
+      </c>
+      <c r="AO42">
+        <v>1.25</v>
+      </c>
+      <c r="AP42">
+        <v>2.2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.2</v>
+      </c>
+      <c r="AR42">
+        <v>2.18</v>
+      </c>
+      <c r="AS42">
+        <v>1.63</v>
+      </c>
+      <c r="AT42">
+        <v>3.81</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>5</v>
+      </c>
+      <c r="AY42">
         <v>4</v>
       </c>
-      <c r="AG42">
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>1.19</v>
+      </c>
+      <c r="BE42">
+        <v>8.9</v>
+      </c>
+      <c r="BF42">
+        <v>6.05</v>
+      </c>
+      <c r="BG42">
+        <v>1.29</v>
+      </c>
+      <c r="BH42">
+        <v>3.3</v>
+      </c>
+      <c r="BI42">
+        <v>1.49</v>
+      </c>
+      <c r="BJ42">
+        <v>2.55</v>
+      </c>
+      <c r="BK42">
+        <v>1.83</v>
+      </c>
+      <c r="BL42">
+        <v>1.96</v>
+      </c>
+      <c r="BM42">
+        <v>2.32</v>
+      </c>
+      <c r="BN42">
+        <v>1.58</v>
+      </c>
+      <c r="BO42">
+        <v>2.9</v>
+      </c>
+      <c r="BP42">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7483716</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q43">
+        <v>2.62</v>
+      </c>
+      <c r="R43">
+        <v>1.98</v>
+      </c>
+      <c r="S43">
+        <v>4.33</v>
+      </c>
+      <c r="T43">
+        <v>1.47</v>
+      </c>
+      <c r="U43">
+        <v>2.57</v>
+      </c>
+      <c r="V43">
+        <v>3.1</v>
+      </c>
+      <c r="W43">
+        <v>1.34</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.06</v>
+      </c>
+      <c r="Z43">
+        <v>1.95</v>
+      </c>
+      <c r="AA43">
+        <v>3.25</v>
+      </c>
+      <c r="AB43">
+        <v>3.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>7.1</v>
+      </c>
+      <c r="AE43">
+        <v>1.31</v>
+      </c>
+      <c r="AF43">
+        <v>2.82</v>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>1.65</v>
+      </c>
+      <c r="AI43">
+        <v>1.85</v>
+      </c>
+      <c r="AJ43">
+        <v>1.81</v>
+      </c>
+      <c r="AK43">
+        <v>1.24</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.71</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.26</v>
+      </c>
+      <c r="AS43">
+        <v>1.35</v>
+      </c>
+      <c r="AT43">
+        <v>2.61</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>10</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.44</v>
+      </c>
+      <c r="BE43">
+        <v>6.95</v>
+      </c>
+      <c r="BF43">
+        <v>3.58</v>
+      </c>
+      <c r="BG43">
+        <v>1.29</v>
+      </c>
+      <c r="BH43">
+        <v>3.3</v>
+      </c>
+      <c r="BI43">
+        <v>1.5</v>
+      </c>
+      <c r="BJ43">
+        <v>2.5</v>
+      </c>
+      <c r="BK43">
+        <v>1.85</v>
+      </c>
+      <c r="BL43">
+        <v>1.94</v>
+      </c>
+      <c r="BM43">
+        <v>2.32</v>
+      </c>
+      <c r="BN43">
+        <v>1.57</v>
+      </c>
+      <c r="BO43">
+        <v>2.9</v>
+      </c>
+      <c r="BP43">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7483717</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45557.52083333334</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>2.4</v>
+      </c>
+      <c r="S44">
+        <v>1.91</v>
+      </c>
+      <c r="T44">
+        <v>1.3</v>
+      </c>
+      <c r="U44">
+        <v>3.4</v>
+      </c>
+      <c r="V44">
+        <v>2.5</v>
+      </c>
+      <c r="W44">
+        <v>1.5</v>
+      </c>
+      <c r="X44">
+        <v>5.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.13</v>
+      </c>
+      <c r="Z44">
+        <v>6.75</v>
+      </c>
+      <c r="AA44">
+        <v>4.8</v>
+      </c>
+      <c r="AB44">
+        <v>1.33</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>11</v>
+      </c>
+      <c r="AE44">
+        <v>1.17</v>
+      </c>
+      <c r="AF44">
+        <v>4.5</v>
+      </c>
+      <c r="AG44">
+        <v>1.61</v>
+      </c>
+      <c r="AH44">
+        <v>2.15</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.83</v>
+      </c>
+      <c r="AK44">
+        <v>2.4</v>
+      </c>
+      <c r="AL44">
+        <v>1.15</v>
+      </c>
+      <c r="AM44">
+        <v>1.11</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.49</v>
+      </c>
+      <c r="AS44">
+        <v>1.48</v>
+      </c>
+      <c r="AT44">
+        <v>2.97</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>9</v>
+      </c>
+      <c r="AX44">
+        <v>8</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>14</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>6.17</v>
+      </c>
+      <c r="BE44">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>1.21</v>
+      </c>
+      <c r="BG44">
+        <v>1.4</v>
+      </c>
+      <c r="BH44">
+        <v>2.7</v>
+      </c>
+      <c r="BI44">
+        <v>1.71</v>
+      </c>
+      <c r="BJ44">
+        <v>2.08</v>
+      </c>
+      <c r="BK44">
+        <v>2.13</v>
+      </c>
+      <c r="BL44">
+        <v>1.68</v>
+      </c>
+      <c r="BM44">
+        <v>2.75</v>
+      </c>
+      <c r="BN44">
+        <v>1.4</v>
+      </c>
+      <c r="BO44">
+        <v>3.8</v>
+      </c>
+      <c r="BP44">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7483718</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45557.63541666666</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>2.25</v>
+      </c>
+      <c r="S45">
+        <v>2.1</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>3.25</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>5.75</v>
+      </c>
+      <c r="AA45">
+        <v>4.1</v>
+      </c>
+      <c r="AB45">
+        <v>1.44</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4</v>
+      </c>
+      <c r="AG45">
         <v>1.74</v>
       </c>
-      <c r="AH42">
+      <c r="AH45">
         <v>1.98</v>
       </c>
-      <c r="AI42">
+      <c r="AI45">
         <v>1.8</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ45">
         <v>1.91</v>
       </c>
-      <c r="AK42">
+      <c r="AK45">
         <v>2.05</v>
       </c>
-      <c r="AL42">
+      <c r="AL45">
         <v>1.19</v>
       </c>
-      <c r="AM42">
+      <c r="AM45">
         <v>1.14</v>
       </c>
-      <c r="AN42">
+      <c r="AN45">
         <v>0.33</v>
       </c>
-      <c r="AO42">
+      <c r="AO45">
         <v>0.67</v>
       </c>
-      <c r="AP42">
+      <c r="AP45">
         <v>0.25</v>
       </c>
-      <c r="AQ42">
+      <c r="AQ45">
         <v>1.25</v>
       </c>
-      <c r="AR42">
+      <c r="AR45">
         <v>1.07</v>
       </c>
-      <c r="AS42">
+      <c r="AS45">
         <v>1.3</v>
       </c>
-      <c r="AT42">
+      <c r="AT45">
         <v>2.37</v>
       </c>
-      <c r="AU42">
+      <c r="AU45">
         <v>4</v>
       </c>
-      <c r="AV42">
+      <c r="AV45">
         <v>9</v>
       </c>
-      <c r="AW42">
+      <c r="AW45">
         <v>9</v>
       </c>
-      <c r="AX42">
+      <c r="AX45">
         <v>8</v>
       </c>
-      <c r="AY42">
+      <c r="AY45">
         <v>13</v>
       </c>
-      <c r="AZ42">
+      <c r="AZ45">
         <v>17</v>
       </c>
-      <c r="BA42">
-        <v>2</v>
-      </c>
-      <c r="BB42">
+      <c r="BA45">
+        <v>2</v>
+      </c>
+      <c r="BB45">
         <v>8</v>
       </c>
-      <c r="BC42">
+      <c r="BC45">
         <v>10</v>
       </c>
-      <c r="BD42">
+      <c r="BD45">
         <v>4.25</v>
       </c>
-      <c r="BE42">
+      <c r="BE45">
         <v>7.7</v>
       </c>
-      <c r="BF42">
+      <c r="BF45">
         <v>1.33</v>
       </c>
-      <c r="BG42">
+      <c r="BG45">
         <v>1.25</v>
       </c>
-      <c r="BH42">
+      <c r="BH45">
         <v>3.6</v>
       </c>
-      <c r="BI42">
+      <c r="BI45">
         <v>1.4</v>
       </c>
-      <c r="BJ42">
+      <c r="BJ45">
         <v>2.7</v>
       </c>
-      <c r="BK42">
+      <c r="BK45">
         <v>1.63</v>
       </c>
-      <c r="BL42">
+      <c r="BL45">
         <v>2.21</v>
       </c>
-      <c r="BM42">
+      <c r="BM45">
         <v>2.01</v>
       </c>
-      <c r="BN42">
+      <c r="BN45">
         <v>1.78</v>
       </c>
-      <c r="BO42">
+      <c r="BO45">
         <v>2.6</v>
       </c>
-      <c r="BP42">
+      <c r="BP45">
         <v>1.44</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['16', '78', '90+1']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -422,6 +425,15 @@
   </si>
   <si>
     <t>['3', '65', '79']</t>
+  </si>
+  <si>
+    <t>['23', '82']</t>
+  </si>
+  <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
+    <t>['39', '43', '84']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1260,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1660,7 +1672,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2072,7 +2084,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2278,7 +2290,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2356,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2484,7 +2496,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2562,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3102,7 +3114,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -3389,7 +3401,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3926,7 +3938,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4004,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4210,10 +4222,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4338,7 +4350,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4544,7 +4556,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4828,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>1.8</v>
@@ -4956,7 +4968,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5034,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.2</v>
@@ -5162,7 +5174,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5446,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5574,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5655,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5780,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5861,7 +5873,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6192,7 +6204,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6270,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27">
         <v>1.8</v>
@@ -6398,7 +6410,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6479,7 +6491,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6604,7 +6616,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6888,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7016,7 +7028,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7094,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7222,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7428,7 +7440,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7918,10 +7930,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8252,7 +8264,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8333,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8536,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ38">
         <v>0.2</v>
@@ -8664,7 +8676,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9076,7 +9088,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9157,7 +9169,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9282,7 +9294,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9566,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9694,7 +9706,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9772,10 +9784,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9900,7 +9912,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9978,10 +9990,10 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10057,6 +10069,1036 @@
       </c>
       <c r="BP45">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7483721</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46">
+        <v>3.5</v>
+      </c>
+      <c r="R46">
+        <v>2.1</v>
+      </c>
+      <c r="S46">
+        <v>2.88</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46">
+        <v>2.75</v>
+      </c>
+      <c r="V46">
+        <v>2.75</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>3.47</v>
+      </c>
+      <c r="AA46">
+        <v>3.55</v>
+      </c>
+      <c r="AB46">
+        <v>1.87</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.22</v>
+      </c>
+      <c r="AF46">
+        <v>3.8</v>
+      </c>
+      <c r="AG46">
+        <v>1.8</v>
+      </c>
+      <c r="AH46">
+        <v>1.9</v>
+      </c>
+      <c r="AI46">
+        <v>1.73</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.65</v>
+      </c>
+      <c r="AL46">
+        <v>1.25</v>
+      </c>
+      <c r="AM46">
+        <v>1.35</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>1.4</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.5</v>
+      </c>
+      <c r="AS46">
+        <v>1.37</v>
+      </c>
+      <c r="AT46">
+        <v>2.87</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>2.55</v>
+      </c>
+      <c r="BE46">
+        <v>6.6</v>
+      </c>
+      <c r="BF46">
+        <v>1.74</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>1.57</v>
+      </c>
+      <c r="BL46">
+        <v>2.32</v>
+      </c>
+      <c r="BM46">
+        <v>1.93</v>
+      </c>
+      <c r="BN46">
+        <v>1.86</v>
+      </c>
+      <c r="BO46">
+        <v>2.39</v>
+      </c>
+      <c r="BP46">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7483719</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45563.52083333334</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P47" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q47">
+        <v>3.75</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>2.8</v>
+      </c>
+      <c r="T47">
+        <v>1.41</v>
+      </c>
+      <c r="U47">
+        <v>2.77</v>
+      </c>
+      <c r="V47">
+        <v>2.9</v>
+      </c>
+      <c r="W47">
+        <v>1.38</v>
+      </c>
+      <c r="X47">
+        <v>7.2</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>2.86</v>
+      </c>
+      <c r="AA47">
+        <v>3.4</v>
+      </c>
+      <c r="AB47">
+        <v>2.17</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>9</v>
+      </c>
+      <c r="AE47">
+        <v>1.29</v>
+      </c>
+      <c r="AF47">
+        <v>3.3</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>1.72</v>
+      </c>
+      <c r="AI47">
+        <v>1.73</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.55</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>1.28</v>
+      </c>
+      <c r="AN47">
+        <v>2.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.25</v>
+      </c>
+      <c r="AP47">
+        <v>2.6</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.28</v>
+      </c>
+      <c r="AS47">
+        <v>1.52</v>
+      </c>
+      <c r="AT47">
+        <v>2.8</v>
+      </c>
+      <c r="AU47">
+        <v>9</v>
+      </c>
+      <c r="AV47">
+        <v>8</v>
+      </c>
+      <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>12</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>1.25</v>
+      </c>
+      <c r="BH47">
+        <v>3.6</v>
+      </c>
+      <c r="BI47">
+        <v>1.42</v>
+      </c>
+      <c r="BJ47">
+        <v>2.62</v>
+      </c>
+      <c r="BK47">
+        <v>1.7</v>
+      </c>
+      <c r="BL47">
+        <v>2.05</v>
+      </c>
+      <c r="BM47">
+        <v>2.1</v>
+      </c>
+      <c r="BN47">
+        <v>1.67</v>
+      </c>
+      <c r="BO47">
+        <v>2.62</v>
+      </c>
+      <c r="BP47">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7483723</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45563.63541666666</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>5.15</v>
+      </c>
+      <c r="AB48">
+        <v>1.28</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>1.6</v>
+      </c>
+      <c r="AH48">
+        <v>2.2</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>2.2</v>
+      </c>
+      <c r="AR48">
+        <v>1.05</v>
+      </c>
+      <c r="AS48">
+        <v>1.81</v>
+      </c>
+      <c r="AT48">
+        <v>2.86</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>7</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7483722</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q49">
+        <v>2.24</v>
+      </c>
+      <c r="R49">
+        <v>2.14</v>
+      </c>
+      <c r="S49">
+        <v>5.26</v>
+      </c>
+      <c r="T49">
+        <v>1.38</v>
+      </c>
+      <c r="U49">
+        <v>2.8</v>
+      </c>
+      <c r="V49">
+        <v>2.7</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>6.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>1.55</v>
+      </c>
+      <c r="AA49">
+        <v>3.65</v>
+      </c>
+      <c r="AB49">
+        <v>5.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.29</v>
+      </c>
+      <c r="AF49">
+        <v>3.3</v>
+      </c>
+      <c r="AG49">
+        <v>1.98</v>
+      </c>
+      <c r="AH49">
+        <v>1.76</v>
+      </c>
+      <c r="AI49">
+        <v>1.83</v>
+      </c>
+      <c r="AJ49">
+        <v>1.83</v>
+      </c>
+      <c r="AK49">
+        <v>1.18</v>
+      </c>
+      <c r="AL49">
+        <v>1.24</v>
+      </c>
+      <c r="AM49">
+        <v>1.82</v>
+      </c>
+      <c r="AN49">
+        <v>1.25</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.31</v>
+      </c>
+      <c r="AS49">
+        <v>1.4</v>
+      </c>
+      <c r="AT49">
+        <v>2.71</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>11</v>
+      </c>
+      <c r="AX49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>15</v>
+      </c>
+      <c r="AZ49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>1.38</v>
+      </c>
+      <c r="BE49">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF49">
+        <v>3.58</v>
+      </c>
+      <c r="BG49">
+        <v>1.38</v>
+      </c>
+      <c r="BH49">
+        <v>2.8</v>
+      </c>
+      <c r="BI49">
+        <v>1.65</v>
+      </c>
+      <c r="BJ49">
+        <v>2.1</v>
+      </c>
+      <c r="BK49">
+        <v>2</v>
+      </c>
+      <c r="BL49">
+        <v>1.73</v>
+      </c>
+      <c r="BM49">
+        <v>2.6</v>
+      </c>
+      <c r="BN49">
+        <v>1.44</v>
+      </c>
+      <c r="BO49">
+        <v>3.4</v>
+      </c>
+      <c r="BP49">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7483720</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45564.63541666666</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q50">
+        <v>6.1</v>
+      </c>
+      <c r="R50">
+        <v>2.39</v>
+      </c>
+      <c r="S50">
+        <v>1.91</v>
+      </c>
+      <c r="T50">
+        <v>1.31</v>
+      </c>
+      <c r="U50">
+        <v>3.26</v>
+      </c>
+      <c r="V50">
+        <v>2.53</v>
+      </c>
+      <c r="W50">
+        <v>1.49</v>
+      </c>
+      <c r="X50">
+        <v>5.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.12</v>
+      </c>
+      <c r="Z50">
+        <v>5.25</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <v>1.48</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50">
+        <v>1.2</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.67</v>
+      </c>
+      <c r="AH50">
+        <v>2.1</v>
+      </c>
+      <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>1.86</v>
+      </c>
+      <c r="AK50">
+        <v>2.05</v>
+      </c>
+      <c r="AL50">
+        <v>1.19</v>
+      </c>
+      <c r="AM50">
+        <v>1.14</v>
+      </c>
+      <c r="AN50">
+        <v>0.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>0.2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.16</v>
+      </c>
+      <c r="AS50">
+        <v>1.59</v>
+      </c>
+      <c r="AT50">
+        <v>2.75</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>11</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>9</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>20</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.5</v>
+      </c>
+      <c r="BG50">
+        <v>1.33</v>
+      </c>
+      <c r="BH50">
+        <v>3</v>
+      </c>
+      <c r="BI50">
+        <v>1.57</v>
+      </c>
+      <c r="BJ50">
+        <v>2.25</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.4</v>
+      </c>
+      <c r="BN50">
+        <v>1.5</v>
+      </c>
+      <c r="BO50">
+        <v>3.2</v>
+      </c>
+      <c r="BP50">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -427,10 +427,10 @@
     <t>['3', '65', '79']</t>
   </si>
   <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
     <t>['23', '82']</t>
-  </si>
-  <si>
-    <t>['12', '71']</t>
   </si>
   <si>
     <t>['39', '43', '84']</t>
@@ -10076,7 +10076,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7483721</v>
+        <v>7483723</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10085,166 +10085,166 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="Q46">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>3.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA46">
-        <v>3.55</v>
+        <v>5.15</v>
       </c>
       <c r="AB46">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="AC46">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AH46">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AI46">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM46">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <v>1.5</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AR46">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AS46">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="AT46">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
         <v>4</v>
       </c>
-      <c r="AV46">
-        <v>3</v>
-      </c>
       <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>6</v>
+      </c>
+      <c r="AZ46">
         <v>7</v>
-      </c>
-      <c r="AX46">
-        <v>6</v>
-      </c>
-      <c r="AY46">
-        <v>11</v>
-      </c>
-      <c r="AZ46">
-        <v>9</v>
       </c>
       <c r="BA46">
         <v>5</v>
       </c>
       <c r="BB46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD46">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BE46">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="BF46">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BG46">
         <v>0</v>
@@ -10259,22 +10259,22 @@
         <v>0</v>
       </c>
       <c r="BK46">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BL46">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BM46">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="BN46">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="BO46">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="BP46">
-        <v>1.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10282,7 +10282,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7483719</v>
+        <v>7483721</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10291,94 +10291,94 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45563.52083333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="Q47">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R47">
         <v>2.1</v>
       </c>
       <c r="S47">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T47">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U47">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="V47">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="W47">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X47">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y47">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z47">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="AA47">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AB47">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AC47">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE47">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AF47">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH47">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AI47">
         <v>1.73</v>
@@ -10387,100 +10387,100 @@
         <v>2</v>
       </c>
       <c r="AK47">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AL47">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM47">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AN47">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AT47">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX47">
         <v>4</v>
       </c>
       <c r="AY47">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD47">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BE47">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF47">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BG47">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH47">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BI47">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BJ47">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BK47">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BL47">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="BM47">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="BN47">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="BO47">
-        <v>2.62</v>
+        <v>2.39</v>
       </c>
       <c r="BP47">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10488,7 +10488,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7483723</v>
+        <v>7483719</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10497,157 +10497,157 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45563.63541666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="P48" t="s">
         <v>138</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z48">
-        <v>8.699999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="AA48">
-        <v>5.15</v>
+        <v>3.4</v>
       </c>
       <c r="AB48">
+        <v>2.17</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>1.29</v>
+      </c>
+      <c r="AF48">
+        <v>3.3</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>1.72</v>
+      </c>
+      <c r="AI48">
+        <v>1.73</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.55</v>
+      </c>
+      <c r="AL48">
         <v>1.28</v>
       </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>1.6</v>
-      </c>
-      <c r="AH48">
-        <v>2.2</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ48">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="AS48">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV48">
+        <v>8</v>
+      </c>
+      <c r="AW48">
+        <v>7</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>15</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
         <v>4</v>
       </c>
-      <c r="AW48">
-        <v>3</v>
-      </c>
-      <c r="AX48">
-        <v>3</v>
-      </c>
-      <c r="AY48">
+      <c r="BB48">
         <v>6</v>
       </c>
-      <c r="AZ48">
-        <v>7</v>
-      </c>
-      <c r="BA48">
-        <v>5</v>
-      </c>
-      <c r="BB48">
-        <v>4</v>
-      </c>
       <c r="BC48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD48">
         <v>0</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BH48">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BI48">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BJ48">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BK48">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BL48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BM48">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BN48">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BO48">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BP48">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="49" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,9 +352,6 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['16', '78', '90+1']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -422,18 +419,6 @@
   </si>
   <si>
     <t>['56', '59', '78']</t>
-  </si>
-  <si>
-    <t>['3', '65', '79']</t>
-  </si>
-  <si>
-    <t>['12', '71']</t>
-  </si>
-  <si>
-    <t>['23', '82']</t>
-  </si>
-  <si>
-    <t>['39', '43', '84']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1245,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1672,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2084,7 +2069,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2162,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2290,7 +2275,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2368,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2496,7 +2481,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2574,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2780,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3114,7 +3099,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3192,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -3401,7 +3386,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3938,7 +3923,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4016,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4222,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4350,7 +4335,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4556,7 +4541,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4840,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1.8</v>
@@ -4968,7 +4953,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5046,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>0.2</v>
@@ -5174,7 +5159,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5458,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5586,7 +5571,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5667,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5792,7 +5777,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5873,7 +5858,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6204,7 +6189,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6282,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ27">
         <v>1.8</v>
@@ -6410,7 +6395,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6491,7 +6476,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6616,7 +6601,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6900,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7028,7 +7013,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7106,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7234,7 +7219,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7440,7 +7425,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7930,10 +7915,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8264,7 +8249,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8345,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8548,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ38">
         <v>0.2</v>
@@ -8676,7 +8661,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9088,7 +9073,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9169,7 +9154,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9294,7 +9279,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9578,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9706,7 +9691,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9784,10 +9769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9863,1242 +9848,6 @@
       </c>
       <c r="BP44">
         <v>1.23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:68">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>7483718</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2">
-        <v>45557.63541666666</v>
-      </c>
-      <c r="F45">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45" t="s">
-        <v>81</v>
-      </c>
-      <c r="P45" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q45">
-        <v>5</v>
-      </c>
-      <c r="R45">
-        <v>2.25</v>
-      </c>
-      <c r="S45">
-        <v>2.1</v>
-      </c>
-      <c r="T45">
-        <v>1.33</v>
-      </c>
-      <c r="U45">
-        <v>3.25</v>
-      </c>
-      <c r="V45">
-        <v>2.63</v>
-      </c>
-      <c r="W45">
-        <v>1.44</v>
-      </c>
-      <c r="X45">
-        <v>6</v>
-      </c>
-      <c r="Y45">
-        <v>1.11</v>
-      </c>
-      <c r="Z45">
-        <v>5.75</v>
-      </c>
-      <c r="AA45">
-        <v>4.1</v>
-      </c>
-      <c r="AB45">
-        <v>1.44</v>
-      </c>
-      <c r="AC45">
-        <v>1.01</v>
-      </c>
-      <c r="AD45">
-        <v>11</v>
-      </c>
-      <c r="AE45">
-        <v>1.2</v>
-      </c>
-      <c r="AF45">
-        <v>4</v>
-      </c>
-      <c r="AG45">
-        <v>1.74</v>
-      </c>
-      <c r="AH45">
-        <v>1.98</v>
-      </c>
-      <c r="AI45">
-        <v>1.8</v>
-      </c>
-      <c r="AJ45">
-        <v>1.91</v>
-      </c>
-      <c r="AK45">
-        <v>2.05</v>
-      </c>
-      <c r="AL45">
-        <v>1.19</v>
-      </c>
-      <c r="AM45">
-        <v>1.14</v>
-      </c>
-      <c r="AN45">
-        <v>0.33</v>
-      </c>
-      <c r="AO45">
-        <v>0.67</v>
-      </c>
-      <c r="AP45">
-        <v>0.2</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
-      <c r="AR45">
-        <v>1.07</v>
-      </c>
-      <c r="AS45">
-        <v>1.3</v>
-      </c>
-      <c r="AT45">
-        <v>2.37</v>
-      </c>
-      <c r="AU45">
-        <v>4</v>
-      </c>
-      <c r="AV45">
-        <v>9</v>
-      </c>
-      <c r="AW45">
-        <v>9</v>
-      </c>
-      <c r="AX45">
-        <v>8</v>
-      </c>
-      <c r="AY45">
-        <v>13</v>
-      </c>
-      <c r="AZ45">
-        <v>17</v>
-      </c>
-      <c r="BA45">
-        <v>2</v>
-      </c>
-      <c r="BB45">
-        <v>8</v>
-      </c>
-      <c r="BC45">
-        <v>10</v>
-      </c>
-      <c r="BD45">
-        <v>4.25</v>
-      </c>
-      <c r="BE45">
-        <v>7.7</v>
-      </c>
-      <c r="BF45">
-        <v>1.33</v>
-      </c>
-      <c r="BG45">
-        <v>1.25</v>
-      </c>
-      <c r="BH45">
-        <v>3.6</v>
-      </c>
-      <c r="BI45">
-        <v>1.4</v>
-      </c>
-      <c r="BJ45">
-        <v>2.7</v>
-      </c>
-      <c r="BK45">
-        <v>1.63</v>
-      </c>
-      <c r="BL45">
-        <v>2.21</v>
-      </c>
-      <c r="BM45">
-        <v>2.01</v>
-      </c>
-      <c r="BN45">
-        <v>1.78</v>
-      </c>
-      <c r="BO45">
-        <v>2.6</v>
-      </c>
-      <c r="BP45">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:68">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>7483723</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46" t="s">
-        <v>81</v>
-      </c>
-      <c r="P46" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AA46">
-        <v>5.15</v>
-      </c>
-      <c r="AB46">
-        <v>1.28</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>1.6</v>
-      </c>
-      <c r="AH46">
-        <v>2.2</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>1.5</v>
-      </c>
-      <c r="AO46">
-        <v>2</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>2.2</v>
-      </c>
-      <c r="AR46">
-        <v>1.05</v>
-      </c>
-      <c r="AS46">
-        <v>1.81</v>
-      </c>
-      <c r="AT46">
-        <v>2.86</v>
-      </c>
-      <c r="AU46">
-        <v>3</v>
-      </c>
-      <c r="AV46">
-        <v>4</v>
-      </c>
-      <c r="AW46">
-        <v>3</v>
-      </c>
-      <c r="AX46">
-        <v>3</v>
-      </c>
-      <c r="AY46">
-        <v>6</v>
-      </c>
-      <c r="AZ46">
-        <v>7</v>
-      </c>
-      <c r="BA46">
-        <v>5</v>
-      </c>
-      <c r="BB46">
-        <v>4</v>
-      </c>
-      <c r="BC46">
-        <v>9</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:68">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>7483721</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>81</v>
-      </c>
-      <c r="P47" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q47">
-        <v>3.5</v>
-      </c>
-      <c r="R47">
-        <v>2.1</v>
-      </c>
-      <c r="S47">
-        <v>2.88</v>
-      </c>
-      <c r="T47">
-        <v>1.4</v>
-      </c>
-      <c r="U47">
-        <v>2.75</v>
-      </c>
-      <c r="V47">
-        <v>2.75</v>
-      </c>
-      <c r="W47">
-        <v>1.4</v>
-      </c>
-      <c r="X47">
-        <v>7</v>
-      </c>
-      <c r="Y47">
-        <v>1.08</v>
-      </c>
-      <c r="Z47">
-        <v>3.47</v>
-      </c>
-      <c r="AA47">
-        <v>3.55</v>
-      </c>
-      <c r="AB47">
-        <v>1.87</v>
-      </c>
-      <c r="AC47">
-        <v>1.02</v>
-      </c>
-      <c r="AD47">
-        <v>10</v>
-      </c>
-      <c r="AE47">
-        <v>1.22</v>
-      </c>
-      <c r="AF47">
-        <v>3.8</v>
-      </c>
-      <c r="AG47">
-        <v>1.8</v>
-      </c>
-      <c r="AH47">
-        <v>1.9</v>
-      </c>
-      <c r="AI47">
-        <v>1.73</v>
-      </c>
-      <c r="AJ47">
-        <v>2</v>
-      </c>
-      <c r="AK47">
-        <v>1.65</v>
-      </c>
-      <c r="AL47">
-        <v>1.25</v>
-      </c>
-      <c r="AM47">
-        <v>1.35</v>
-      </c>
-      <c r="AN47">
-        <v>1.5</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>1.4</v>
-      </c>
-      <c r="AQ47">
-        <v>1</v>
-      </c>
-      <c r="AR47">
-        <v>1.5</v>
-      </c>
-      <c r="AS47">
-        <v>1.37</v>
-      </c>
-      <c r="AT47">
-        <v>2.87</v>
-      </c>
-      <c r="AU47">
-        <v>5</v>
-      </c>
-      <c r="AV47">
-        <v>3</v>
-      </c>
-      <c r="AW47">
-        <v>3</v>
-      </c>
-      <c r="AX47">
-        <v>4</v>
-      </c>
-      <c r="AY47">
-        <v>8</v>
-      </c>
-      <c r="AZ47">
-        <v>7</v>
-      </c>
-      <c r="BA47">
-        <v>5</v>
-      </c>
-      <c r="BB47">
-        <v>3</v>
-      </c>
-      <c r="BC47">
-        <v>8</v>
-      </c>
-      <c r="BD47">
-        <v>2.55</v>
-      </c>
-      <c r="BE47">
-        <v>6.6</v>
-      </c>
-      <c r="BF47">
-        <v>1.74</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
-      <c r="BI47">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>0</v>
-      </c>
-      <c r="BK47">
-        <v>1.57</v>
-      </c>
-      <c r="BL47">
-        <v>2.32</v>
-      </c>
-      <c r="BM47">
-        <v>1.93</v>
-      </c>
-      <c r="BN47">
-        <v>1.86</v>
-      </c>
-      <c r="BO47">
-        <v>2.39</v>
-      </c>
-      <c r="BP47">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:68">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>7483719</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>5</v>
-      </c>
-      <c r="O48" t="s">
-        <v>112</v>
-      </c>
-      <c r="P48" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q48">
-        <v>3.75</v>
-      </c>
-      <c r="R48">
-        <v>2.1</v>
-      </c>
-      <c r="S48">
-        <v>2.8</v>
-      </c>
-      <c r="T48">
-        <v>1.41</v>
-      </c>
-      <c r="U48">
-        <v>2.77</v>
-      </c>
-      <c r="V48">
-        <v>2.9</v>
-      </c>
-      <c r="W48">
-        <v>1.38</v>
-      </c>
-      <c r="X48">
-        <v>7.2</v>
-      </c>
-      <c r="Y48">
-        <v>1.07</v>
-      </c>
-      <c r="Z48">
-        <v>2.86</v>
-      </c>
-      <c r="AA48">
-        <v>3.4</v>
-      </c>
-      <c r="AB48">
-        <v>2.17</v>
-      </c>
-      <c r="AC48">
-        <v>1.03</v>
-      </c>
-      <c r="AD48">
-        <v>9</v>
-      </c>
-      <c r="AE48">
-        <v>1.29</v>
-      </c>
-      <c r="AF48">
-        <v>3.3</v>
-      </c>
-      <c r="AG48">
-        <v>2</v>
-      </c>
-      <c r="AH48">
-        <v>1.72</v>
-      </c>
-      <c r="AI48">
-        <v>1.73</v>
-      </c>
-      <c r="AJ48">
-        <v>2</v>
-      </c>
-      <c r="AK48">
-        <v>1.55</v>
-      </c>
-      <c r="AL48">
-        <v>1.28</v>
-      </c>
-      <c r="AM48">
-        <v>1.28</v>
-      </c>
-      <c r="AN48">
-        <v>2.5</v>
-      </c>
-      <c r="AO48">
-        <v>1.25</v>
-      </c>
-      <c r="AP48">
-        <v>2.6</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>1.28</v>
-      </c>
-      <c r="AS48">
-        <v>1.52</v>
-      </c>
-      <c r="AT48">
-        <v>2.8</v>
-      </c>
-      <c r="AU48">
-        <v>8</v>
-      </c>
-      <c r="AV48">
-        <v>8</v>
-      </c>
-      <c r="AW48">
-        <v>7</v>
-      </c>
-      <c r="AX48">
-        <v>3</v>
-      </c>
-      <c r="AY48">
-        <v>15</v>
-      </c>
-      <c r="AZ48">
-        <v>11</v>
-      </c>
-      <c r="BA48">
-        <v>4</v>
-      </c>
-      <c r="BB48">
-        <v>6</v>
-      </c>
-      <c r="BC48">
-        <v>10</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>1.25</v>
-      </c>
-      <c r="BH48">
-        <v>3.6</v>
-      </c>
-      <c r="BI48">
-        <v>1.42</v>
-      </c>
-      <c r="BJ48">
-        <v>2.62</v>
-      </c>
-      <c r="BK48">
-        <v>1.7</v>
-      </c>
-      <c r="BL48">
-        <v>2.05</v>
-      </c>
-      <c r="BM48">
-        <v>2.1</v>
-      </c>
-      <c r="BN48">
-        <v>1.67</v>
-      </c>
-      <c r="BO48">
-        <v>2.62</v>
-      </c>
-      <c r="BP48">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:68">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>7483722</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45564.52083333334</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q49">
-        <v>2.24</v>
-      </c>
-      <c r="R49">
-        <v>2.14</v>
-      </c>
-      <c r="S49">
-        <v>5.26</v>
-      </c>
-      <c r="T49">
-        <v>1.38</v>
-      </c>
-      <c r="U49">
-        <v>2.8</v>
-      </c>
-      <c r="V49">
-        <v>2.7</v>
-      </c>
-      <c r="W49">
-        <v>1.4</v>
-      </c>
-      <c r="X49">
-        <v>6.5</v>
-      </c>
-      <c r="Y49">
-        <v>1.08</v>
-      </c>
-      <c r="Z49">
-        <v>1.55</v>
-      </c>
-      <c r="AA49">
-        <v>3.65</v>
-      </c>
-      <c r="AB49">
-        <v>5.2</v>
-      </c>
-      <c r="AC49">
-        <v>1.03</v>
-      </c>
-      <c r="AD49">
-        <v>9</v>
-      </c>
-      <c r="AE49">
-        <v>1.29</v>
-      </c>
-      <c r="AF49">
-        <v>3.3</v>
-      </c>
-      <c r="AG49">
-        <v>1.98</v>
-      </c>
-      <c r="AH49">
-        <v>1.76</v>
-      </c>
-      <c r="AI49">
-        <v>1.83</v>
-      </c>
-      <c r="AJ49">
-        <v>1.83</v>
-      </c>
-      <c r="AK49">
-        <v>1.18</v>
-      </c>
-      <c r="AL49">
-        <v>1.24</v>
-      </c>
-      <c r="AM49">
-        <v>1.82</v>
-      </c>
-      <c r="AN49">
-        <v>1.25</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1.6</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>1.31</v>
-      </c>
-      <c r="AS49">
-        <v>1.4</v>
-      </c>
-      <c r="AT49">
-        <v>2.71</v>
-      </c>
-      <c r="AU49">
-        <v>4</v>
-      </c>
-      <c r="AV49">
-        <v>4</v>
-      </c>
-      <c r="AW49">
-        <v>11</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>15</v>
-      </c>
-      <c r="AZ49">
-        <v>5</v>
-      </c>
-      <c r="BA49">
-        <v>4</v>
-      </c>
-      <c r="BB49">
-        <v>1</v>
-      </c>
-      <c r="BC49">
-        <v>5</v>
-      </c>
-      <c r="BD49">
-        <v>1.38</v>
-      </c>
-      <c r="BE49">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF49">
-        <v>3.58</v>
-      </c>
-      <c r="BG49">
-        <v>1.38</v>
-      </c>
-      <c r="BH49">
-        <v>2.8</v>
-      </c>
-      <c r="BI49">
-        <v>1.65</v>
-      </c>
-      <c r="BJ49">
-        <v>2.1</v>
-      </c>
-      <c r="BK49">
-        <v>2</v>
-      </c>
-      <c r="BL49">
-        <v>1.73</v>
-      </c>
-      <c r="BM49">
-        <v>2.6</v>
-      </c>
-      <c r="BN49">
-        <v>1.44</v>
-      </c>
-      <c r="BO49">
-        <v>3.4</v>
-      </c>
-      <c r="BP49">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:68">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>7483720</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="2">
-        <v>45564.63541666666</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>3</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-      <c r="O50" t="s">
-        <v>81</v>
-      </c>
-      <c r="P50" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q50">
-        <v>6.1</v>
-      </c>
-      <c r="R50">
-        <v>2.39</v>
-      </c>
-      <c r="S50">
-        <v>1.91</v>
-      </c>
-      <c r="T50">
-        <v>1.31</v>
-      </c>
-      <c r="U50">
-        <v>3.26</v>
-      </c>
-      <c r="V50">
-        <v>2.53</v>
-      </c>
-      <c r="W50">
-        <v>1.49</v>
-      </c>
-      <c r="X50">
-        <v>5.5</v>
-      </c>
-      <c r="Y50">
-        <v>1.12</v>
-      </c>
-      <c r="Z50">
-        <v>5.25</v>
-      </c>
-      <c r="AA50">
-        <v>4</v>
-      </c>
-      <c r="AB50">
-        <v>1.48</v>
-      </c>
-      <c r="AC50">
-        <v>1.01</v>
-      </c>
-      <c r="AD50">
-        <v>11</v>
-      </c>
-      <c r="AE50">
-        <v>1.2</v>
-      </c>
-      <c r="AF50">
-        <v>4</v>
-      </c>
-      <c r="AG50">
-        <v>1.67</v>
-      </c>
-      <c r="AH50">
-        <v>2.1</v>
-      </c>
-      <c r="AI50">
-        <v>1.8</v>
-      </c>
-      <c r="AJ50">
-        <v>1.86</v>
-      </c>
-      <c r="AK50">
-        <v>2.05</v>
-      </c>
-      <c r="AL50">
-        <v>1.19</v>
-      </c>
-      <c r="AM50">
-        <v>1.14</v>
-      </c>
-      <c r="AN50">
-        <v>0.25</v>
-      </c>
-      <c r="AO50">
-        <v>1.33</v>
-      </c>
-      <c r="AP50">
-        <v>0.2</v>
-      </c>
-      <c r="AQ50">
-        <v>1.75</v>
-      </c>
-      <c r="AR50">
-        <v>1.16</v>
-      </c>
-      <c r="AS50">
-        <v>1.59</v>
-      </c>
-      <c r="AT50">
-        <v>2.75</v>
-      </c>
-      <c r="AU50">
-        <v>4</v>
-      </c>
-      <c r="AV50">
-        <v>11</v>
-      </c>
-      <c r="AW50">
-        <v>8</v>
-      </c>
-      <c r="AX50">
-        <v>9</v>
-      </c>
-      <c r="AY50">
-        <v>12</v>
-      </c>
-      <c r="AZ50">
-        <v>20</v>
-      </c>
-      <c r="BA50">
-        <v>6</v>
-      </c>
-      <c r="BB50">
-        <v>6</v>
-      </c>
-      <c r="BC50">
-        <v>12</v>
-      </c>
-      <c r="BD50">
-        <v>3</v>
-      </c>
-      <c r="BE50">
-        <v>8.5</v>
-      </c>
-      <c r="BF50">
-        <v>1.5</v>
-      </c>
-      <c r="BG50">
-        <v>1.33</v>
-      </c>
-      <c r="BH50">
-        <v>3</v>
-      </c>
-      <c r="BI50">
-        <v>1.57</v>
-      </c>
-      <c r="BJ50">
-        <v>2.25</v>
-      </c>
-      <c r="BK50">
-        <v>2</v>
-      </c>
-      <c r="BL50">
-        <v>1.8</v>
-      </c>
-      <c r="BM50">
-        <v>2.4</v>
-      </c>
-      <c r="BN50">
-        <v>1.5</v>
-      </c>
-      <c r="BO50">
-        <v>3.2</v>
-      </c>
-      <c r="BP50">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['16', '78', '90+1']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -419,6 +422,18 @@
   </si>
   <si>
     <t>['56', '59', '78']</t>
+  </si>
+  <si>
+    <t>['3', '65', '79']</t>
+  </si>
+  <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
+    <t>['23', '82']</t>
+  </si>
+  <si>
+    <t>['39', '43', '84']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1260,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1350,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="AY3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -1556,10 +1571,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -1657,7 +1672,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1762,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA5">
         <v>2</v>
@@ -1968,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="AY6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AZ6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA6">
         <v>9</v>
@@ -2069,7 +2084,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2147,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2174,10 +2189,10 @@
         <v>10</v>
       </c>
       <c r="AY7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -2275,7 +2290,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2353,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2380,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2481,7 +2496,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2559,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2586,10 +2601,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2765,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2998,10 +3013,10 @@
         <v>9</v>
       </c>
       <c r="AY11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA11">
         <v>2</v>
@@ -3099,7 +3114,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3177,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -3386,7 +3401,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3410,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="AY13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA13">
         <v>2</v>
@@ -3616,10 +3631,10 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA14">
         <v>6</v>
@@ -3822,10 +3837,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -3923,7 +3938,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4001,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4207,10 +4222,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4234,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="AY17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4335,7 +4350,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4443,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="AZ18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -4541,7 +4556,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4646,10 +4661,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
+        <v>18</v>
+      </c>
+      <c r="AZ19">
         <v>14</v>
-      </c>
-      <c r="AZ19">
-        <v>11</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -4825,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>1.8</v>
@@ -4852,10 +4867,10 @@
         <v>9</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -4953,7 +4968,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5031,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.2</v>
@@ -5159,7 +5174,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5264,10 +5279,10 @@
         <v>7</v>
       </c>
       <c r="AY22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5443,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5470,10 +5485,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA23">
         <v>6</v>
@@ -5571,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5652,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5676,10 +5691,10 @@
         <v>5</v>
       </c>
       <c r="AY24">
+        <v>14</v>
+      </c>
+      <c r="AZ24">
         <v>11</v>
-      </c>
-      <c r="AZ24">
-        <v>10</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -5777,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5858,7 +5873,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -5882,10 +5897,10 @@
         <v>8</v>
       </c>
       <c r="AY25">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6088,10 +6103,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA26">
         <v>9</v>
@@ -6189,7 +6204,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6267,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27">
         <v>1.8</v>
@@ -6294,10 +6309,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -6395,7 +6410,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6476,7 +6491,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6500,10 +6515,10 @@
         <v>6</v>
       </c>
       <c r="AY28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>2</v>
@@ -6601,7 +6616,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6885,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -6912,10 +6927,10 @@
         <v>13</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ30">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA30">
         <v>4</v>
@@ -7013,7 +7028,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7091,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7118,10 +7133,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
         <v>12</v>
-      </c>
-      <c r="AZ31">
-        <v>10</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7219,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7324,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
         <v>8</v>
@@ -7425,7 +7440,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7739,7 +7754,7 @@
         <v>22</v>
       </c>
       <c r="AZ34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -7915,10 +7930,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -7942,10 +7957,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
+        <v>14</v>
+      </c>
+      <c r="AZ35">
         <v>11</v>
-      </c>
-      <c r="AZ35">
-        <v>9</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8249,7 +8264,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8330,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8354,10 +8369,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -8533,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ38">
         <v>0.2</v>
@@ -8560,10 +8575,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
+        <v>17</v>
+      </c>
+      <c r="AZ38">
         <v>12</v>
-      </c>
-      <c r="AZ38">
-        <v>9</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8661,7 +8676,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8766,10 +8781,10 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AZ39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -8972,10 +8987,10 @@
         <v>7</v>
       </c>
       <c r="AY40">
+        <v>13</v>
+      </c>
+      <c r="AZ40">
         <v>11</v>
-      </c>
-      <c r="AZ40">
-        <v>9</v>
       </c>
       <c r="BA40">
         <v>3</v>
@@ -9073,7 +9088,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9154,7 +9169,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9178,10 +9193,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>7</v>
@@ -9279,7 +9294,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9387,7 +9402,7 @@
         <v>4</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA42">
         <v>8</v>
@@ -9563,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9590,10 +9605,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -9691,7 +9706,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9769,10 +9784,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9796,10 +9811,10 @@
         <v>8</v>
       </c>
       <c r="AY44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ44">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -9848,6 +9863,1242 @@
       </c>
       <c r="BP44">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7483718</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45557.63541666666</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>2.25</v>
+      </c>
+      <c r="S45">
+        <v>2.1</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>3.25</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>5.75</v>
+      </c>
+      <c r="AA45">
+        <v>4.1</v>
+      </c>
+      <c r="AB45">
+        <v>1.44</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4</v>
+      </c>
+      <c r="AG45">
+        <v>1.74</v>
+      </c>
+      <c r="AH45">
+        <v>1.98</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.91</v>
+      </c>
+      <c r="AK45">
+        <v>2.05</v>
+      </c>
+      <c r="AL45">
+        <v>1.19</v>
+      </c>
+      <c r="AM45">
+        <v>1.14</v>
+      </c>
+      <c r="AN45">
+        <v>0.33</v>
+      </c>
+      <c r="AO45">
+        <v>0.67</v>
+      </c>
+      <c r="AP45">
+        <v>0.2</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.07</v>
+      </c>
+      <c r="AS45">
+        <v>1.3</v>
+      </c>
+      <c r="AT45">
+        <v>2.37</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>9</v>
+      </c>
+      <c r="AW45">
+        <v>9</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>19</v>
+      </c>
+      <c r="AZ45">
+        <v>18</v>
+      </c>
+      <c r="BA45">
+        <v>2</v>
+      </c>
+      <c r="BB45">
+        <v>8</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>4.25</v>
+      </c>
+      <c r="BE45">
+        <v>7.7</v>
+      </c>
+      <c r="BF45">
+        <v>1.33</v>
+      </c>
+      <c r="BG45">
+        <v>1.25</v>
+      </c>
+      <c r="BH45">
+        <v>3.6</v>
+      </c>
+      <c r="BI45">
+        <v>1.4</v>
+      </c>
+      <c r="BJ45">
+        <v>2.7</v>
+      </c>
+      <c r="BK45">
+        <v>1.63</v>
+      </c>
+      <c r="BL45">
+        <v>2.21</v>
+      </c>
+      <c r="BM45">
+        <v>2.01</v>
+      </c>
+      <c r="BN45">
+        <v>1.78</v>
+      </c>
+      <c r="BO45">
+        <v>2.6</v>
+      </c>
+      <c r="BP45">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7483723</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>5.15</v>
+      </c>
+      <c r="AB46">
+        <v>1.28</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>1.6</v>
+      </c>
+      <c r="AH46">
+        <v>2.2</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>2.2</v>
+      </c>
+      <c r="AR46">
+        <v>1.05</v>
+      </c>
+      <c r="AS46">
+        <v>1.81</v>
+      </c>
+      <c r="AT46">
+        <v>2.86</v>
+      </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>6</v>
+      </c>
+      <c r="AZ46">
+        <v>7</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>9</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7483721</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q47">
+        <v>3.5</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>2.88</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>3.47</v>
+      </c>
+      <c r="AA47">
+        <v>3.55</v>
+      </c>
+      <c r="AB47">
+        <v>1.87</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>10</v>
+      </c>
+      <c r="AE47">
+        <v>1.22</v>
+      </c>
+      <c r="AF47">
+        <v>3.8</v>
+      </c>
+      <c r="AG47">
+        <v>1.8</v>
+      </c>
+      <c r="AH47">
+        <v>1.9</v>
+      </c>
+      <c r="AI47">
+        <v>1.73</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.65</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.35</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1.4</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.5</v>
+      </c>
+      <c r="AS47">
+        <v>1.37</v>
+      </c>
+      <c r="AT47">
+        <v>2.87</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>3</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>5</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
+        <v>8</v>
+      </c>
+      <c r="BD47">
+        <v>2.55</v>
+      </c>
+      <c r="BE47">
+        <v>6.6</v>
+      </c>
+      <c r="BF47">
+        <v>1.74</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>1.57</v>
+      </c>
+      <c r="BL47">
+        <v>2.32</v>
+      </c>
+      <c r="BM47">
+        <v>1.93</v>
+      </c>
+      <c r="BN47">
+        <v>1.86</v>
+      </c>
+      <c r="BO47">
+        <v>2.39</v>
+      </c>
+      <c r="BP47">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7483719</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45563.52083333334</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>112</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q48">
+        <v>3.75</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>2.8</v>
+      </c>
+      <c r="T48">
+        <v>1.41</v>
+      </c>
+      <c r="U48">
+        <v>2.77</v>
+      </c>
+      <c r="V48">
+        <v>2.9</v>
+      </c>
+      <c r="W48">
+        <v>1.38</v>
+      </c>
+      <c r="X48">
+        <v>7.2</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>2.86</v>
+      </c>
+      <c r="AA48">
+        <v>3.4</v>
+      </c>
+      <c r="AB48">
+        <v>2.17</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>1.29</v>
+      </c>
+      <c r="AF48">
+        <v>3.3</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>1.72</v>
+      </c>
+      <c r="AI48">
+        <v>1.73</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.55</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.28</v>
+      </c>
+      <c r="AN48">
+        <v>2.5</v>
+      </c>
+      <c r="AO48">
+        <v>1.25</v>
+      </c>
+      <c r="AP48">
+        <v>2.6</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.28</v>
+      </c>
+      <c r="AS48">
+        <v>1.52</v>
+      </c>
+      <c r="AT48">
+        <v>2.8</v>
+      </c>
+      <c r="AU48">
+        <v>9</v>
+      </c>
+      <c r="AV48">
+        <v>8</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>4</v>
+      </c>
+      <c r="AY48">
+        <v>15</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>4</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>1.25</v>
+      </c>
+      <c r="BH48">
+        <v>3.6</v>
+      </c>
+      <c r="BI48">
+        <v>1.42</v>
+      </c>
+      <c r="BJ48">
+        <v>2.62</v>
+      </c>
+      <c r="BK48">
+        <v>1.7</v>
+      </c>
+      <c r="BL48">
+        <v>2.05</v>
+      </c>
+      <c r="BM48">
+        <v>2.1</v>
+      </c>
+      <c r="BN48">
+        <v>1.67</v>
+      </c>
+      <c r="BO48">
+        <v>2.62</v>
+      </c>
+      <c r="BP48">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7483722</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q49">
+        <v>2.24</v>
+      </c>
+      <c r="R49">
+        <v>2.14</v>
+      </c>
+      <c r="S49">
+        <v>5.26</v>
+      </c>
+      <c r="T49">
+        <v>1.38</v>
+      </c>
+      <c r="U49">
+        <v>2.8</v>
+      </c>
+      <c r="V49">
+        <v>2.7</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>6.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>1.55</v>
+      </c>
+      <c r="AA49">
+        <v>3.65</v>
+      </c>
+      <c r="AB49">
+        <v>5.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.29</v>
+      </c>
+      <c r="AF49">
+        <v>3.3</v>
+      </c>
+      <c r="AG49">
+        <v>1.98</v>
+      </c>
+      <c r="AH49">
+        <v>1.76</v>
+      </c>
+      <c r="AI49">
+        <v>1.83</v>
+      </c>
+      <c r="AJ49">
+        <v>1.83</v>
+      </c>
+      <c r="AK49">
+        <v>1.18</v>
+      </c>
+      <c r="AL49">
+        <v>1.24</v>
+      </c>
+      <c r="AM49">
+        <v>1.82</v>
+      </c>
+      <c r="AN49">
+        <v>1.25</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.31</v>
+      </c>
+      <c r="AS49">
+        <v>1.4</v>
+      </c>
+      <c r="AT49">
+        <v>2.71</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>11</v>
+      </c>
+      <c r="AX49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>15</v>
+      </c>
+      <c r="AZ49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>1.38</v>
+      </c>
+      <c r="BE49">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF49">
+        <v>3.58</v>
+      </c>
+      <c r="BG49">
+        <v>1.38</v>
+      </c>
+      <c r="BH49">
+        <v>2.8</v>
+      </c>
+      <c r="BI49">
+        <v>1.65</v>
+      </c>
+      <c r="BJ49">
+        <v>2.1</v>
+      </c>
+      <c r="BK49">
+        <v>2</v>
+      </c>
+      <c r="BL49">
+        <v>1.73</v>
+      </c>
+      <c r="BM49">
+        <v>2.6</v>
+      </c>
+      <c r="BN49">
+        <v>1.44</v>
+      </c>
+      <c r="BO49">
+        <v>3.4</v>
+      </c>
+      <c r="BP49">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7483720</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45564.63541666666</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q50">
+        <v>6.1</v>
+      </c>
+      <c r="R50">
+        <v>2.39</v>
+      </c>
+      <c r="S50">
+        <v>1.91</v>
+      </c>
+      <c r="T50">
+        <v>1.31</v>
+      </c>
+      <c r="U50">
+        <v>3.26</v>
+      </c>
+      <c r="V50">
+        <v>2.53</v>
+      </c>
+      <c r="W50">
+        <v>1.49</v>
+      </c>
+      <c r="X50">
+        <v>5.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.12</v>
+      </c>
+      <c r="Z50">
+        <v>5.25</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <v>1.48</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50">
+        <v>1.2</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.67</v>
+      </c>
+      <c r="AH50">
+        <v>2.1</v>
+      </c>
+      <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>1.86</v>
+      </c>
+      <c r="AK50">
+        <v>2.05</v>
+      </c>
+      <c r="AL50">
+        <v>1.19</v>
+      </c>
+      <c r="AM50">
+        <v>1.14</v>
+      </c>
+      <c r="AN50">
+        <v>0.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>0.2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.16</v>
+      </c>
+      <c r="AS50">
+        <v>1.59</v>
+      </c>
+      <c r="AT50">
+        <v>2.75</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>11</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>9</v>
+      </c>
+      <c r="AY50">
+        <v>15</v>
+      </c>
+      <c r="AZ50">
+        <v>23</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.5</v>
+      </c>
+      <c r="BG50">
+        <v>1.33</v>
+      </c>
+      <c r="BH50">
+        <v>3</v>
+      </c>
+      <c r="BI50">
+        <v>1.57</v>
+      </c>
+      <c r="BJ50">
+        <v>2.25</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.4</v>
+      </c>
+      <c r="BN50">
+        <v>1.5</v>
+      </c>
+      <c r="BO50">
+        <v>3.2</v>
+      </c>
+      <c r="BP50">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>['16', '78', '90+1']</t>
+  </si>
+  <si>
+    <t>['40', '76']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -795,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.8</v>
@@ -1672,7 +1675,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2084,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2290,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2496,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0.2</v>
@@ -3114,7 +3117,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3938,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4350,7 +4353,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4556,7 +4559,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4968,7 +4971,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5174,7 +5177,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5586,7 +5589,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5664,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5792,7 +5795,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6204,7 +6207,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6410,7 +6413,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6616,7 +6619,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7028,7 +7031,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7234,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7312,7 +7315,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.2</v>
@@ -7440,7 +7443,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8264,7 +8267,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8342,7 +8345,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -8676,7 +8679,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9088,7 +9091,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9294,7 +9297,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9706,7 +9709,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9912,7 +9915,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10118,7 +10121,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10530,7 +10533,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10942,7 +10945,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11099,6 +11102,212 @@
       </c>
       <c r="BP50">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7483726</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51">
+        <v>2.45</v>
+      </c>
+      <c r="R51">
+        <v>2.23</v>
+      </c>
+      <c r="S51">
+        <v>4.61</v>
+      </c>
+      <c r="T51">
+        <v>1.37</v>
+      </c>
+      <c r="U51">
+        <v>2.91</v>
+      </c>
+      <c r="V51">
+        <v>2.89</v>
+      </c>
+      <c r="W51">
+        <v>1.37</v>
+      </c>
+      <c r="X51">
+        <v>7.1</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.86</v>
+      </c>
+      <c r="AA51">
+        <v>3.1</v>
+      </c>
+      <c r="AB51">
+        <v>3.7</v>
+      </c>
+      <c r="AC51">
+        <v>1.06</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>3.4</v>
+      </c>
+      <c r="AG51">
+        <v>1.93</v>
+      </c>
+      <c r="AH51">
+        <v>1.83</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.91</v>
+      </c>
+      <c r="AK51">
+        <v>1.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.86</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.32</v>
+      </c>
+      <c r="AS51">
+        <v>1.39</v>
+      </c>
+      <c r="AT51">
+        <v>2.71</v>
+      </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>12</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>1.59</v>
+      </c>
+      <c r="BE51">
+        <v>7.8</v>
+      </c>
+      <c r="BF51">
+        <v>3</v>
+      </c>
+      <c r="BG51">
+        <v>1.27</v>
+      </c>
+      <c r="BH51">
+        <v>3.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.5</v>
+      </c>
+      <c r="BJ51">
+        <v>2.47</v>
+      </c>
+      <c r="BK51">
+        <v>1.87</v>
+      </c>
+      <c r="BL51">
+        <v>1.93</v>
+      </c>
+      <c r="BM51">
+        <v>2.34</v>
+      </c>
+      <c r="BN51">
+        <v>1.56</v>
+      </c>
+      <c r="BO51">
+        <v>3</v>
+      </c>
+      <c r="BP51">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -355,9 +355,6 @@
     <t>['16', '78', '90+1']</t>
   </si>
   <si>
-    <t>['40', '76']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>['39', '43', '84']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.8</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1756,7 +1756,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2293,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2499,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3117,7 +3117,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4559,7 +4559,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4971,7 +4971,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5177,7 +5177,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5255,7 +5255,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5589,7 +5589,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5795,7 +5795,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6413,7 +6413,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6619,7 +6619,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7112,7 +7112,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7237,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7315,7 +7315,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.2</v>
@@ -7443,7 +7443,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8345,7 +8345,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -8554,7 +8554,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ38">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -8679,7 +8679,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9091,7 +9091,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9297,7 +9297,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9709,7 +9709,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9915,7 +9915,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10121,7 +10121,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10945,7 +10945,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11109,7 +11109,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7483726</v>
+        <v>7483727</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11118,196 +11118,196 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45569.63541666666</v>
+        <v>45570.63541666666</v>
       </c>
       <c r="F51">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="Q51">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="R51">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="S51">
-        <v>4.61</v>
+        <v>5.11</v>
       </c>
       <c r="T51">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="U51">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="V51">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="W51">
         <v>1.37</v>
       </c>
       <c r="X51">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="Y51">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z51">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AA51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB51">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AC51">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AE51">
         <v>1.3</v>
       </c>
       <c r="AF51">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AG51">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AH51">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AI51">
+        <v>1.86</v>
+      </c>
+      <c r="AJ51">
         <v>1.8</v>
       </c>
-      <c r="AJ51">
-        <v>1.91</v>
-      </c>
       <c r="AK51">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AL51">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM51">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AS51">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>2.71</v>
+        <v>2.96</v>
       </c>
       <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
         <v>6</v>
       </c>
-      <c r="AV51">
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>12</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
         <v>5</v>
       </c>
-      <c r="AW51">
-        <v>12</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>18</v>
-      </c>
-      <c r="AZ51">
-        <v>6</v>
-      </c>
-      <c r="BA51">
-        <v>5</v>
-      </c>
-      <c r="BB51">
-        <v>7</v>
-      </c>
       <c r="BC51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD51">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="BE51">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BF51">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BG51">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH51">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BI51">
+        <v>1.29</v>
+      </c>
+      <c r="BJ51">
+        <v>3.3</v>
+      </c>
+      <c r="BK51">
+        <v>1.6</v>
+      </c>
+      <c r="BL51">
+        <v>2.26</v>
+      </c>
+      <c r="BM51">
+        <v>1.98</v>
+      </c>
+      <c r="BN51">
+        <v>1.81</v>
+      </c>
+      <c r="BO51">
+        <v>2.5</v>
+      </c>
+      <c r="BP51">
         <v>1.5</v>
-      </c>
-      <c r="BJ51">
-        <v>2.47</v>
-      </c>
-      <c r="BK51">
-        <v>1.87</v>
-      </c>
-      <c r="BL51">
-        <v>1.93</v>
-      </c>
-      <c r="BM51">
-        <v>2.34</v>
-      </c>
-      <c r="BN51">
-        <v>1.56</v>
-      </c>
-      <c r="BO51">
-        <v>3</v>
-      </c>
-      <c r="BP51">
-        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['16', '78', '90+1']</t>
   </si>
   <si>
+    <t>['40', '76']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -437,6 +443,12 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['61', '90+2']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1263,7 +1275,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1341,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1675,7 +1687,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -1962,7 +1974,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2087,7 +2099,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2293,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2499,7 +2511,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2989,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3117,7 +3129,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3195,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3404,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3607,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3813,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3941,7 +3953,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4353,7 +4365,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4559,7 +4571,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4637,7 +4649,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4846,7 +4858,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -4971,7 +4983,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5049,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5177,7 +5189,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5258,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5589,7 +5601,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5667,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5795,7 +5807,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5873,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6207,7 +6219,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6288,7 +6300,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6413,7 +6425,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6491,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>2.2</v>
@@ -6619,7 +6631,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7031,7 +7043,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7237,7 +7249,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7315,10 +7327,10 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7443,7 +7455,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7521,7 +7533,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7727,7 +7739,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7936,7 +7948,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8267,7 +8279,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8345,7 +8357,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -8679,7 +8691,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8963,10 +8975,10 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9091,7 +9103,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9297,7 +9309,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9375,10 +9387,10 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -9709,7 +9721,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9915,7 +9927,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9996,7 +10008,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10121,7 +10133,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10199,7 +10211,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>2.2</v>
@@ -10533,7 +10545,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10614,7 +10626,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -10945,7 +10957,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11109,7 +11121,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7483727</v>
+        <v>7483726</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11118,196 +11130,1020 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45570.63541666666</v>
+        <v>45569.63541666666</v>
       </c>
       <c r="F51">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="s">
         <v>81</v>
       </c>
-      <c r="P51" t="s">
-        <v>140</v>
-      </c>
       <c r="Q51">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="R51">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="S51">
-        <v>5.11</v>
+        <v>4.61</v>
       </c>
       <c r="T51">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="U51">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="V51">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="W51">
         <v>1.37</v>
       </c>
       <c r="X51">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y51">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z51">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AA51">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB51">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD51">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AE51">
         <v>1.3</v>
       </c>
       <c r="AF51">
+        <v>3.4</v>
+      </c>
+      <c r="AG51">
+        <v>1.93</v>
+      </c>
+      <c r="AH51">
+        <v>1.83</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.91</v>
+      </c>
+      <c r="AK51">
+        <v>1.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.86</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.32</v>
+      </c>
+      <c r="AS51">
+        <v>1.39</v>
+      </c>
+      <c r="AT51">
+        <v>2.71</v>
+      </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>12</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>1.59</v>
+      </c>
+      <c r="BE51">
+        <v>7.8</v>
+      </c>
+      <c r="BF51">
+        <v>3</v>
+      </c>
+      <c r="BG51">
+        <v>1.27</v>
+      </c>
+      <c r="BH51">
+        <v>3.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.5</v>
+      </c>
+      <c r="BJ51">
+        <v>2.47</v>
+      </c>
+      <c r="BK51">
+        <v>1.87</v>
+      </c>
+      <c r="BL51">
+        <v>1.93</v>
+      </c>
+      <c r="BM51">
+        <v>2.34</v>
+      </c>
+      <c r="BN51">
+        <v>1.56</v>
+      </c>
+      <c r="BO51">
+        <v>3</v>
+      </c>
+      <c r="BP51">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7483727</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q52">
+        <v>2.31</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>5.11</v>
+      </c>
+      <c r="T52">
+        <v>1.41</v>
+      </c>
+      <c r="U52">
+        <v>2.77</v>
+      </c>
+      <c r="V52">
+        <v>2.94</v>
+      </c>
+      <c r="W52">
+        <v>1.37</v>
+      </c>
+      <c r="X52">
+        <v>7.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.07</v>
+      </c>
+      <c r="Z52">
+        <v>1.83</v>
+      </c>
+      <c r="AA52">
+        <v>3.4</v>
+      </c>
+      <c r="AB52">
+        <v>3.9</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>7.8</v>
+      </c>
+      <c r="AE52">
+        <v>1.3</v>
+      </c>
+      <c r="AF52">
         <v>3.1</v>
       </c>
-      <c r="AG51">
+      <c r="AG52">
         <v>1.95</v>
       </c>
-      <c r="AH51">
+      <c r="AH52">
         <v>1.75</v>
       </c>
-      <c r="AI51">
+      <c r="AI52">
         <v>1.86</v>
       </c>
-      <c r="AJ51">
+      <c r="AJ52">
         <v>1.8</v>
       </c>
-      <c r="AK51">
+      <c r="AK52">
         <v>1.16</v>
       </c>
-      <c r="AL51">
+      <c r="AL52">
         <v>1.24</v>
       </c>
-      <c r="AM51">
+      <c r="AM52">
         <v>1.97</v>
       </c>
-      <c r="AN51">
+      <c r="AN52">
         <v>2.4</v>
       </c>
-      <c r="AO51">
+      <c r="AO52">
         <v>0.2</v>
       </c>
-      <c r="AP51">
-        <v>2</v>
-      </c>
-      <c r="AQ51">
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
         <v>0.67</v>
       </c>
-      <c r="AR51">
+      <c r="AR52">
         <v>1.58</v>
       </c>
-      <c r="AS51">
+      <c r="AS52">
         <v>1.38</v>
       </c>
-      <c r="AT51">
+      <c r="AT52">
         <v>2.96</v>
       </c>
-      <c r="AU51">
+      <c r="AU52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
         <v>3</v>
       </c>
-      <c r="AV51">
+      <c r="AY52">
+        <v>4</v>
+      </c>
+      <c r="AZ52">
+        <v>5</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>5</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>1.61</v>
+      </c>
+      <c r="BE52">
+        <v>8.4</v>
+      </c>
+      <c r="BF52">
+        <v>2.65</v>
+      </c>
+      <c r="BG52">
+        <v>1.18</v>
+      </c>
+      <c r="BH52">
+        <v>4.3</v>
+      </c>
+      <c r="BI52">
+        <v>1.29</v>
+      </c>
+      <c r="BJ52">
+        <v>3.3</v>
+      </c>
+      <c r="BK52">
+        <v>1.6</v>
+      </c>
+      <c r="BL52">
+        <v>2.26</v>
+      </c>
+      <c r="BM52">
+        <v>1.98</v>
+      </c>
+      <c r="BN52">
+        <v>1.81</v>
+      </c>
+      <c r="BO52">
+        <v>2.5</v>
+      </c>
+      <c r="BP52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7483724</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>3.6</v>
+      </c>
+      <c r="AA53">
+        <v>3.3</v>
+      </c>
+      <c r="AB53">
+        <v>1.85</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>1.95</v>
+      </c>
+      <c r="AH53">
+        <v>1.73</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1.2</v>
+      </c>
+      <c r="AP53">
+        <v>1.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.07</v>
+      </c>
+      <c r="AS53">
+        <v>1.55</v>
+      </c>
+      <c r="AT53">
+        <v>2.62</v>
+      </c>
+      <c r="AU53">
+        <v>2</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
         <v>3</v>
       </c>
-      <c r="AW51">
+      <c r="AX53">
         <v>3</v>
       </c>
-      <c r="AX51">
+      <c r="AY53">
+        <v>5</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>2</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7483728</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45571.52083333334</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q54">
+        <v>2.63</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>3.75</v>
+      </c>
+      <c r="T54">
+        <v>1.35</v>
+      </c>
+      <c r="U54">
+        <v>3.04</v>
+      </c>
+      <c r="V54">
+        <v>2.62</v>
+      </c>
+      <c r="W54">
+        <v>1.45</v>
+      </c>
+      <c r="X54">
+        <v>6.4</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>1.96</v>
+      </c>
+      <c r="AA54">
+        <v>3.35</v>
+      </c>
+      <c r="AB54">
+        <v>3.3</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>3.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.77</v>
+      </c>
+      <c r="AH54">
+        <v>1.95</v>
+      </c>
+      <c r="AI54">
+        <v>1.62</v>
+      </c>
+      <c r="AJ54">
+        <v>2.2</v>
+      </c>
+      <c r="AK54">
+        <v>1.27</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.72</v>
+      </c>
+      <c r="AN54">
+        <v>2.33</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.59</v>
+      </c>
+      <c r="AS54">
+        <v>1.57</v>
+      </c>
+      <c r="AT54">
+        <v>3.16</v>
+      </c>
+      <c r="AU54">
+        <v>2</v>
+      </c>
+      <c r="AV54">
+        <v>9</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>9</v>
+      </c>
+      <c r="AY54">
         <v>6</v>
       </c>
-      <c r="AY51">
-        <v>7</v>
-      </c>
-      <c r="AZ51">
-        <v>12</v>
-      </c>
-      <c r="BA51">
+      <c r="AZ54">
+        <v>18</v>
+      </c>
+      <c r="BA54">
         <v>4</v>
       </c>
-      <c r="BB51">
+      <c r="BB54">
+        <v>10</v>
+      </c>
+      <c r="BC54">
+        <v>14</v>
+      </c>
+      <c r="BD54">
+        <v>1.65</v>
+      </c>
+      <c r="BE54">
+        <v>6.85</v>
+      </c>
+      <c r="BF54">
+        <v>2.73</v>
+      </c>
+      <c r="BG54">
+        <v>1.32</v>
+      </c>
+      <c r="BH54">
+        <v>3.1</v>
+      </c>
+      <c r="BI54">
+        <v>1.6</v>
+      </c>
+      <c r="BJ54">
+        <v>2.28</v>
+      </c>
+      <c r="BK54">
+        <v>1.99</v>
+      </c>
+      <c r="BL54">
+        <v>1.8</v>
+      </c>
+      <c r="BM54">
+        <v>2.55</v>
+      </c>
+      <c r="BN54">
+        <v>1.48</v>
+      </c>
+      <c r="BO54">
+        <v>3.2</v>
+      </c>
+      <c r="BP54">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7483725</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45571.63541666666</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55">
+        <v>2.1</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
         <v>5</v>
       </c>
-      <c r="BC51">
-        <v>9</v>
-      </c>
-      <c r="BD51">
-        <v>1.61</v>
-      </c>
-      <c r="BE51">
-        <v>8.4</v>
-      </c>
-      <c r="BF51">
-        <v>2.65</v>
-      </c>
-      <c r="BG51">
-        <v>1.18</v>
-      </c>
-      <c r="BH51">
-        <v>4.3</v>
-      </c>
-      <c r="BI51">
-        <v>1.29</v>
-      </c>
-      <c r="BJ51">
-        <v>3.3</v>
-      </c>
-      <c r="BK51">
-        <v>1.6</v>
-      </c>
-      <c r="BL51">
-        <v>2.26</v>
-      </c>
-      <c r="BM51">
-        <v>1.98</v>
-      </c>
-      <c r="BN51">
-        <v>1.81</v>
-      </c>
-      <c r="BO51">
-        <v>2.5</v>
-      </c>
-      <c r="BP51">
-        <v>1.5</v>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>2.99</v>
+      </c>
+      <c r="V55">
+        <v>2.66</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>6.3</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>1.62</v>
+      </c>
+      <c r="AA55">
+        <v>3.65</v>
+      </c>
+      <c r="AB55">
+        <v>4.5</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>1.22</v>
+      </c>
+      <c r="AF55">
+        <v>3.8</v>
+      </c>
+      <c r="AG55">
+        <v>1.84</v>
+      </c>
+      <c r="AH55">
+        <v>1.89</v>
+      </c>
+      <c r="AI55">
+        <v>1.73</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.14</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>2.09</v>
+      </c>
+      <c r="AN55">
+        <v>2.2</v>
+      </c>
+      <c r="AO55">
+        <v>1.8</v>
+      </c>
+      <c r="AP55">
+        <v>1.83</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>1.92</v>
+      </c>
+      <c r="AS55">
+        <v>1.43</v>
+      </c>
+      <c r="AT55">
+        <v>3.35</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>6</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>15</v>
+      </c>
+      <c r="AZ55">
+        <v>6</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>5</v>
+      </c>
+      <c r="BD55">
+        <v>1.33</v>
+      </c>
+      <c r="BE55">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF55">
+        <v>3.95</v>
+      </c>
+      <c r="BG55">
+        <v>1.33</v>
+      </c>
+      <c r="BH55">
+        <v>3.05</v>
+      </c>
+      <c r="BI55">
+        <v>1.69</v>
+      </c>
+      <c r="BJ55">
+        <v>2.13</v>
+      </c>
+      <c r="BK55">
+        <v>2.14</v>
+      </c>
+      <c r="BL55">
+        <v>1.68</v>
+      </c>
+      <c r="BM55">
+        <v>2.77</v>
+      </c>
+      <c r="BN55">
+        <v>1.39</v>
+      </c>
+      <c r="BO55">
+        <v>3.7</v>
+      </c>
+      <c r="BP55">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -445,10 +445,10 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['61', '90+2']</t>
-  </si>
-  <si>
-    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -11336,7 +11336,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45569.875</v>
+        <v>45570.63541666666</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -11462,22 +11462,22 @@
         <v>2.96</v>
       </c>
       <c r="AU52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ52">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11542,7 +11542,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45571.41666666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -11668,19 +11668,19 @@
         <v>2.62</v>
       </c>
       <c r="AU53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV53">
         <v>5</v>
       </c>
       <c r="AW53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX53">
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ53">
         <v>8</v>
@@ -11739,7 +11739,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7483728</v>
+        <v>7483725</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11748,76 +11748,76 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45571.52083333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F54">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="P54" t="s">
         <v>143</v>
       </c>
       <c r="Q54">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="R54">
         <v>2.2</v>
       </c>
       <c r="S54">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T54">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U54">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="V54">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W54">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X54">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y54">
         <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AA54">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AB54">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC54">
         <v>1.02</v>
@@ -11832,112 +11832,112 @@
         <v>3.8</v>
       </c>
       <c r="AG54">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AH54">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AI54">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.14</v>
+      </c>
+      <c r="AL54">
+        <v>1.22</v>
+      </c>
+      <c r="AM54">
+        <v>2.09</v>
+      </c>
+      <c r="AN54">
         <v>2.2</v>
       </c>
-      <c r="AK54">
-        <v>1.27</v>
-      </c>
-      <c r="AL54">
-        <v>1.25</v>
-      </c>
-      <c r="AM54">
-        <v>1.72</v>
-      </c>
-      <c r="AN54">
-        <v>2.33</v>
-      </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>1.92</v>
+      </c>
+      <c r="AS54">
+        <v>1.43</v>
+      </c>
+      <c r="AT54">
+        <v>3.35</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>5</v>
+      </c>
+      <c r="BA54">
+        <v>5</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>5</v>
+      </c>
+      <c r="BD54">
         <v>1.33</v>
       </c>
-      <c r="AR54">
-        <v>1.59</v>
-      </c>
-      <c r="AS54">
-        <v>1.57</v>
-      </c>
-      <c r="AT54">
-        <v>3.16</v>
-      </c>
-      <c r="AU54">
-        <v>2</v>
-      </c>
-      <c r="AV54">
-        <v>9</v>
-      </c>
-      <c r="AW54">
-        <v>4</v>
-      </c>
-      <c r="AX54">
-        <v>9</v>
-      </c>
-      <c r="AY54">
-        <v>6</v>
-      </c>
-      <c r="AZ54">
-        <v>18</v>
-      </c>
-      <c r="BA54">
-        <v>4</v>
-      </c>
-      <c r="BB54">
-        <v>10</v>
-      </c>
-      <c r="BC54">
-        <v>14</v>
-      </c>
-      <c r="BD54">
-        <v>1.65</v>
-      </c>
       <c r="BE54">
-        <v>6.85</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF54">
-        <v>2.73</v>
+        <v>3.95</v>
       </c>
       <c r="BG54">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BH54">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BI54">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="BJ54">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="BK54">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="BL54">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BM54">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="BN54">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="BO54">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BP54">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11945,7 +11945,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7483725</v>
+        <v>7483728</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -11954,76 +11954,76 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45571.63541666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F55">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="P55" t="s">
         <v>144</v>
       </c>
       <c r="Q55">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="R55">
         <v>2.2</v>
       </c>
       <c r="S55">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T55">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U55">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="V55">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="W55">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X55">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y55">
         <v>1.1</v>
       </c>
       <c r="Z55">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="AA55">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AB55">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AC55">
         <v>1.02</v>
@@ -12038,112 +12038,112 @@
         <v>3.8</v>
       </c>
       <c r="AG55">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AH55">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AI55">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ55">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK55">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AL55">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM55">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="AN55">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.59</v>
+      </c>
+      <c r="AS55">
+        <v>1.57</v>
+      </c>
+      <c r="AT55">
+        <v>3.16</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>6</v>
+      </c>
+      <c r="AY55">
+        <v>6</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
+        <v>4</v>
+      </c>
+      <c r="BB55">
+        <v>10</v>
+      </c>
+      <c r="BC55">
+        <v>14</v>
+      </c>
+      <c r="BD55">
+        <v>1.65</v>
+      </c>
+      <c r="BE55">
+        <v>6.85</v>
+      </c>
+      <c r="BF55">
+        <v>2.73</v>
+      </c>
+      <c r="BG55">
+        <v>1.32</v>
+      </c>
+      <c r="BH55">
+        <v>3.1</v>
+      </c>
+      <c r="BI55">
+        <v>1.6</v>
+      </c>
+      <c r="BJ55">
+        <v>2.28</v>
+      </c>
+      <c r="BK55">
+        <v>1.99</v>
+      </c>
+      <c r="BL55">
         <v>1.8</v>
       </c>
-      <c r="AP55">
-        <v>1.83</v>
-      </c>
-      <c r="AQ55">
-        <v>2</v>
-      </c>
-      <c r="AR55">
-        <v>1.92</v>
-      </c>
-      <c r="AS55">
-        <v>1.43</v>
-      </c>
-      <c r="AT55">
-        <v>3.35</v>
-      </c>
-      <c r="AU55">
-        <v>6</v>
-      </c>
-      <c r="AV55">
-        <v>5</v>
-      </c>
-      <c r="AW55">
-        <v>6</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>15</v>
-      </c>
-      <c r="AZ55">
-        <v>6</v>
-      </c>
-      <c r="BA55">
-        <v>5</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>5</v>
-      </c>
-      <c r="BD55">
-        <v>1.33</v>
-      </c>
-      <c r="BE55">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF55">
-        <v>3.95</v>
-      </c>
-      <c r="BG55">
-        <v>1.33</v>
-      </c>
-      <c r="BH55">
-        <v>3.05</v>
-      </c>
-      <c r="BI55">
-        <v>1.69</v>
-      </c>
-      <c r="BJ55">
-        <v>2.13</v>
-      </c>
-      <c r="BK55">
-        <v>2.14</v>
-      </c>
-      <c r="BL55">
-        <v>1.68</v>
-      </c>
       <c r="BM55">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="BN55">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="BO55">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP55">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -445,10 +445,10 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['61', '90+2']</t>
+  </si>
+  <si>
     <t>['16']</t>
-  </si>
-  <si>
-    <t>['61', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -11542,7 +11542,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45570.875</v>
+        <v>45571.41666666666</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -11739,7 +11739,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7483725</v>
+        <v>7483728</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11748,76 +11748,76 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45570.875</v>
+        <v>45571.52083333334</v>
       </c>
       <c r="F54">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="P54" t="s">
         <v>143</v>
       </c>
       <c r="Q54">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="R54">
         <v>2.2</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T54">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U54">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="V54">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="W54">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X54">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y54">
         <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="AA54">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AB54">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AC54">
         <v>1.02</v>
@@ -11832,112 +11832,112 @@
         <v>3.8</v>
       </c>
       <c r="AG54">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AH54">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AI54">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK54">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AL54">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM54">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="AN54">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.59</v>
+      </c>
+      <c r="AS54">
+        <v>1.57</v>
+      </c>
+      <c r="AT54">
+        <v>3.16</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>7</v>
+      </c>
+      <c r="AW54">
+        <v>2</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>6</v>
+      </c>
+      <c r="AZ54">
+        <v>13</v>
+      </c>
+      <c r="BA54">
+        <v>4</v>
+      </c>
+      <c r="BB54">
+        <v>10</v>
+      </c>
+      <c r="BC54">
+        <v>14</v>
+      </c>
+      <c r="BD54">
+        <v>1.65</v>
+      </c>
+      <c r="BE54">
+        <v>6.85</v>
+      </c>
+      <c r="BF54">
+        <v>2.73</v>
+      </c>
+      <c r="BG54">
+        <v>1.32</v>
+      </c>
+      <c r="BH54">
+        <v>3.1</v>
+      </c>
+      <c r="BI54">
+        <v>1.6</v>
+      </c>
+      <c r="BJ54">
+        <v>2.28</v>
+      </c>
+      <c r="BK54">
+        <v>1.99</v>
+      </c>
+      <c r="BL54">
         <v>1.8</v>
       </c>
-      <c r="AP54">
-        <v>1.83</v>
-      </c>
-      <c r="AQ54">
-        <v>2</v>
-      </c>
-      <c r="AR54">
-        <v>1.92</v>
-      </c>
-      <c r="AS54">
-        <v>1.43</v>
-      </c>
-      <c r="AT54">
-        <v>3.35</v>
-      </c>
-      <c r="AU54">
-        <v>6</v>
-      </c>
-      <c r="AV54">
-        <v>4</v>
-      </c>
-      <c r="AW54">
-        <v>6</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>12</v>
-      </c>
-      <c r="AZ54">
-        <v>5</v>
-      </c>
-      <c r="BA54">
-        <v>5</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>5</v>
-      </c>
-      <c r="BD54">
-        <v>1.33</v>
-      </c>
-      <c r="BE54">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF54">
-        <v>3.95</v>
-      </c>
-      <c r="BG54">
-        <v>1.33</v>
-      </c>
-      <c r="BH54">
-        <v>3.05</v>
-      </c>
-      <c r="BI54">
-        <v>1.69</v>
-      </c>
-      <c r="BJ54">
-        <v>2.13</v>
-      </c>
-      <c r="BK54">
-        <v>2.14</v>
-      </c>
-      <c r="BL54">
-        <v>1.68</v>
-      </c>
       <c r="BM54">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="BN54">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="BO54">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP54">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11945,7 +11945,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7483728</v>
+        <v>7483725</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -11954,76 +11954,76 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45570.875</v>
+        <v>45571.63541666666</v>
       </c>
       <c r="F55">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="P55" t="s">
         <v>144</v>
       </c>
       <c r="Q55">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="R55">
         <v>2.2</v>
       </c>
       <c r="S55">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T55">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U55">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="V55">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W55">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X55">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y55">
         <v>1.1</v>
       </c>
       <c r="Z55">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AA55">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AB55">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC55">
         <v>1.02</v>
@@ -12038,112 +12038,112 @@
         <v>3.8</v>
       </c>
       <c r="AG55">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AH55">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AI55">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.14</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>2.09</v>
+      </c>
+      <c r="AN55">
         <v>2.2</v>
       </c>
-      <c r="AK55">
-        <v>1.27</v>
-      </c>
-      <c r="AL55">
-        <v>1.25</v>
-      </c>
-      <c r="AM55">
-        <v>1.72</v>
-      </c>
-      <c r="AN55">
-        <v>2.33</v>
-      </c>
       <c r="AO55">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>1.92</v>
+      </c>
+      <c r="AS55">
+        <v>1.43</v>
+      </c>
+      <c r="AT55">
+        <v>3.35</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>6</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>5</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>5</v>
+      </c>
+      <c r="BD55">
         <v>1.33</v>
       </c>
-      <c r="AR55">
-        <v>1.59</v>
-      </c>
-      <c r="AS55">
-        <v>1.57</v>
-      </c>
-      <c r="AT55">
-        <v>3.16</v>
-      </c>
-      <c r="AU55">
-        <v>4</v>
-      </c>
-      <c r="AV55">
-        <v>7</v>
-      </c>
-      <c r="AW55">
-        <v>2</v>
-      </c>
-      <c r="AX55">
-        <v>6</v>
-      </c>
-      <c r="AY55">
-        <v>6</v>
-      </c>
-      <c r="AZ55">
-        <v>13</v>
-      </c>
-      <c r="BA55">
-        <v>4</v>
-      </c>
-      <c r="BB55">
-        <v>10</v>
-      </c>
-      <c r="BC55">
-        <v>14</v>
-      </c>
-      <c r="BD55">
-        <v>1.65</v>
-      </c>
       <c r="BE55">
-        <v>6.85</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF55">
-        <v>2.73</v>
+        <v>3.95</v>
       </c>
       <c r="BG55">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BH55">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BI55">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="BJ55">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="BK55">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="BL55">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BM55">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="BN55">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="BO55">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BP55">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2180,7 +2183,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -4446,7 +4449,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -5061,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -6094,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -10211,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>2.2</v>
@@ -10832,7 +10835,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11653,7 +11656,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12144,6 +12147,212 @@
       </c>
       <c r="BP55">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7483715</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45577.33333333334</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.5</v>
+      </c>
+      <c r="AA56">
+        <v>3.25</v>
+      </c>
+      <c r="AB56">
+        <v>2.45</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1.91</v>
+      </c>
+      <c r="AH56">
+        <v>1.75</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1.2</v>
+      </c>
+      <c r="AQ56">
+        <v>0.6</v>
+      </c>
+      <c r="AR56">
+        <v>1.1</v>
+      </c>
+      <c r="AS56">
+        <v>1.24</v>
+      </c>
+      <c r="AT56">
+        <v>2.34</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>4</v>
+      </c>
+      <c r="AZ56">
+        <v>5</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -12289,31 +12289,31 @@
         <v>2.34</v>
       </c>
       <c r="AU56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
         <v>3</v>
       </c>
-      <c r="AW56">
-        <v>2</v>
-      </c>
       <c r="AX56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ56">
+        <v>7</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
         <v>5</v>
       </c>
-      <c r="BA56">
-        <v>1</v>
-      </c>
-      <c r="BB56">
-        <v>3</v>
-      </c>
       <c r="BC56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD56">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['63', '69', '75', '80']</t>
+  </si>
+  <si>
+    <t>['27', '82', '90+3']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -452,6 +458,18 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['8', '48', '86']</t>
+  </si>
+  <si>
+    <t>['6', '9', '41', '46']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['23', '31', '38', '60']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1171,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1278,7 +1296,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1690,7 +1708,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1974,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2102,7 +2120,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2180,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2308,7 +2326,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2386,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2514,7 +2532,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2592,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2798,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3132,7 +3150,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3956,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4034,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4240,10 +4258,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4368,7 +4386,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4446,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -4574,7 +4592,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4655,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -4858,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -4986,7 +5004,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5192,7 +5210,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5476,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5604,7 +5622,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5685,7 +5703,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5810,7 +5828,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6097,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6222,7 +6240,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6300,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6428,7 +6446,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6509,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6634,7 +6652,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6712,10 +6730,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6918,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7046,7 +7064,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7124,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7252,7 +7270,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7458,7 +7476,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7539,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -7745,7 +7763,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -7948,7 +7966,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8157,7 +8175,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8282,7 +8300,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8363,7 +8381,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8566,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -8694,7 +8712,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8772,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9106,7 +9124,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -9184,10 +9202,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9312,7 +9330,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9596,10 +9614,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -9724,7 +9742,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9802,10 +9820,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9930,7 +9948,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10008,7 +10026,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10136,7 +10154,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10217,7 +10235,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
         <v>1.05</v>
@@ -10420,10 +10438,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10548,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10626,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -10832,10 +10850,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -10960,7 +10978,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11038,10 +11056,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11372,7 +11390,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11784,7 +11802,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11990,7 +12008,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12196,7 +12214,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12277,7 +12295,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12353,6 +12371,1036 @@
       </c>
       <c r="BP56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7483730</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45584.41666666666</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>7</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q57">
+        <v>1.95</v>
+      </c>
+      <c r="R57">
+        <v>2.3</v>
+      </c>
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.63</v>
+      </c>
+      <c r="W57">
+        <v>1.44</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
+        <v>1.42</v>
+      </c>
+      <c r="AA57">
+        <v>4.2</v>
+      </c>
+      <c r="AB57">
+        <v>5.5</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57">
+        <v>1.22</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1.7</v>
+      </c>
+      <c r="AH57">
+        <v>2</v>
+      </c>
+      <c r="AI57">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57">
+        <v>1.83</v>
+      </c>
+      <c r="AK57">
+        <v>1.08</v>
+      </c>
+      <c r="AL57">
+        <v>1.16</v>
+      </c>
+      <c r="AM57">
+        <v>2.55</v>
+      </c>
+      <c r="AN57">
+        <v>2.4</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>2.5</v>
+      </c>
+      <c r="AQ57">
+        <v>0.83</v>
+      </c>
+      <c r="AR57">
+        <v>2.09</v>
+      </c>
+      <c r="AS57">
+        <v>1.32</v>
+      </c>
+      <c r="AT57">
+        <v>3.41</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>9</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7483732</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45584.52083333334</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q58">
+        <v>8</v>
+      </c>
+      <c r="R58">
+        <v>2.5</v>
+      </c>
+      <c r="S58">
+        <v>1.73</v>
+      </c>
+      <c r="T58">
+        <v>1.3</v>
+      </c>
+      <c r="U58">
+        <v>3.4</v>
+      </c>
+      <c r="V58">
+        <v>2.38</v>
+      </c>
+      <c r="W58">
+        <v>1.53</v>
+      </c>
+      <c r="X58">
+        <v>5.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.13</v>
+      </c>
+      <c r="Z58">
+        <v>7.3</v>
+      </c>
+      <c r="AA58">
+        <v>4.8</v>
+      </c>
+      <c r="AB58">
+        <v>1.25</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>2.32</v>
+      </c>
+      <c r="AF58">
+        <v>1.59</v>
+      </c>
+      <c r="AG58">
+        <v>1.61</v>
+      </c>
+      <c r="AH58">
+        <v>2.15</v>
+      </c>
+      <c r="AI58">
+        <v>2.1</v>
+      </c>
+      <c r="AJ58">
+        <v>1.67</v>
+      </c>
+      <c r="AK58">
+        <v>3.4</v>
+      </c>
+      <c r="AL58">
+        <v>1.11</v>
+      </c>
+      <c r="AM58">
+        <v>1.01</v>
+      </c>
+      <c r="AN58">
+        <v>1.4</v>
+      </c>
+      <c r="AO58">
+        <v>2.2</v>
+      </c>
+      <c r="AP58">
+        <v>1.17</v>
+      </c>
+      <c r="AQ58">
+        <v>2.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.46</v>
+      </c>
+      <c r="AS58">
+        <v>1.7</v>
+      </c>
+      <c r="AT58">
+        <v>3.16</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
+        <v>14</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>6</v>
+      </c>
+      <c r="BD58">
+        <v>6.35</v>
+      </c>
+      <c r="BE58">
+        <v>11.75</v>
+      </c>
+      <c r="BF58">
+        <v>1.14</v>
+      </c>
+      <c r="BG58">
+        <v>1.23</v>
+      </c>
+      <c r="BH58">
+        <v>3.8</v>
+      </c>
+      <c r="BI58">
+        <v>1.35</v>
+      </c>
+      <c r="BJ58">
+        <v>2.65</v>
+      </c>
+      <c r="BK58">
+        <v>1.66</v>
+      </c>
+      <c r="BL58">
+        <v>2.04</v>
+      </c>
+      <c r="BM58">
+        <v>2.03</v>
+      </c>
+      <c r="BN58">
+        <v>1.6</v>
+      </c>
+      <c r="BO58">
+        <v>2.7</v>
+      </c>
+      <c r="BP58">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7483733</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45584.63541666666</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P59" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1.57</v>
+      </c>
+      <c r="AA59">
+        <v>3.7</v>
+      </c>
+      <c r="AB59">
+        <v>5.33</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1.9</v>
+      </c>
+      <c r="AH59">
+        <v>1.8</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1.6</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.33</v>
+      </c>
+      <c r="AQ59">
+        <v>1.29</v>
+      </c>
+      <c r="AR59">
+        <v>1.36</v>
+      </c>
+      <c r="AS59">
+        <v>1.17</v>
+      </c>
+      <c r="AT59">
+        <v>2.53</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>5</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7483729</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45585.41666666666</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q60">
+        <v>3.6</v>
+      </c>
+      <c r="R60">
+        <v>2.1</v>
+      </c>
+      <c r="S60">
+        <v>2.88</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>1.36</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>3.34</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>2.12</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.3</v>
+      </c>
+      <c r="AF60">
+        <v>3.3</v>
+      </c>
+      <c r="AG60">
+        <v>1.95</v>
+      </c>
+      <c r="AH60">
+        <v>1.85</v>
+      </c>
+      <c r="AI60">
+        <v>1.73</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.5</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.44</v>
+      </c>
+      <c r="AN60">
+        <v>2.6</v>
+      </c>
+      <c r="AO60">
+        <v>1.75</v>
+      </c>
+      <c r="AP60">
+        <v>2.17</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>1.4</v>
+      </c>
+      <c r="AS60">
+        <v>1.82</v>
+      </c>
+      <c r="AT60">
+        <v>3.22</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>7</v>
+      </c>
+      <c r="BD60">
+        <v>2.11</v>
+      </c>
+      <c r="BE60">
+        <v>7.8</v>
+      </c>
+      <c r="BF60">
+        <v>1.94</v>
+      </c>
+      <c r="BG60">
+        <v>1.35</v>
+      </c>
+      <c r="BH60">
+        <v>2.9</v>
+      </c>
+      <c r="BI60">
+        <v>1.56</v>
+      </c>
+      <c r="BJ60">
+        <v>2.1</v>
+      </c>
+      <c r="BK60">
+        <v>2.01</v>
+      </c>
+      <c r="BL60">
+        <v>1.68</v>
+      </c>
+      <c r="BM60">
+        <v>2.6</v>
+      </c>
+      <c r="BN60">
+        <v>1.36</v>
+      </c>
+      <c r="BO60">
+        <v>3.4</v>
+      </c>
+      <c r="BP60">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7483731</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45585.52083333334</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q61">
+        <v>3.2</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>3.4</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>2.5</v>
+      </c>
+      <c r="V61">
+        <v>3.4</v>
+      </c>
+      <c r="W61">
+        <v>1.3</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>2.45</v>
+      </c>
+      <c r="AA61">
+        <v>3</v>
+      </c>
+      <c r="AB61">
+        <v>2.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.08</v>
+      </c>
+      <c r="AD61">
+        <v>7</v>
+      </c>
+      <c r="AE61">
+        <v>1.4</v>
+      </c>
+      <c r="AF61">
+        <v>2.8</v>
+      </c>
+      <c r="AG61">
+        <v>2.15</v>
+      </c>
+      <c r="AH61">
+        <v>1.61</v>
+      </c>
+      <c r="AI61">
+        <v>1.91</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.38</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.53</v>
+      </c>
+      <c r="AN61">
+        <v>0.2</v>
+      </c>
+      <c r="AO61">
+        <v>0.6</v>
+      </c>
+      <c r="AP61">
+        <v>0.17</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.2</v>
+      </c>
+      <c r="AS61">
+        <v>1.23</v>
+      </c>
+      <c r="AT61">
+        <v>2.43</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>6</v>
+      </c>
+      <c r="AX61">
+        <v>9</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>16</v>
+      </c>
+      <c r="BA61">
+        <v>8</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>1.99</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.04</v>
+      </c>
+      <c r="BG61">
+        <v>1.27</v>
+      </c>
+      <c r="BH61">
+        <v>3.4</v>
+      </c>
+      <c r="BI61">
+        <v>1.41</v>
+      </c>
+      <c r="BJ61">
+        <v>2.45</v>
+      </c>
+      <c r="BK61">
+        <v>1.76</v>
+      </c>
+      <c r="BL61">
+        <v>1.91</v>
+      </c>
+      <c r="BM61">
+        <v>2.2</v>
+      </c>
+      <c r="BN61">
+        <v>1.51</v>
+      </c>
+      <c r="BO61">
+        <v>2.9</v>
+      </c>
+      <c r="BP61">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -13005,7 +13005,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45585.41666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45585.52083333334</v>
+        <v>45584.875</v>
       </c>
       <c r="F61">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -13005,7 +13005,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45584.875</v>
+        <v>45585.41666666666</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -13131,22 +13131,22 @@
         <v>3.22</v>
       </c>
       <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
         <v>6</v>
       </c>
-      <c r="AV60">
-        <v>5</v>
-      </c>
       <c r="AW60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA60">
         <v>3</v>
@@ -13211,7 +13211,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45584.875</v>
+        <v>45585.52083333334</v>
       </c>
       <c r="F61">
         <v>12</v>
@@ -13337,22 +13337,22 @@
         <v>2.43</v>
       </c>
       <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
         <v>4</v>
       </c>
-      <c r="AV61">
-        <v>7</v>
-      </c>
       <c r="AW61">
+        <v>1</v>
+      </c>
+      <c r="AX61">
         <v>6</v>
       </c>
-      <c r="AX61">
-        <v>9</v>
-      </c>
       <c r="AY61">
+        <v>4</v>
+      </c>
+      <c r="AZ61">
         <v>10</v>
-      </c>
-      <c r="AZ61">
-        <v>16</v>
       </c>
       <c r="BA61">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['27', '82', '90+3']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -427,9 +430,6 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['23', '31', '38', '60']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1296,7 +1299,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1583,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1708,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2120,7 +2123,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2326,7 +2329,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2532,7 +2535,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3150,7 +3153,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3228,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3849,7 +3852,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -3974,7 +3977,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4386,7 +4389,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4592,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -5004,7 +5007,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5082,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5210,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5497,7 +5500,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -5622,7 +5625,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5828,7 +5831,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6240,7 +6243,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6446,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -6652,7 +6655,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6939,7 +6942,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7064,7 +7067,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7270,7 +7273,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7476,7 +7479,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8300,7 +8303,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8712,7 +8715,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8793,7 +8796,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9124,7 +9127,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="Q41">
         <v>2.8</v>
@@ -10232,7 +10235,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>2.33</v>
@@ -11265,7 +11268,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11674,7 +11677,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12292,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12626,7 +12629,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13401,6 +13404,212 @@
       </c>
       <c r="BP61">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7483735</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45591.41666666666</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>117</v>
+      </c>
+      <c r="P62" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1.98</v>
+      </c>
+      <c r="AA62">
+        <v>3.4</v>
+      </c>
+      <c r="AB62">
+        <v>3.4</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>1.85</v>
+      </c>
+      <c r="AH62">
+        <v>1.83</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1.2</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>1.17</v>
+      </c>
+      <c r="AQ62">
+        <v>0.14</v>
+      </c>
+      <c r="AR62">
+        <v>1.13</v>
+      </c>
+      <c r="AS62">
+        <v>1.33</v>
+      </c>
+      <c r="AT62">
+        <v>2.46</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>4</v>
+      </c>
+      <c r="AZ62">
+        <v>4</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -407,9 +410,6 @@
   </si>
   <si>
     <t>['43', '51', '61']</t>
-  </si>
-  <si>
-    <t>['35']</t>
   </si>
   <si>
     <t>['14', '36', '40']</t>
@@ -834,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,7 +1299,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>0.14</v>
@@ -1711,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2123,7 +2123,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2329,7 +2329,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2535,7 +2535,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3153,7 +3153,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3977,7 +3977,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4595,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -5007,7 +5007,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5291,7 +5291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5625,7 +5625,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5706,7 +5706,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5831,7 +5831,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6243,7 +6243,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6449,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>2.9</v>
@@ -8175,7 +8175,7 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -9208,7 +9208,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9826,7 +9826,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -11062,7 +11062,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11471,7 +11471,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12629,7 +12629,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13122,7 +13122,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13610,6 +13610,212 @@
       </c>
       <c r="BP62">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7483738</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45591.63541666666</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q63">
+        <v>4.3</v>
+      </c>
+      <c r="R63">
+        <v>2.18</v>
+      </c>
+      <c r="S63">
+        <v>2.35</v>
+      </c>
+      <c r="T63">
+        <v>1.35</v>
+      </c>
+      <c r="U63">
+        <v>3.04</v>
+      </c>
+      <c r="V63">
+        <v>2.65</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.09</v>
+      </c>
+      <c r="Z63">
+        <v>3.7</v>
+      </c>
+      <c r="AA63">
+        <v>3.5</v>
+      </c>
+      <c r="AB63">
+        <v>1.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.18</v>
+      </c>
+      <c r="AF63">
+        <v>3.74</v>
+      </c>
+      <c r="AG63">
+        <v>1.73</v>
+      </c>
+      <c r="AH63">
+        <v>1.91</v>
+      </c>
+      <c r="AI63">
+        <v>1.69</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>1.86</v>
+      </c>
+      <c r="AL63">
+        <v>1.24</v>
+      </c>
+      <c r="AM63">
+        <v>1.22</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>1.86</v>
+      </c>
+      <c r="AQ63">
+        <v>1.83</v>
+      </c>
+      <c r="AR63">
+        <v>1.5</v>
+      </c>
+      <c r="AS63">
+        <v>1.72</v>
+      </c>
+      <c r="AT63">
+        <v>3.22</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>9</v>
+      </c>
+      <c r="AY63">
+        <v>5</v>
+      </c>
+      <c r="AZ63">
+        <v>20</v>
+      </c>
+      <c r="BA63">
+        <v>2</v>
+      </c>
+      <c r="BB63">
+        <v>12</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>2.66</v>
+      </c>
+      <c r="BE63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>1.61</v>
+      </c>
+      <c r="BG63">
+        <v>1.33</v>
+      </c>
+      <c r="BH63">
+        <v>3.05</v>
+      </c>
+      <c r="BI63">
+        <v>1.44</v>
+      </c>
+      <c r="BJ63">
+        <v>2.36</v>
+      </c>
+      <c r="BK63">
+        <v>1.82</v>
+      </c>
+      <c r="BL63">
+        <v>1.84</v>
+      </c>
+      <c r="BM63">
+        <v>2.29</v>
+      </c>
+      <c r="BN63">
+        <v>1.47</v>
+      </c>
+      <c r="BO63">
+        <v>3.3</v>
+      </c>
+      <c r="BP63">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,15 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['22', '30', '73']</t>
+  </si>
+  <si>
+    <t>['53', '73', '81', '90+6']</t>
+  </si>
+  <si>
+    <t>['10', '52', '81']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -473,6 +482,12 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['45+2', '76']</t>
+  </si>
+  <si>
+    <t>['8', '65']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1299,7 +1314,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1377,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1711,7 +1726,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1792,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1998,7 +2013,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2123,7 +2138,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2329,7 +2344,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2535,7 +2550,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2613,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>2.33</v>
@@ -3025,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3153,7 +3168,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3440,7 +3455,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3646,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -3849,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.14</v>
@@ -3977,7 +3992,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4389,7 +4404,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4595,7 +4610,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -5007,7 +5022,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5088,7 +5103,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5213,7 +5228,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5294,7 +5309,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5497,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>0.14</v>
@@ -5625,7 +5640,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5703,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24">
         <v>1.83</v>
@@ -5831,7 +5846,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5909,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6243,7 +6258,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6655,7 +6670,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7067,7 +7082,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7148,7 +7163,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7273,7 +7288,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7351,10 +7366,10 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7479,7 +7494,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7763,7 +7778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.83</v>
@@ -7969,10 +7984,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8303,7 +8318,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8381,7 +8396,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>2.33</v>
@@ -8590,7 +8605,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -8715,7 +8730,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9333,7 +9348,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9411,10 +9426,10 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -9617,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43">
         <v>0.83</v>
@@ -9745,7 +9760,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9951,7 +9966,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10032,7 +10047,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10157,7 +10172,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10569,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10650,7 +10665,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -10853,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -10981,7 +10996,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11265,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>0.14</v>
@@ -11393,7 +11408,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11474,7 +11489,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11680,7 +11695,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -11805,7 +11820,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11886,7 +11901,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12011,7 +12026,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12089,7 +12104,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12217,7 +12232,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12423,7 +12438,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12629,7 +12644,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12835,7 +12850,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -12913,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -13041,7 +13056,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13247,7 +13262,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13423,7 +13438,7 @@
         <v>45591.41666666666</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
         <v>79</v>
@@ -13453,7 +13468,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13546,31 +13561,31 @@
         <v>2.46</v>
       </c>
       <c r="AU62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
         <v>4</v>
       </c>
-      <c r="AX62">
-        <v>1</v>
-      </c>
       <c r="AY62">
+        <v>7</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
         <v>4</v>
       </c>
-      <c r="AZ62">
-        <v>4</v>
-      </c>
-      <c r="BA62">
-        <v>2</v>
-      </c>
       <c r="BB62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD62">
         <v>0</v>
@@ -13659,7 +13674,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13816,6 +13831,624 @@
       </c>
       <c r="BP63">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7483734</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45592.47916666666</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>3.6</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.31</v>
+      </c>
+      <c r="AA64">
+        <v>3.11</v>
+      </c>
+      <c r="AB64">
+        <v>3.12</v>
+      </c>
+      <c r="AC64">
+        <v>1.07</v>
+      </c>
+      <c r="AD64">
+        <v>7.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.4</v>
+      </c>
+      <c r="AF64">
+        <v>2.93</v>
+      </c>
+      <c r="AG64">
+        <v>2.28</v>
+      </c>
+      <c r="AH64">
+        <v>1.58</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>1.34</v>
+      </c>
+      <c r="AL64">
+        <v>1.39</v>
+      </c>
+      <c r="AM64">
+        <v>1.56</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1.57</v>
+      </c>
+      <c r="AQ64">
+        <v>0.86</v>
+      </c>
+      <c r="AR64">
+        <v>1.37</v>
+      </c>
+      <c r="AS64">
+        <v>1.54</v>
+      </c>
+      <c r="AT64">
+        <v>2.91</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
+        <v>12</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>15</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>9</v>
+      </c>
+      <c r="BD64">
+        <v>1.83</v>
+      </c>
+      <c r="BE64">
+        <v>6.1</v>
+      </c>
+      <c r="BF64">
+        <v>2.45</v>
+      </c>
+      <c r="BG64">
+        <v>1.36</v>
+      </c>
+      <c r="BH64">
+        <v>2.61</v>
+      </c>
+      <c r="BI64">
+        <v>1.74</v>
+      </c>
+      <c r="BJ64">
+        <v>2.04</v>
+      </c>
+      <c r="BK64">
+        <v>2.19</v>
+      </c>
+      <c r="BL64">
+        <v>1.64</v>
+      </c>
+      <c r="BM64">
+        <v>2.9</v>
+      </c>
+      <c r="BN64">
+        <v>1.36</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7483737</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45592.5625</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>120</v>
+      </c>
+      <c r="P65" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>2.3</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>6.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>1.99</v>
+      </c>
+      <c r="AA65">
+        <v>7.83</v>
+      </c>
+      <c r="AB65">
+        <v>2.08</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>1.25</v>
+      </c>
+      <c r="AF65">
+        <v>3.6</v>
+      </c>
+      <c r="AG65">
+        <v>1.79</v>
+      </c>
+      <c r="AH65">
+        <v>1.89</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>2.05</v>
+      </c>
+      <c r="AL65">
+        <v>1.2</v>
+      </c>
+      <c r="AM65">
+        <v>1.16</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>1.33</v>
+      </c>
+      <c r="AP65">
+        <v>1.57</v>
+      </c>
+      <c r="AQ65">
+        <v>1.14</v>
+      </c>
+      <c r="AR65">
+        <v>1.42</v>
+      </c>
+      <c r="AS65">
+        <v>1.63</v>
+      </c>
+      <c r="AT65">
+        <v>3.05</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>13</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>5</v>
+      </c>
+      <c r="BD65">
+        <v>2.98</v>
+      </c>
+      <c r="BE65">
+        <v>8.6</v>
+      </c>
+      <c r="BF65">
+        <v>1.5</v>
+      </c>
+      <c r="BG65">
+        <v>1.23</v>
+      </c>
+      <c r="BH65">
+        <v>3.68</v>
+      </c>
+      <c r="BI65">
+        <v>1.38</v>
+      </c>
+      <c r="BJ65">
+        <v>2.54</v>
+      </c>
+      <c r="BK65">
+        <v>1.74</v>
+      </c>
+      <c r="BL65">
+        <v>2.07</v>
+      </c>
+      <c r="BM65">
+        <v>2.15</v>
+      </c>
+      <c r="BN65">
+        <v>1.68</v>
+      </c>
+      <c r="BO65">
+        <v>2.77</v>
+      </c>
+      <c r="BP65">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7483736</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45592.67708333334</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q66">
+        <v>1.73</v>
+      </c>
+      <c r="R66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
+        <v>8</v>
+      </c>
+      <c r="T66">
+        <v>1.3</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.38</v>
+      </c>
+      <c r="W66">
+        <v>1.53</v>
+      </c>
+      <c r="X66">
+        <v>5.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>1.27</v>
+      </c>
+      <c r="AA66">
+        <v>5.66</v>
+      </c>
+      <c r="AB66">
+        <v>10.17</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1.58</v>
+      </c>
+      <c r="AH66">
+        <v>2.23</v>
+      </c>
+      <c r="AI66">
+        <v>2.2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.62</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1.83</v>
+      </c>
+      <c r="AO66">
+        <v>0.67</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>0.57</v>
+      </c>
+      <c r="AR66">
+        <v>1.87</v>
+      </c>
+      <c r="AS66">
+        <v>1.34</v>
+      </c>
+      <c r="AT66">
+        <v>3.21</v>
+      </c>
+      <c r="AU66">
+        <v>10</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>3</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14056,7 +14056,7 @@
         <v>45592.5625</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,12 @@
     <t>['10', '52', '81']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['37', '55']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -430,9 +436,6 @@
     <t>['15']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['53', '76']</t>
   </si>
   <si>
@@ -488,6 +491,12 @@
   </si>
   <si>
     <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['11', '16']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1314,7 +1323,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1395,7 +1404,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1726,7 +1735,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>0.57</v>
@@ -2010,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>0.86</v>
@@ -2138,7 +2147,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2216,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2344,7 +2353,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2422,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2550,7 +2559,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2631,7 +2640,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2834,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3168,7 +3177,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3249,7 +3258,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3658,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -3992,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4070,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4276,10 +4285,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4404,7 +4413,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4482,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -4610,7 +4619,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4688,10 +4697,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -4894,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5022,7 +5031,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5228,7 +5237,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5640,7 +5649,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5846,7 +5855,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6133,7 +6142,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6258,7 +6267,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6336,10 +6345,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6542,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6670,7 +6679,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6748,10 +6757,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6954,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>0.14</v>
@@ -7082,7 +7091,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7160,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -7288,7 +7297,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7494,7 +7503,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7572,10 +7581,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -7781,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -8193,7 +8202,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8318,7 +8327,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8399,7 +8408,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8602,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>0.57</v>
@@ -8730,7 +8739,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8808,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>0.14</v>
@@ -9014,10 +9023,10 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9220,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -9348,7 +9357,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9635,7 +9644,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -9760,7 +9769,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9838,7 +9847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -9966,7 +9975,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10044,7 +10053,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ45">
         <v>1.14</v>
@@ -10172,7 +10181,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10253,7 +10262,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR46">
         <v>1.05</v>
@@ -10456,10 +10465,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10584,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10662,7 +10671,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48">
         <v>1.14</v>
@@ -10871,7 +10880,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -10996,7 +11005,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11074,7 +11083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11408,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11820,7 +11829,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11898,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
         <v>1.14</v>
@@ -12026,7 +12035,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12107,7 +12116,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12232,7 +12241,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12313,7 +12322,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12438,7 +12447,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12516,10 +12525,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -12644,7 +12653,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12722,10 +12731,10 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -12850,7 +12859,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -12931,7 +12940,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13056,7 +13065,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13134,7 +13143,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60">
         <v>1.83</v>
@@ -13262,7 +13271,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13340,10 +13349,10 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13468,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13674,7 +13683,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13880,7 +13889,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14086,7 +14095,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14448,6 +14457,1036 @@
         <v>0</v>
       </c>
       <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7483742</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45598.45833333334</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2.27</v>
+      </c>
+      <c r="AA67">
+        <v>3.15</v>
+      </c>
+      <c r="AB67">
+        <v>2.83</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1.91</v>
+      </c>
+      <c r="AH67">
+        <v>1.8</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0.17</v>
+      </c>
+      <c r="AO67">
+        <v>1.29</v>
+      </c>
+      <c r="AP67">
+        <v>0.29</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.12</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.26</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>6</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7483740</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45598.5625</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q68">
+        <v>1.91</v>
+      </c>
+      <c r="R68">
+        <v>2.38</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>1.33</v>
+      </c>
+      <c r="U68">
+        <v>3.25</v>
+      </c>
+      <c r="V68">
+        <v>2.5</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>5.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.44</v>
+      </c>
+      <c r="AA68">
+        <v>4.13</v>
+      </c>
+      <c r="AB68">
+        <v>5.7</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>8.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.3</v>
+      </c>
+      <c r="AF68">
+        <v>3.3</v>
+      </c>
+      <c r="AG68">
+        <v>1.69</v>
+      </c>
+      <c r="AH68">
+        <v>2.05</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.08</v>
+      </c>
+      <c r="AL68">
+        <v>1.17</v>
+      </c>
+      <c r="AM68">
+        <v>2.55</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>2.13</v>
+      </c>
+      <c r="AQ68">
+        <v>0.86</v>
+      </c>
+      <c r="AR68">
+        <v>1.5</v>
+      </c>
+      <c r="AS68">
+        <v>1.24</v>
+      </c>
+      <c r="AT68">
+        <v>2.74</v>
+      </c>
+      <c r="AU68">
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>10</v>
+      </c>
+      <c r="AX68">
+        <v>10</v>
+      </c>
+      <c r="AY68">
+        <v>21</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>5</v>
+      </c>
+      <c r="BD68">
+        <v>1.32</v>
+      </c>
+      <c r="BE68">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF68">
+        <v>3.98</v>
+      </c>
+      <c r="BG68">
+        <v>1.32</v>
+      </c>
+      <c r="BH68">
+        <v>3.1</v>
+      </c>
+      <c r="BI68">
+        <v>1.5</v>
+      </c>
+      <c r="BJ68">
+        <v>2.22</v>
+      </c>
+      <c r="BK68">
+        <v>1.89</v>
+      </c>
+      <c r="BL68">
+        <v>1.77</v>
+      </c>
+      <c r="BM68">
+        <v>2.42</v>
+      </c>
+      <c r="BN68">
+        <v>1.42</v>
+      </c>
+      <c r="BO68">
+        <v>3.2</v>
+      </c>
+      <c r="BP68">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7483743</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P69" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q69">
+        <v>4.75</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>2.4</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>7.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>4.35</v>
+      </c>
+      <c r="AA69">
+        <v>3.56</v>
+      </c>
+      <c r="AB69">
+        <v>1.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>1.73</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.73</v>
+      </c>
+      <c r="AK69">
+        <v>1.95</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.17</v>
+      </c>
+      <c r="AN69">
+        <v>1.17</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>2.14</v>
+      </c>
+      <c r="AR69">
+        <v>1.47</v>
+      </c>
+      <c r="AS69">
+        <v>1.33</v>
+      </c>
+      <c r="AT69">
+        <v>2.8</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>8</v>
+      </c>
+      <c r="BB69">
+        <v>1</v>
+      </c>
+      <c r="BC69">
+        <v>9</v>
+      </c>
+      <c r="BD69">
+        <v>3.32</v>
+      </c>
+      <c r="BE69">
+        <v>6.45</v>
+      </c>
+      <c r="BF69">
+        <v>1.51</v>
+      </c>
+      <c r="BG69">
+        <v>1.4</v>
+      </c>
+      <c r="BH69">
+        <v>2.48</v>
+      </c>
+      <c r="BI69">
+        <v>1.78</v>
+      </c>
+      <c r="BJ69">
+        <v>1.88</v>
+      </c>
+      <c r="BK69">
+        <v>2.26</v>
+      </c>
+      <c r="BL69">
+        <v>1.48</v>
+      </c>
+      <c r="BM69">
+        <v>3</v>
+      </c>
+      <c r="BN69">
+        <v>1.34</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7483739</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45599.375</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>123</v>
+      </c>
+      <c r="P70" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q70">
+        <v>2.5</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>4.5</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>7.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>1.84</v>
+      </c>
+      <c r="AA70">
+        <v>3.4</v>
+      </c>
+      <c r="AB70">
+        <v>4.1</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.36</v>
+      </c>
+      <c r="AF70">
+        <v>3</v>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>1.7</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.18</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.87</v>
+      </c>
+      <c r="AN70">
+        <v>2.17</v>
+      </c>
+      <c r="AO70">
+        <v>0.83</v>
+      </c>
+      <c r="AP70">
+        <v>2.29</v>
+      </c>
+      <c r="AQ70">
+        <v>0.71</v>
+      </c>
+      <c r="AR70">
+        <v>1.38</v>
+      </c>
+      <c r="AS70">
+        <v>1.28</v>
+      </c>
+      <c r="AT70">
+        <v>2.66</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>15</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>9</v>
+      </c>
+      <c r="BD70">
+        <v>1.44</v>
+      </c>
+      <c r="BE70">
+        <v>7.1</v>
+      </c>
+      <c r="BF70">
+        <v>3.52</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>3.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.37</v>
+      </c>
+      <c r="BJ70">
+        <v>2.85</v>
+      </c>
+      <c r="BK70">
+        <v>1.6</v>
+      </c>
+      <c r="BL70">
+        <v>2.03</v>
+      </c>
+      <c r="BM70">
+        <v>2.05</v>
+      </c>
+      <c r="BN70">
+        <v>1.65</v>
+      </c>
+      <c r="BO70">
+        <v>2.61</v>
+      </c>
+      <c r="BP70">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7483741</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45599.45833333334</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>81</v>
+      </c>
+      <c r="P71" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q71">
+        <v>3.2</v>
+      </c>
+      <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>3.25</v>
+      </c>
+      <c r="T71">
+        <v>1.44</v>
+      </c>
+      <c r="U71">
+        <v>2.63</v>
+      </c>
+      <c r="V71">
+        <v>3.25</v>
+      </c>
+      <c r="W71">
+        <v>1.33</v>
+      </c>
+      <c r="X71">
+        <v>7.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>2.6</v>
+      </c>
+      <c r="AA71">
+        <v>3.25</v>
+      </c>
+      <c r="AB71">
+        <v>2.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.06</v>
+      </c>
+      <c r="AD71">
+        <v>8</v>
+      </c>
+      <c r="AE71">
+        <v>1.33</v>
+      </c>
+      <c r="AF71">
+        <v>3.1</v>
+      </c>
+      <c r="AG71">
+        <v>2</v>
+      </c>
+      <c r="AH71">
+        <v>1.71</v>
+      </c>
+      <c r="AI71">
+        <v>1.83</v>
+      </c>
+      <c r="AJ71">
+        <v>1.83</v>
+      </c>
+      <c r="AK71">
+        <v>1.45</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.47</v>
+      </c>
+      <c r="AN71">
+        <v>2.5</v>
+      </c>
+      <c r="AO71">
+        <v>2.33</v>
+      </c>
+      <c r="AP71">
+        <v>2.14</v>
+      </c>
+      <c r="AQ71">
+        <v>2.43</v>
+      </c>
+      <c r="AR71">
+        <v>1.99</v>
+      </c>
+      <c r="AS71">
+        <v>1.72</v>
+      </c>
+      <c r="AT71">
+        <v>3.71</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>12</v>
+      </c>
+      <c r="AX71">
+        <v>3</v>
+      </c>
+      <c r="AY71">
+        <v>17</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>12</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>16</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>1.7</v>
+      </c>
+      <c r="BL71">
+        <v>2.05</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -493,10 +493,10 @@
     <t>['8', '65']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['11', '16']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -14877,7 +14877,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7483743</v>
+        <v>7483739</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14886,49 +14886,49 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45598.875</v>
+        <v>45599.375</v>
       </c>
       <c r="F69">
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Q69">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R69">
         <v>2.05</v>
       </c>
       <c r="S69">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="T69">
         <v>1.44</v>
@@ -14949,13 +14949,13 @@
         <v>1.07</v>
       </c>
       <c r="Z69">
-        <v>4.35</v>
+        <v>1.84</v>
       </c>
       <c r="AA69">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="AB69">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="AC69">
         <v>1.06</v>
@@ -14964,118 +14964,118 @@
         <v>8</v>
       </c>
       <c r="AE69">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG69">
         <v>2</v>
       </c>
       <c r="AH69">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AI69">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ69">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AK69">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="AL69">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>1.17</v>
+        <v>1.87</v>
       </c>
       <c r="AN69">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="AO69">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AS69">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AT69">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU69">
         <v>7</v>
       </c>
       <c r="AV69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>15</v>
+      </c>
+      <c r="AZ69">
+        <v>12</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
         <v>7</v>
-      </c>
-      <c r="AX69">
-        <v>2</v>
-      </c>
-      <c r="AY69">
-        <v>14</v>
-      </c>
-      <c r="AZ69">
-        <v>8</v>
-      </c>
-      <c r="BA69">
-        <v>8</v>
-      </c>
-      <c r="BB69">
-        <v>1</v>
       </c>
       <c r="BC69">
         <v>9</v>
       </c>
       <c r="BD69">
-        <v>3.32</v>
+        <v>1.44</v>
       </c>
       <c r="BE69">
-        <v>6.45</v>
+        <v>7.1</v>
       </c>
       <c r="BF69">
-        <v>1.51</v>
+        <v>3.52</v>
       </c>
       <c r="BG69">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="BH69">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="BI69">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="BJ69">
-        <v>1.88</v>
+        <v>2.85</v>
       </c>
       <c r="BK69">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="BL69">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="BM69">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="BN69">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="BO69">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="BP69">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15083,7 +15083,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7483739</v>
+        <v>7483741</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15092,49 +15092,49 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45599.375</v>
+        <v>45599.45833333334</v>
       </c>
       <c r="F70">
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q70">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R70">
         <v>2.05</v>
       </c>
       <c r="S70">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T70">
         <v>1.44</v>
@@ -15155,13 +15155,13 @@
         <v>1.07</v>
       </c>
       <c r="Z70">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="AA70">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB70">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="AC70">
         <v>1.06</v>
@@ -15170,118 +15170,118 @@
         <v>8</v>
       </c>
       <c r="AE70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG70">
         <v>2</v>
       </c>
       <c r="AH70">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AI70">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ70">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK70">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AL70">
         <v>1.25</v>
       </c>
       <c r="AM70">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="AN70">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="AO70">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>2.43</v>
       </c>
       <c r="AR70">
-        <v>1.38</v>
+        <v>1.99</v>
       </c>
       <c r="AS70">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="AT70">
-        <v>2.66</v>
+        <v>3.71</v>
       </c>
       <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>12</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>17</v>
+      </c>
+      <c r="AZ70">
         <v>7</v>
       </c>
-      <c r="AV70">
-        <v>7</v>
-      </c>
-      <c r="AW70">
-        <v>8</v>
-      </c>
-      <c r="AX70">
+      <c r="BA70">
+        <v>12</v>
+      </c>
+      <c r="BB70">
         <v>4</v>
       </c>
-      <c r="AY70">
-        <v>15</v>
-      </c>
-      <c r="AZ70">
-        <v>12</v>
-      </c>
-      <c r="BA70">
-        <v>2</v>
-      </c>
-      <c r="BB70">
-        <v>7</v>
-      </c>
       <c r="BC70">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD70">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BE70">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="BF70">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="BG70">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BH70">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BI70">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BJ70">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BK70">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BL70">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BM70">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BN70">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BO70">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="BP70">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15289,7 +15289,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7483741</v>
+        <v>7483743</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15298,49 +15298,49 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45599.45833333334</v>
+        <v>45599.5625</v>
       </c>
       <c r="F71">
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="P71" t="s">
         <v>160</v>
       </c>
       <c r="Q71">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R71">
         <v>2.05</v>
       </c>
       <c r="S71">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="T71">
         <v>1.44</v>
@@ -15361,13 +15361,13 @@
         <v>1.07</v>
       </c>
       <c r="Z71">
-        <v>2.6</v>
+        <v>4.35</v>
       </c>
       <c r="AA71">
-        <v>3.25</v>
+        <v>3.56</v>
       </c>
       <c r="AB71">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="AC71">
         <v>1.06</v>
@@ -15385,103 +15385,103 @@
         <v>2</v>
       </c>
       <c r="AH71">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AI71">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ71">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK71">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="AL71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM71">
+        <v>1.17</v>
+      </c>
+      <c r="AN71">
+        <v>1.17</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>2.14</v>
+      </c>
+      <c r="AR71">
         <v>1.47</v>
       </c>
-      <c r="AN71">
-        <v>2.5</v>
-      </c>
-      <c r="AO71">
-        <v>2.33</v>
-      </c>
-      <c r="AP71">
-        <v>2.14</v>
-      </c>
-      <c r="AQ71">
-        <v>2.43</v>
-      </c>
-      <c r="AR71">
-        <v>1.99</v>
-      </c>
       <c r="AS71">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>3.71</v>
+        <v>2.8</v>
       </c>
       <c r="AU71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY71">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA71">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BB71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC71">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD71">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="BE71">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="BF71">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BG71">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BI71">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BJ71">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BK71">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="BL71">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="BM71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN71">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BO71">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['37', '55']</t>
+  </si>
+  <si>
+    <t>['17', '42', '55', '67']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -858,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1326,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1735,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1816,7 +1819,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2022,7 +2025,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2147,7 +2150,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2225,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2353,7 +2356,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2559,7 +2562,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2637,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>2.43</v>
@@ -3052,7 +3055,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3177,7 +3180,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3670,7 +3673,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -4001,7 +4004,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4079,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4413,7 +4416,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4619,7 +4622,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -5031,7 +5034,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5112,7 +5115,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5237,7 +5240,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5318,7 +5321,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5521,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>0.14</v>
@@ -5649,7 +5652,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5855,7 +5858,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6267,7 +6270,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6679,7 +6682,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7091,7 +7094,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7169,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7297,7 +7300,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7378,7 +7381,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7993,7 +7996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8327,7 +8330,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8614,7 +8617,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -8739,7 +8742,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9357,7 +9360,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9438,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -9641,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>0.71</v>
@@ -9769,7 +9772,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9847,7 +9850,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -9975,7 +9978,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10181,7 +10184,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10465,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
         <v>0.71</v>
@@ -10593,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10877,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11005,7 +11008,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11417,7 +11420,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11498,7 +11501,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11704,7 +11707,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -11829,7 +11832,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12035,7 +12038,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12241,7 +12244,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12447,7 +12450,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12653,7 +12656,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12731,7 +12734,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
         <v>2.43</v>
@@ -12859,7 +12862,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -12937,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13065,7 +13068,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13271,7 +13274,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13477,7 +13480,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13683,7 +13686,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13889,7 +13892,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13967,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14095,7 +14098,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14382,7 +14385,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -14919,7 +14922,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15125,7 +15128,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15331,7 +15334,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15409,7 +15412,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ71">
         <v>2.14</v>
@@ -15488,6 +15491,418 @@
       </c>
       <c r="BP71">
         <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7483745</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45604.875</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>124</v>
+      </c>
+      <c r="P72" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q72">
+        <v>2.15</v>
+      </c>
+      <c r="R72">
+        <v>2.16</v>
+      </c>
+      <c r="S72">
+        <v>5.3</v>
+      </c>
+      <c r="T72">
+        <v>1.37</v>
+      </c>
+      <c r="U72">
+        <v>2.94</v>
+      </c>
+      <c r="V72">
+        <v>2.81</v>
+      </c>
+      <c r="W72">
+        <v>1.4</v>
+      </c>
+      <c r="X72">
+        <v>6.7</v>
+      </c>
+      <c r="Y72">
+        <v>1.09</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
+      <c r="AA72">
+        <v>3.6</v>
+      </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>9</v>
+      </c>
+      <c r="AE72">
+        <v>1.22</v>
+      </c>
+      <c r="AF72">
+        <v>3.34</v>
+      </c>
+      <c r="AG72">
+        <v>1.83</v>
+      </c>
+      <c r="AH72">
+        <v>1.87</v>
+      </c>
+      <c r="AI72">
+        <v>1.84</v>
+      </c>
+      <c r="AJ72">
+        <v>1.82</v>
+      </c>
+      <c r="AK72">
+        <v>1.13</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>2.16</v>
+      </c>
+      <c r="AN72">
+        <v>1.57</v>
+      </c>
+      <c r="AO72">
+        <v>0.57</v>
+      </c>
+      <c r="AP72">
+        <v>1.75</v>
+      </c>
+      <c r="AQ72">
+        <v>0.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.36</v>
+      </c>
+      <c r="AS72">
+        <v>1.23</v>
+      </c>
+      <c r="AT72">
+        <v>2.59</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>12</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>20</v>
+      </c>
+      <c r="AZ72">
+        <v>5</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>5</v>
+      </c>
+      <c r="BD72">
+        <v>1.34</v>
+      </c>
+      <c r="BE72">
+        <v>7.2</v>
+      </c>
+      <c r="BF72">
+        <v>4.3</v>
+      </c>
+      <c r="BG72">
+        <v>1.34</v>
+      </c>
+      <c r="BH72">
+        <v>2.69</v>
+      </c>
+      <c r="BI72">
+        <v>1.66</v>
+      </c>
+      <c r="BJ72">
+        <v>2.04</v>
+      </c>
+      <c r="BK72">
+        <v>2.08</v>
+      </c>
+      <c r="BL72">
+        <v>1.57</v>
+      </c>
+      <c r="BM72">
+        <v>2.78</v>
+      </c>
+      <c r="BN72">
+        <v>1.32</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7483744</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45605.5625</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q73">
+        <v>4.95</v>
+      </c>
+      <c r="R73">
+        <v>2.11</v>
+      </c>
+      <c r="S73">
+        <v>2.27</v>
+      </c>
+      <c r="T73">
+        <v>1.41</v>
+      </c>
+      <c r="U73">
+        <v>2.77</v>
+      </c>
+      <c r="V73">
+        <v>2.9</v>
+      </c>
+      <c r="W73">
+        <v>1.38</v>
+      </c>
+      <c r="X73">
+        <v>7.2</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>4.6</v>
+      </c>
+      <c r="AA73">
+        <v>3.5</v>
+      </c>
+      <c r="AB73">
+        <v>1.67</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>8.1</v>
+      </c>
+      <c r="AE73">
+        <v>1.27</v>
+      </c>
+      <c r="AF73">
+        <v>3.04</v>
+      </c>
+      <c r="AG73">
+        <v>1.93</v>
+      </c>
+      <c r="AH73">
+        <v>1.78</v>
+      </c>
+      <c r="AI73">
+        <v>1.85</v>
+      </c>
+      <c r="AJ73">
+        <v>1.81</v>
+      </c>
+      <c r="AK73">
+        <v>1.99</v>
+      </c>
+      <c r="AL73">
+        <v>1.24</v>
+      </c>
+      <c r="AM73">
+        <v>1.16</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.86</v>
+      </c>
+      <c r="AP73">
+        <v>0.88</v>
+      </c>
+      <c r="AQ73">
+        <v>1.13</v>
+      </c>
+      <c r="AR73">
+        <v>1.53</v>
+      </c>
+      <c r="AS73">
+        <v>1.57</v>
+      </c>
+      <c r="AT73">
+        <v>3.1</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>2</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>2</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>2</v>
+      </c>
+      <c r="BB73">
+        <v>6</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>2.81</v>
+      </c>
+      <c r="BE73">
+        <v>6.55</v>
+      </c>
+      <c r="BF73">
+        <v>1.64</v>
+      </c>
+      <c r="BG73">
+        <v>1.2</v>
+      </c>
+      <c r="BH73">
+        <v>3.55</v>
+      </c>
+      <c r="BI73">
+        <v>1.4</v>
+      </c>
+      <c r="BJ73">
+        <v>2.48</v>
+      </c>
+      <c r="BK73">
+        <v>1.74</v>
+      </c>
+      <c r="BL73">
+        <v>1.93</v>
+      </c>
+      <c r="BM73">
+        <v>2.18</v>
+      </c>
+      <c r="BN73">
+        <v>1.52</v>
+      </c>
+      <c r="BO73">
+        <v>2.88</v>
+      </c>
+      <c r="BP73">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,13 +391,16 @@
     <t>['17', '42', '55', '67']</t>
   </si>
   <si>
+    <t>['53', '90']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['43', '85']</t>
@@ -500,6 +503,12 @@
   </si>
   <si>
     <t>['11', '16']</t>
+  </si>
+  <si>
+    <t>['9', '31', '78', '80']</t>
+  </si>
+  <si>
+    <t>['55', '66', '74']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1326,7 +1335,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1404,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>2.14</v>
@@ -1738,7 +1747,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2150,7 +2159,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2356,7 +2365,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2437,7 +2446,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2562,7 +2571,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -3052,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3180,7 +3189,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3258,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.14</v>
@@ -3467,7 +3476,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3876,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
         <v>0.14</v>
@@ -4004,7 +4013,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4416,7 +4425,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4622,7 +4631,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4703,7 +4712,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -5034,7 +5043,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5112,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5240,7 +5249,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5652,7 +5661,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5730,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5858,7 +5867,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5936,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6270,7 +6279,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6682,7 +6691,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7094,7 +7103,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7300,7 +7309,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7378,7 +7387,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -7790,10 +7799,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -7999,7 +8008,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8330,7 +8339,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8408,7 +8417,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>2.43</v>
@@ -8742,7 +8751,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9235,7 +9244,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9360,7 +9369,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9438,7 +9447,7 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -9647,7 +9656,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -9772,7 +9781,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9853,7 +9862,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9978,7 +9987,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10059,7 +10068,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10184,7 +10193,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10262,7 +10271,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>2.43</v>
@@ -10471,7 +10480,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10596,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10677,7 +10686,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11008,7 +11017,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11089,7 +11098,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11292,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>0.14</v>
@@ -11420,7 +11429,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11704,7 +11713,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -11832,7 +11841,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11913,7 +11922,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12038,7 +12047,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12116,7 +12125,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ55">
         <v>2.14</v>
@@ -12244,7 +12253,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12322,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12450,7 +12459,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12531,7 +12540,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -12656,7 +12665,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12862,7 +12871,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13068,7 +13077,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13149,7 +13158,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13274,7 +13283,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13480,7 +13489,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13558,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>0.14</v>
@@ -13686,7 +13695,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13767,7 +13776,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -13892,7 +13901,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14098,7 +14107,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14176,10 +14185,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14382,7 +14391,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14922,7 +14931,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15003,7 +15012,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15128,7 +15137,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15334,7 +15343,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15507,10 +15516,10 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45604.875</v>
+        <v>45605.45833333334</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -15903,6 +15912,624 @@
       </c>
       <c r="BP73">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7483747</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q74">
+        <v>2.91</v>
+      </c>
+      <c r="R74">
+        <v>2.01</v>
+      </c>
+      <c r="S74">
+        <v>3.62</v>
+      </c>
+      <c r="T74">
+        <v>1.43</v>
+      </c>
+      <c r="U74">
+        <v>2.7</v>
+      </c>
+      <c r="V74">
+        <v>3.1</v>
+      </c>
+      <c r="W74">
+        <v>1.34</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.19</v>
+      </c>
+      <c r="AA74">
+        <v>3.29</v>
+      </c>
+      <c r="AB74">
+        <v>3.23</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.28</v>
+      </c>
+      <c r="AF74">
+        <v>2.94</v>
+      </c>
+      <c r="AG74">
+        <v>2.1</v>
+      </c>
+      <c r="AH74">
+        <v>1.67</v>
+      </c>
+      <c r="AI74">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>1.86</v>
+      </c>
+      <c r="AK74">
+        <v>1.34</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.55</v>
+      </c>
+      <c r="AN74">
+        <v>1.57</v>
+      </c>
+      <c r="AO74">
+        <v>0.71</v>
+      </c>
+      <c r="AP74">
+        <v>1.38</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.44</v>
+      </c>
+      <c r="AS74">
+        <v>1.32</v>
+      </c>
+      <c r="AT74">
+        <v>2.76</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>9</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>15</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>1.87</v>
+      </c>
+      <c r="BE74">
+        <v>6.25</v>
+      </c>
+      <c r="BF74">
+        <v>2.36</v>
+      </c>
+      <c r="BG74">
+        <v>1.23</v>
+      </c>
+      <c r="BH74">
+        <v>3.28</v>
+      </c>
+      <c r="BI74">
+        <v>1.44</v>
+      </c>
+      <c r="BJ74">
+        <v>2.35</v>
+      </c>
+      <c r="BK74">
+        <v>1.83</v>
+      </c>
+      <c r="BL74">
+        <v>1.83</v>
+      </c>
+      <c r="BM74">
+        <v>2.29</v>
+      </c>
+      <c r="BN74">
+        <v>1.47</v>
+      </c>
+      <c r="BO74">
+        <v>3.08</v>
+      </c>
+      <c r="BP74">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7483872</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q75">
+        <v>2.5</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.1</v>
+      </c>
+      <c r="Z75">
+        <v>1.83</v>
+      </c>
+      <c r="AA75">
+        <v>3.44</v>
+      </c>
+      <c r="AB75">
+        <v>3.68</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
+        <v>3.6</v>
+      </c>
+      <c r="AG75">
+        <v>1.85</v>
+      </c>
+      <c r="AH75">
+        <v>1.95</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>1.28</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.78</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>1.83</v>
+      </c>
+      <c r="AP75">
+        <v>1.88</v>
+      </c>
+      <c r="AQ75">
+        <v>1.71</v>
+      </c>
+      <c r="AR75">
+        <v>1.87</v>
+      </c>
+      <c r="AS75">
+        <v>1.77</v>
+      </c>
+      <c r="AT75">
+        <v>3.64</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>1</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>3</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>4</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.5</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>3.3</v>
+      </c>
+      <c r="BG75">
+        <v>1.26</v>
+      </c>
+      <c r="BH75">
+        <v>3.08</v>
+      </c>
+      <c r="BI75">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75">
+        <v>2.22</v>
+      </c>
+      <c r="BK75">
+        <v>1.91</v>
+      </c>
+      <c r="BL75">
+        <v>1.76</v>
+      </c>
+      <c r="BM75">
+        <v>2.45</v>
+      </c>
+      <c r="BN75">
+        <v>1.41</v>
+      </c>
+      <c r="BO75">
+        <v>3.34</v>
+      </c>
+      <c r="BP75">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7483746</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>126</v>
+      </c>
+      <c r="P76" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>6.02</v>
+      </c>
+      <c r="AA76">
+        <v>4.45</v>
+      </c>
+      <c r="AB76">
+        <v>1.42</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>1.67</v>
+      </c>
+      <c r="AH76">
+        <v>2.07</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1.17</v>
+      </c>
+      <c r="AO76">
+        <v>1.14</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1.38</v>
+      </c>
+      <c r="AR76">
+        <v>1.07</v>
+      </c>
+      <c r="AS76">
+        <v>1.58</v>
+      </c>
+      <c r="AT76">
+        <v>2.65</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>9</v>
+      </c>
+      <c r="AW76">
+        <v>1</v>
+      </c>
+      <c r="AX76">
+        <v>7</v>
+      </c>
+      <c r="AY76">
+        <v>4</v>
+      </c>
+      <c r="AZ76">
+        <v>16</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -15919,7 +15919,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7483747</v>
+        <v>7483872</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -15928,196 +15928,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F74">
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
         <v>4</v>
       </c>
-      <c r="N74">
-        <v>6</v>
-      </c>
-      <c r="O74" t="s">
-        <v>125</v>
-      </c>
-      <c r="P74" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q74">
-        <v>2.91</v>
-      </c>
-      <c r="R74">
-        <v>2.01</v>
-      </c>
-      <c r="S74">
-        <v>3.62</v>
-      </c>
       <c r="T74">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="U74">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="V74">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="W74">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y74">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="AA74">
-        <v>3.29</v>
+        <v>3.44</v>
       </c>
       <c r="AB74">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="AC74">
         <v>1.05</v>
       </c>
       <c r="AD74">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE74">
+        <v>1.25</v>
+      </c>
+      <c r="AF74">
+        <v>3.6</v>
+      </c>
+      <c r="AG74">
+        <v>1.85</v>
+      </c>
+      <c r="AH74">
+        <v>1.95</v>
+      </c>
+      <c r="AI74">
+        <v>1.73</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
         <v>1.28</v>
       </c>
-      <c r="AF74">
-        <v>2.94</v>
-      </c>
-      <c r="AG74">
-        <v>2.1</v>
-      </c>
-      <c r="AH74">
-        <v>1.67</v>
-      </c>
-      <c r="AI74">
-        <v>1.8</v>
-      </c>
-      <c r="AJ74">
-        <v>1.86</v>
-      </c>
-      <c r="AK74">
-        <v>1.34</v>
-      </c>
       <c r="AL74">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM74">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AN74">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AR74">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AS74">
-        <v>1.32</v>
+        <v>1.77</v>
       </c>
       <c r="AT74">
-        <v>2.76</v>
+        <v>3.64</v>
       </c>
       <c r="AU74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV74">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW74">
         <v>1</v>
       </c>
       <c r="AX74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC74">
         <v>8</v>
       </c>
       <c r="BD74">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="BE74">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF74">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="BG74">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BH74">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BI74">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BJ74">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="BK74">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BL74">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="BM74">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="BN74">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="BO74">
-        <v>3.08</v>
+        <v>3.34</v>
       </c>
       <c r="BP74">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16125,7 +16125,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7483872</v>
+        <v>7483747</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16134,196 +16134,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45605.875</v>
+        <v>45606.5625</v>
       </c>
       <c r="F75">
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O75" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="Q75">
-        <v>2.5</v>
+        <v>2.91</v>
       </c>
       <c r="R75">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>3.62</v>
       </c>
       <c r="T75">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="U75">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="V75">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="W75">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="X75">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z75">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
       <c r="AA75">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="AB75">
-        <v>3.68</v>
+        <v>3.23</v>
       </c>
       <c r="AC75">
         <v>1.05</v>
       </c>
       <c r="AD75">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE75">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF75">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="AG75">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH75">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AI75">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ75">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AK75">
+        <v>1.34</v>
+      </c>
+      <c r="AL75">
         <v>1.28</v>
       </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
       <c r="AM75">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO75">
-        <v>1.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AS75">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="AT75">
-        <v>3.64</v>
+        <v>2.76</v>
       </c>
       <c r="AU75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV75">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW75">
         <v>1</v>
       </c>
       <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
         <v>7</v>
       </c>
-      <c r="AY75">
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
         <v>3</v>
       </c>
-      <c r="AZ75">
-        <v>10</v>
-      </c>
-      <c r="BA75">
-        <v>4</v>
-      </c>
       <c r="BB75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC75">
         <v>8</v>
       </c>
       <c r="BD75">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="BE75">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF75">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="BG75">
+        <v>1.23</v>
+      </c>
+      <c r="BH75">
+        <v>3.28</v>
+      </c>
+      <c r="BI75">
+        <v>1.44</v>
+      </c>
+      <c r="BJ75">
+        <v>2.35</v>
+      </c>
+      <c r="BK75">
+        <v>1.83</v>
+      </c>
+      <c r="BL75">
+        <v>1.83</v>
+      </c>
+      <c r="BM75">
+        <v>2.29</v>
+      </c>
+      <c r="BN75">
+        <v>1.47</v>
+      </c>
+      <c r="BO75">
+        <v>3.08</v>
+      </c>
+      <c r="BP75">
         <v>1.26</v>
-      </c>
-      <c r="BH75">
-        <v>3.08</v>
-      </c>
-      <c r="BI75">
-        <v>1.5</v>
-      </c>
-      <c r="BJ75">
-        <v>2.22</v>
-      </c>
-      <c r="BK75">
-        <v>1.91</v>
-      </c>
-      <c r="BL75">
-        <v>1.76</v>
-      </c>
-      <c r="BM75">
-        <v>2.45</v>
-      </c>
-      <c r="BN75">
-        <v>1.41</v>
-      </c>
-      <c r="BO75">
-        <v>3.34</v>
-      </c>
-      <c r="BP75">
-        <v>1.22</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16340,7 +16340,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45605.875</v>
+        <v>45606.67708333334</v>
       </c>
       <c r="F76">
         <v>15</v>
